--- a/data/talismans.xlsx
+++ b/data/talismans.xlsx
@@ -20,25 +20,22 @@
     <t>info</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>image_url</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>Ancestral Spirit's Horn</t>
   </si>
   <si>
     <t>Restores FP upon defeating enemies</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6967466bl0i2swi5et1ibv4rc6r.png</t>
   </si>
   <si>
     <t>Item cut from the horns of the Regal Ancestor Spirit.
@@ -46,13 +43,13 @@
 A number of new growths bud from the antler-like horns of the fallen king, each glowing with light. Thus does new life grow from death, and from death, one obtains power.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6967466bl0i2swi5et1ibv4rc6r.png</t>
+  </si>
+  <si>
     <t>Arrow's Reach Talisman</t>
   </si>
   <si>
     <t>Increases bow effective range</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69dfff40l0i2soo71h481xlxzx8i.png</t>
   </si>
   <si>
     <t>A talisman depicting three arrows.
@@ -60,13 +57,13 @@
 Increases the effective range of bows.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69dfff40l0i2soo71h481xlxzx8i.png</t>
+  </si>
+  <si>
     <t>Arrow's Sting Talisman</t>
   </si>
   <si>
     <t>Raises attack power of arrows and bolts</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f4f7a3l0i2soioqe3qysjxaw.png</t>
   </si>
   <si>
     <t>A talisman depicting three iron arrows.
@@ -74,13 +71,13 @@
 Raises attack power of arrows and bolts.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f4f7a3l0i2soioqe3qysjxaw.png</t>
+  </si>
+  <si>
     <t>Arsenal Charm</t>
   </si>
   <si>
     <t>Raises maximum equipment load</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69659e33l0i2soj4uhpxf54ncje.png</t>
   </si>
   <si>
     <t>An iron charm that resembles a mass of weaponry.
@@ -88,6 +85,9 @@
 This talisman was derived from an unusual greatsword once wielded by a hero hungry for vengeance.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69659e33l0i2soj4uhpxf54ncje.png</t>
+  </si>
+  <si>
     <t>Arsenal Charm +1</t>
   </si>
   <si>
@@ -105,21 +105,18 @@
     <t>Critical hits restore FP</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d47ea5l0i2sokp40249x3da4f.png</t>
-  </si>
-  <si>
     <t>An assassin's dagger, misshapen and stained in cerulean.
 Critical hits restore FP.
 This charm is modelled after the darkly gleaming blades used in the Night of Black Knives. Those which gave the demigods their first taste of Death.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d47ea5l0i2sokp40249x3da4f.png</t>
+  </si>
+  <si>
     <t>Assassin's Crimson Dagger</t>
   </si>
   <si>
     <t>Critical hits restore HP</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697e45b3l0i2sol3u2c1y0ja11.png</t>
   </si>
   <si>
     <t>An assassin's dagger, misshapen and stained in crimson.
@@ -127,13 +124,13 @@
 This charm is modelled after the darkly gleaming blades used in the Night of Black Knives. Those which gave the demigods their first taste of Death.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697e45b3l0i2sol3u2c1y0ja11.png</t>
+  </si>
+  <si>
     <t>Axe Talisman</t>
   </si>
   <si>
     <t>Enhances charge attacks</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c74ab1l0i2sp8u8ehul0cxenh.png</t>
   </si>
   <si>
     <t>A talisman depicting an axe and a warrior.
@@ -141,13 +138,13 @@
 The Lord who led the Long March bore an axe, and his loyal warriors honored him by wielding axes of their own, making them very effective at dealing decisive blows.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c74ab1l0i2sp8u8ehul0cxenh.png</t>
+  </si>
+  <si>
     <t>Blessed Dew Talisman</t>
   </si>
   <si>
     <t>Slowly restores HP</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69977289l0i2spaggtt1hdtxhk4.png</t>
   </si>
   <si>
     <t>Talisman depicting a drop of the Erdtree's sap, a blessed boon.
@@ -155,13 +152,13 @@
 It was once thought that the blessed sap of the Erdtree would drip from its boughs forever—but that age of plenty swiftly came to a close, and with time, the Erdtree became more an object of faith.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69977289l0i2spaggtt1hdtxhk4.png</t>
+  </si>
+  <si>
     <t>Blue Dancer Charm</t>
   </si>
   <si>
     <t>Raises attack power with lower equipment load</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69811f79l0i2spa5kavq1z95u5i.png</t>
   </si>
   <si>
     <t>A cloth doll depicting a dancer garbed in blue.
@@ -170,6 +167,9 @@
 The dancer in blue represents a fairy, who in legend bestowed a flowing sword upon a blind swordsman. Blade in hand, the swordsman sealed away an ancient god—a god that was Rot itself.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69811f79l0i2spa5kavq1z95u5i.png</t>
+  </si>
+  <si>
     <t>Blue-Feathered Branchsword</t>
   </si>
   <si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>Boosts lightning damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697718ffl0i2sp9dowe0oahaam.png</t>
   </si>
   <si>
     <t>Talisman depicting a yellow ancient dragon.
@@ -196,6 +193,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697718ffl0i2sp9dowe0oahaam.png</t>
+  </si>
+  <si>
     <t>Boltdrake Talisman +1</t>
   </si>
   <si>
@@ -237,21 +237,18 @@
     <t>Lowers FP consumed by skills</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e97eaal0i2sq1lvpkd5cfq2q.png</t>
-  </si>
-  <si>
     <t>A talisman adorned with the royal crest.
 Lowers FP consumed by skills.
 An honor said to have once been awarded to Carian knights who served as direct retainers to the kingdom's princesses. Now there is only one princess: Ranni, daughter of Rennala.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e97eaal0i2sq1lvpkd5cfq2q.png</t>
+  </si>
+  <si>
     <t>Cerulean Amber Medallion</t>
   </si>
   <si>
     <t>Raises maximum FP</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ed62a2l0i2sq0x8kqy5oe9mwn.png</t>
   </si>
   <si>
     <t>A medallion with cerulean amber inlaid.
@@ -260,6 +257,9 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ed62a2l0i2sq0x8kqy5oe9mwn.png</t>
+  </si>
+  <si>
     <t>Cerulean Amber Medallion +1</t>
   </si>
   <si>
@@ -290,21 +290,18 @@
     <t>Boosts FP restoration from Flask of Cerulean Tears</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69dc1892l0i2sq1oh9i2x6tlarj.png</t>
-  </si>
-  <si>
     <t>A cerulean-colored talisman patterned after an Erdtree seed.
 Boosts FP restoration from the Flask of Cerulean Tears.
 The Erdtree was once perfect and eternal, and thus was it believed that Erdtree seeds could not exist.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69dc1892l0i2sq1oh9i2x6tlarj.png</t>
+  </si>
+  <si>
     <t>Clarifying Horn Charm</t>
   </si>
   <si>
     <t>Raises focus</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69942443l0i2sq2zl2bttnq08hp.png</t>
   </si>
   <si>
     <t>An accoutrement worn by the ancestral followers.
@@ -313,6 +310,9 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69942443l0i2sq2zl2bttnq08hp.png</t>
+  </si>
+  <si>
     <t>Clarifying Horn Charm +1</t>
   </si>
   <si>
@@ -331,21 +331,18 @@
     <t>Enhances jump attacks</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ba1d62l0i2sq92f4o8t2tlzp7.png</t>
-  </si>
-  <si>
     <t>A talisman depicting a claw and an assassin.
 Enhances jump attacks.
 The assassins of Ravenmount are killers by trade. They assail their victims while dressed as birds of prey.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ba1d62l0i2sq92f4o8t2tlzp7.png</t>
+  </si>
+  <si>
     <t>Companion Jar</t>
   </si>
   <si>
     <t>Raises potency of throwing pots</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69eaed7fl0i2sz3buubfj570rq.png</t>
   </si>
   <si>
     <t>A talisman given by the jars to their friends.
@@ -353,13 +350,13 @@
 Though the jars are brought to life by human flesh and blood, they are all rather kindly folk. Perhaps they were made to be better than their innards.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69eaed7fl0i2sz3buubfj570rq.png</t>
+  </si>
+  <si>
     <t>Concealing Veil</t>
   </si>
   <si>
     <t>Conceals wearer while crouching away from foes</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c9bfc8l0i2sze3h5gawcr577p.png</t>
   </si>
   <si>
     <t>Talisman put together from dark cloth with a lustrous sheen.
@@ -367,13 +364,13 @@
 Part of one of the concealing veils used by the assassins on the Night of Black Knives.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c9bfc8l0i2sze3h5gawcr577p.png</t>
+  </si>
+  <si>
     <t>Crepus's Vial</t>
   </si>
   <si>
     <t>Eliminates all sound made by the wearer during movement</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b7aec7l0i2sqw1x7ajlmzguyi.png</t>
   </si>
   <si>
     <t>Small mysterious bottle with a dark mist sealed within.
@@ -381,13 +378,13 @@
 A ritual implement used by Roundtable Hold assassins. There was a time when Tarnished who had strayed from guidance feared nothing more than utter silence.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b7aec7l0i2sqw1x7ajlmzguyi.png</t>
+  </si>
+  <si>
     <t>Crimson Amber Medallion</t>
   </si>
   <si>
     <t>Raises maximum HP</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699e5a9dl0i2sqsk8mpabyj9mm4.png</t>
   </si>
   <si>
     <t>A medallion with crimson amber inlaid.
@@ -396,6 +393,9 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699e5a9dl0i2sqsk8mpabyj9mm4.png</t>
+  </si>
+  <si>
     <t>Crimson Amber Medallion +1</t>
   </si>
   <si>
@@ -426,21 +426,18 @@
     <t>Boosts HP restoration from Flask of Crimson Tears</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699b6e58l0i2svqah8qxabssa6s.png</t>
-  </si>
-  <si>
     <t>A crimson-colored talisman patterned after an Erdtree seed.
 Boosts HP restoration from the Flask of Crimson Tears.
 The Erdtree was once perfect and eternal, and thus was it believed that Erdtree seeds could not exist.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699b6e58l0i2svqah8qxabssa6s.png</t>
+  </si>
+  <si>
     <t>Crucible Feather Talisman</t>
   </si>
   <si>
     <t>Improves dodge rolling but increases damage taken</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d33e2dl0i2szt872otxd3taua.png</t>
   </si>
   <si>
     <t>A talisman fashioned from feathers that embody the aspects of various creatures.
@@ -449,13 +446,13 @@
 A vestige of the crucible of primordial life. Born partially of devolution, it was considered a signifier of the divine in ancient times, but is now increasingly disdained as an impurity as civilization has advanced.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d33e2dl0i2szt872otxd3taua.png</t>
+  </si>
+  <si>
     <t>Crucible Knot Talisman</t>
   </si>
   <si>
     <t>Reduces damage and impact of headshots</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d61012l0i2sqr9dmioj7dxngi.png</t>
   </si>
   <si>
     <t>A talisman fashioned from a bony knot that embodies the aspects of various creatures.
@@ -464,13 +461,13 @@
 A vestige of the crucible of primordial life. Born partially of devolution, it was considered a signifier of the divine in ancient times, but is now increasingly disdained as an impurity as civilization has advanced.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d61012l0i2sqr9dmioj7dxngi.png</t>
+  </si>
+  <si>
     <t>Crucible Scale Talisman</t>
   </si>
   <si>
     <t>Reduces damage taken from critical hits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6993bc1fl0i2sqt5xscysq45rce.png</t>
   </si>
   <si>
     <t>A talisman fashioned from a scale that embodies the aspects of various creatures.
@@ -479,13 +476,13 @@
 A vestige of the crucible of primordial life. Born partially of devolution, it was considered a signifier of the divine in ancient times, but is now increasingly disdained as an impurity as civilization has advanced.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6993bc1fl0i2sqt5xscysq45rce.png</t>
+  </si>
+  <si>
     <t>Curved Sword Talisman</t>
   </si>
   <si>
     <t>Enhances guard counters</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ed2edfl0i2sqxgpadu0gprbn.png</t>
   </si>
   <si>
     <t>A talisman depicting a curved sword and a swordsman.
@@ -493,13 +490,13 @@
 It is said that a blind swordsman was the originator of this technique—the art of allowing one's opponent to strike so as to leave them vulnerable to a well-timed reply.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ed2edfl0i2sqxgpadu0gprbn.png</t>
+  </si>
+  <si>
     <t>Daedicar's Woe</t>
   </si>
   <si>
     <t>Increases damage taken</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699d64d5l0i2szu3wjjkmeqklc.png</t>
   </si>
   <si>
     <t>Disturbing likeness of a woman whose skin was flayed.
@@ -508,13 +505,13 @@
 It is said that this woman, named Daedicar, indulged in every form of adultery and wicked pleasure imaginable, giving birth to a myriad of grotesque children.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699d64d5l0i2szu3wjjkmeqklc.png</t>
+  </si>
+  <si>
     <t>Dagger Talisman</t>
   </si>
   <si>
     <t>Enhances critical hits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6991130cl0i2sywsfxyysl6tz7h.png</t>
   </si>
   <si>
     <t>A talisman depicting a dagger and a surgeon.
@@ -522,13 +519,13 @@
 The white-garbed field surgeons come to the aid of friend and foe alike by dealing a final deadly thrust to spare them from the prolonged agony of a mortal wound. A sense of mercy is a catalyst for bloodlust.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6991130cl0i2sywsfxyysl6tz7h.png</t>
+  </si>
+  <si>
     <t>Dragoncrest Greatshield Talisman</t>
   </si>
   <si>
     <t>Enormously boosts physical damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696b90dbl0i2sws9twxdvi39xzf.png</t>
   </si>
   <si>
     <t>Legendary talisman of wrought iron depicting a massive ancient dragon.
@@ -537,13 +534,13 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696b90dbl0i2sws9twxdvi39xzf.png</t>
+  </si>
+  <si>
     <t>Dragoncrest Shield Talisman</t>
   </si>
   <si>
     <t>Boosts physical damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d584c8l0i2srfem3zhei7qek.png</t>
   </si>
   <si>
     <t>Wrought iron talisman depicting an ancient dragon.
@@ -552,6 +549,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d584c8l0i2srfem3zhei7qek.png</t>
+  </si>
+  <si>
     <t>Dragoncrest Shield Talisman +1</t>
   </si>
   <si>
@@ -582,20 +582,17 @@
     <t>Changes demeanour of wearer's actions</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696c4991l0i2szwm52zrw4bgso4.png</t>
-  </si>
-  <si>
     <t>Mysterious circular object that's oddly warped.
 Changes the demeanour of the wearer's actions.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696c4991l0i2szwm52zrw4bgso4.png</t>
+  </si>
+  <si>
     <t>Erdtree's Favor</t>
   </si>
   <si>
     <t>Raises maximum HP, stamina and equip load</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f205a0l0i2svmo2djg04dhvj4.png</t>
   </si>
   <si>
     <t>A talisman depicting a special blessing of the Erdtree.
@@ -603,6 +600,9 @@
 It is said that when the Age of the Erdtree began, such blessings were personally bestowed upon their recipients by Queen Marika herself.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f205a0l0i2svmo2djg04dhvj4.png</t>
+  </si>
+  <si>
     <t>Erdtree's Favor +1</t>
   </si>
   <si>
@@ -623,9 +623,6 @@
   </si>
   <si>
     <t>Raises potency of incantations</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696b2a8el0i2srkijjgnyeo45ic.png</t>
   </si>
   <si>
     <t>A talisman bearing an icon that depicts a group of masked figures.
@@ -634,13 +631,13 @@
 What is faith if not an affirmation?</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696b2a8el0i2srkijjgnyeo45ic.png</t>
+  </si>
+  <si>
     <t>Fire Scorpion Charm</t>
   </si>
   <si>
     <t>Raises fire attack, but lowers damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697b6373l0i2srhja32ffmg9v7s.png</t>
   </si>
   <si>
     <t>A talisman carried by assassins who strike unseen.
@@ -648,13 +645,13 @@
 Raises fire attack power, but lowers damage negation.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697b6373l0i2srhja32ffmg9v7s.png</t>
+  </si>
+  <si>
     <t>Flamedrake Talisman</t>
   </si>
   <si>
     <t>Boosts fire damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6969e375l0i2srh8fpkcyede0z.png</t>
   </si>
   <si>
     <t>Talisman depicting a red ancient dragon.
@@ -663,6 +660,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6969e375l0i2srh8fpkcyede0z.png</t>
+  </si>
+  <si>
     <t>Flamedrake Talisman +1</t>
   </si>
   <si>
@@ -693,15 +693,15 @@
     <t>Greatly raises potency of incantations</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6976f6b0l0i2szav175mw9xww9x.png</t>
-  </si>
-  <si>
     <t>A talisman bearing an icon that depicts a mass of masked figures.
 Greatly raises potency of incantations.
 The figures represent the flock at prayer, their firm belief in the intangible inspiring even the solitary founder of their religion.
 What is faith if not an affirmation?</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6976f6b0l0i2szav175mw9xww9x.png</t>
+  </si>
+  <si>
     <t>Furled Finger's Trick-Mirror</t>
   </si>
   <si>
@@ -719,21 +719,18 @@
     <t>Enhances charged spells and skills</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c0c973l0i2sw8w6uvbwqiqfmy.png</t>
-  </si>
-  <si>
     <t>A legendary talisman depicting the Elden Lord Godfrey.
 Raises charge attack power of sorceries, incantations, and skills.
 Godfrey was a ferocious warrior. When he vowed to become a lord, he took the Beast Regent Serosh upon on his back to suppress the ceaseless lust for battle that raged within.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c0c973l0i2sw8w6uvbwqiqfmy.png</t>
+  </si>
+  <si>
     <t>Godskin Swaddling Cloth</t>
   </si>
   <si>
     <t>Successive attacks restore HP</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c7f897l0i2srkhjmyvn5rfnva.png</t>
   </si>
   <si>
     <t>Sacred cloth of the Godskin Apostles, made from supple skin sewn together.
@@ -741,17 +738,20 @@
 The Gloam-Eyed Queen cradles newborn apostles swaddled in this cloth. Soon they will grow to become the death of the gods.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c7f897l0i2srkhjmyvn5rfnva.png</t>
+  </si>
+  <si>
     <t>Gold Scarab</t>
   </si>
   <si>
     <t>Increases runes obtained from defeated enemies</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d1b2c0l0i2sx1e2ftbrqshztb.png</t>
   </si>
   <si>
     <t>A talisman facsimile of a scarab, the carrier of treasures and precious things.
 This golden scarab increases the amount of runes obtained from defeating enemies.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d1b2c0l0i2sx1e2ftbrqshztb.png</t>
   </si>
   <si>
     <t>Graven-Mass Talisman</t>
@@ -794,21 +794,18 @@
     <t>Boosts guarding ability</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ba2ff0l0i2sye3sdb94vc6u6j.png</t>
-  </si>
-  <si>
     <t>Talisman depicting a knight holding a greatshield.
 Boosts guarding ability.
 The knights of Leyndell once modelled themselves after the Tree Sentinels. Their purpose is to protect that which deserves protection, and thus the shield always comes before the sword.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ba2ff0l0i2sye3sdb94vc6u6j.png</t>
+  </si>
+  <si>
     <t>Green Turtle Talisman</t>
   </si>
   <si>
     <t>Raises stamina recovery speed</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ecd4bdl0i2ss5cnven5hobw5d.png</t>
   </si>
   <si>
     <t>A talisman in the shape of a green turtle.
@@ -817,13 +814,13 @@
 However, those who hold turtles to be wise creatures consider the practice of eating their meat to be barbarous.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ecd4bdl0i2ss5cnven5hobw5d.png</t>
+  </si>
+  <si>
     <t>Haligdrake Talisman</t>
   </si>
   <si>
     <t>Boosts holy damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69854ae6l0i2ss4quq0gikz8cw.png</t>
   </si>
   <si>
     <t>Talisman depicting a golden ancient dragon.
@@ -832,6 +829,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69854ae6l0i2ss4quq0gikz8cw.png</t>
+  </si>
+  <si>
     <t>Haligdrake Talisman +1</t>
   </si>
   <si>
@@ -862,14 +862,14 @@
     <t>Enhances stamina-reducing attacks against blockers</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696fc245l0i2ss7f2pzn3xdhj6n.png</t>
-  </si>
-  <si>
     <t>A talisman depicting a hammer and a knight.
 Enhances stamina-reducing attacks against a blocking opponent.
 Hammers are highly effective against shield-bearing foes, so much so that they are known as "knight-killers."</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696fc245l0i2ss7f2pzn3xdhj6n.png</t>
+  </si>
+  <si>
     <t>Host's Trick-Mirror</t>
   </si>
   <si>
@@ -885,9 +885,6 @@
   </si>
   <si>
     <t>Raises immunity</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69a7ec34l0i2ss898co9a2xz8uv.png</t>
   </si>
   <si>
     <t>An accoutrement worn by the ancestral followers.
@@ -896,6 +893,9 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69a7ec34l0i2ss898co9a2xz8uv.png</t>
+  </si>
+  <si>
     <t>Immunizing Horn Charm +1</t>
   </si>
   <si>
@@ -925,21 +925,18 @@
     <t>Enhances attacks on horseback</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69858252l0i2swaqtyccdf5kihk.png</t>
-  </si>
-  <si>
     <t>A talisman depicting a lance and a knight.
 Enhances attacks while on horseback.
 Knights on horseback are deadly foes. They see all below from their lofty position, meeting little meaningful resistance as they charge ahead.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69858252l0i2swaqtyccdf5kihk.png</t>
+  </si>
+  <si>
     <t>Lightning Scorpion Charm</t>
   </si>
   <si>
     <t>Raises lightning attack, but lowers damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e2a905l0i2ssrfz1ym5wgjvc.png</t>
   </si>
   <si>
     <t>A talisman carried by assassins who strike unseen.
@@ -947,13 +944,13 @@
 Raises lightning attack power, but lowers damage negation.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e2a905l0i2ssrfz1ym5wgjvc.png</t>
+  </si>
+  <si>
     <t>Longtail Cat Talisman</t>
   </si>
   <si>
     <t>Grants immunity to fall damage, but does not prevent death from a high fall</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ca952al0i2ssu6yw9l5kfw6q.png</t>
   </si>
   <si>
     <t>A brooch depicting Lacrima, the long-tailed cat.
@@ -961,6 +958,9 @@
 Lacrima features in the fables of Raya Lucaria, in which she is described as a faerie cat who was fond of playing in the great bell tower.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ca952al0i2ssu6yw9l5kfw6q.png</t>
+  </si>
+  <si>
     <t>Lord of Blood's Exultation</t>
   </si>
   <si>
@@ -978,21 +978,18 @@
     <t>Raises magic attack, but lowers damage negation</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69747fbcl0i2sxow29iyn6fm75v.png</t>
-  </si>
-  <si>
     <t>A talisman carried by assassins who strike unseen.
 Patterned on a scorpion freshly shed of its exoskeleton, its claws seizing a heart that shimmers with magic.
 Raises magic attack power, but lowers damage negation.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69747fbcl0i2sxow29iyn6fm75v.png</t>
+  </si>
+  <si>
     <t>Marika's Scarseal</t>
   </si>
   <si>
     <t>Raises attributes, but also increases damage taken</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69bdcd53l0i2ssvjmuvkx73w1bo.png</t>
   </si>
   <si>
     <t>An eye engraved with an Elden Rune.
@@ -1001,13 +998,13 @@
 These seals represent the lifelong duty of those chosen by the gods.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69bdcd53l0i2ssvjmuvkx73w1bo.png</t>
+  </si>
+  <si>
     <t>Marika's Soreseal</t>
   </si>
   <si>
     <t>Greatly raises attributes, but also increases damage taken</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c504f2l0i2swunxt9oun5dn9.png</t>
   </si>
   <si>
     <t>This legendary talisman is an eye engraved with an Elden Rune, said to be the seal of Queen Marika.
@@ -1015,13 +1012,13 @@
 Solemn duty weighs upon the one beholden; not unlike a gnawing curse from which there is no deliverance.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c504f2l0i2swunxt9oun5dn9.png</t>
+  </si>
+  <si>
     <t>Millicent's Prosthesis</t>
   </si>
   <si>
     <t>Boosts dexterity, raises attack power with successive attacks</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69afb835l0i2sykg6ynuw6wl9b.png</t>
   </si>
   <si>
     <t>Part of the golden prosthesis used by Millicent.
@@ -1030,6 +1027,9 @@
 The despair of sweet betrayal transformed Millicent from a mere bud into a magnificent flower. And one day, she will be reborn—as a beautiful scarlet valkyrie.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69afb835l0i2sykg6ynuw6wl9b.png</t>
+  </si>
+  <si>
     <t>Moon of Nokstella</t>
   </si>
   <si>
@@ -1048,14 +1048,14 @@
     <t>Raises robustness, immunity, and focus</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b9af92l0i2st8bt7bg2grdb1h.png</t>
-  </si>
-  <si>
     <t>A vividly-colored accoutrement precious to the ancestral followers.
 Raises immunity, robustness, and focus.
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b9af92l0i2st8bt7bg2grdb1h.png</t>
+  </si>
+  <si>
     <t>Mottled Necklace +1</t>
   </si>
   <si>
@@ -1073,21 +1073,18 @@
     <t>Extends spell effect duration</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6967fb2dl0i2ste8y2pomb9gcj9.png</t>
-  </si>
-  <si>
     <t>A legendary talisman depicting the ancient king whose seat lies at the heart of the storm beyond time.
 Extends the duration of sorceries and incantations.
 It is said that the ancient royal city of Farum Azula has been slowly crumbling since time immemorial.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6967fb2dl0i2ste8y2pomb9gcj9.png</t>
+  </si>
+  <si>
     <t>Pearldrake Talisman</t>
   </si>
   <si>
     <t>Boosts non-physical damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699f5086l0i2stgzl85bqm2vvy.png</t>
   </si>
   <si>
     <t>Talisman depicting a pearlescent ancient dragon.
@@ -1096,6 +1093,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699f5086l0i2stgzl85bqm2vvy.png</t>
+  </si>
+  <si>
     <t>Pearldrake Talisman +1</t>
   </si>
   <si>
@@ -1126,26 +1126,26 @@
     <t>Raises potency of perfume items</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e92d45l0i2sxmogqn2tdfna89.png</t>
-  </si>
-  <si>
     <t>A talisman depicting a set of perfume bottles.
 Raises potency of perfume items.
 There are gardens known only to the perfumers. Whether hidden on the fringes of the highlands, or obscured by shadows inside caves, the flowers blossom in secret, waiting to impart their scent.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e92d45l0i2sxmogqn2tdfna89.png</t>
+  </si>
+  <si>
     <t>Primal Glintstone Blade</t>
   </si>
   <si>
     <t>Spells consume less FP, but maximum HP is reduced</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e4e872l0i2strgtb0bn8sior8.png</t>
   </si>
   <si>
     <t>An old glintstone blade that has been stained with blood.
 Reduces FP consumption of sorceries and incantations at the cost of maximum HP.
 The old sorcerers would slice open their hearts with these blades to imbue a primal glintstone with their soul, and thus did they die.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e4e872l0i2strgtb0bn8sior8.png</t>
   </si>
   <si>
     <t>Prince of Death's Cyst</t>
@@ -1189,18 +1189,15 @@
     <t>Shortens spell casting time</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69db3ddfl0i2stxpa5we7cuil2.png</t>
-  </si>
-  <si>
     <t>A legendary talisman depicting the Elden Lord Radagon.
 Shortens the casting time of sorceries and incantations.
 As the husband of Rennala of Caria, the red-haired Radagon studied sorcery, and as the husband of Queen Marika, he studied incantations. Thus did the hero aspire to be complete.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69db3ddfl0i2stxpa5we7cuil2.png</t>
+  </si>
+  <si>
     <t>Radagon's Scarseal</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f6b0d2l0i2su0uxibci7qzsn.png</t>
   </si>
   <si>
     <t>An eye engraved with an Elden Rune.
@@ -1209,10 +1206,10 @@
 These seals represent the lifelong duty of those chosen by the gods.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f6b0d2l0i2su0uxibci7qzsn.png</t>
+  </si>
+  <si>
     <t>Radagon's Soreseal</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696a52c1l0i2su2ddt9cbw3bnog.png</t>
   </si>
   <si>
     <t>This legendary talisman is an eye engraved with an Elden Rune, said to be the seal of King Consort Radagon.
@@ -1220,6 +1217,9 @@
 Solemn duty weighs upon the one beholden; not unlike a gnawing curse from which there is no deliverance.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696a52c1l0i2su2ddt9cbw3bnog.png</t>
+  </si>
+  <si>
     <t>Red-Feathered Branchsword</t>
   </si>
   <si>
@@ -1237,26 +1237,26 @@
     <t>Raises defense when HP is at maximum</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699e1a3al0i2sxkv62fi32hab4.png</t>
-  </si>
-  <si>
     <t>A talisman patterned after shields used in ritual combat held to honor the Erdtree.
 Raises defense when HP is at maximum.
 The practice had died out by the age of King Consort Radagon, but remains of the arenas where ritual combat took place can still be found in every land.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699e1a3al0i2sxkv62fi32hab4.png</t>
+  </si>
+  <si>
     <t>Ritual Sword Talisman</t>
   </si>
   <si>
     <t>Raises attack power when HP is at maximum</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699ae959l0i2sx3bloupcziqiz.png</t>
   </si>
   <si>
     <t>A talisman patterned after swords used in ritual combat held to honor the Erdtree.
 Raises attack power when HP is at maximum.
 The practice had died out by the age of King Consort Radagon, but remains of the arenas where ritual combat took place can still be found in every land.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699ae959l0i2sx3bloupcziqiz.png</t>
   </si>
   <si>
     <t>Roar Medallion</t>
@@ -1288,21 +1288,18 @@
     <t>Raises holy attack, but lowers damage negation</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e49085l0i2sudupmymnf7is0e.png</t>
-  </si>
-  <si>
     <t>A talisman carried by assassins who strike unseen.
 Patterned on a scorpion freshly shed of its exoskeleton, its claws seizing a heart with a blessed glow.
 Raises holy attack power, but lowers damage negation.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e49085l0i2sudupmymnf7is0e.png</t>
+  </si>
+  <si>
     <t>Sacrificial Twig</t>
   </si>
   <si>
     <t>Will be lost on death in place of runes</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6966d3a9l0i2suh41ayrux3telz.png</t>
   </si>
   <si>
     <t>A talisman fashioned from a dried twig, so slender that it might snap at the slightest touch.
@@ -1310,13 +1307,13 @@
 Believed to be a twig pruned from the Erdtree long, long ago.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6966d3a9l0i2suh41ayrux3telz.png</t>
+  </si>
+  <si>
     <t>Shabriri's Woe</t>
   </si>
   <si>
     <t>Constantly attracts enemies' aggression</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697d1dacl0i2sui3ut73lui72f.png</t>
   </si>
   <si>
     <t>Disturbing likeness of a man whose eyes have been gouged out.
@@ -1325,6 +1322,9 @@
 It is said that the man, named Shabriri, had his eyes gouged out as punishment for the crime of slander, and, with time, the blight of the flame of frenzy came to dwell in the empty sockets.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697d1dacl0i2sui3ut73lui72f.png</t>
+  </si>
+  <si>
     <t>Shard of Alexander</t>
   </si>
   <si>
@@ -1352,21 +1352,18 @@
     <t>Enhances counterattacks unique to thrusting weapons</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e13918l0i2syr0vvb0gg1l8xg.png</t>
-  </si>
-  <si>
     <t>A talisman depicting a spear and a soldier.
 Enhances the counterattacks that are unique to thrusting weapons.
 Spears are standard weapons for soldiers in the Lands Between. They made it possible to respond to a ferocious foe with an equally ferocious counterattack.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e13918l0i2syr0vvb0gg1l8xg.png</t>
+  </si>
+  <si>
     <t>Spelldrake Talisman</t>
   </si>
   <si>
     <t>Boosts magical damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b80630l0i2sum3q22drl273qe.png</t>
   </si>
   <si>
     <t>Talisman depicting a blue ancient dragon.
@@ -1375,6 +1372,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b80630l0i2sum3q22drl273qe.png</t>
+  </si>
+  <si>
     <t>Spelldrake Talisman +1</t>
   </si>
   <si>
@@ -1405,15 +1405,15 @@
     <t>Raises robustness</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69990291l0i2swl19cw8v99d5tk.png</t>
-  </si>
-  <si>
     <t>An accoutrement worn by the ancestral followers.
 Raises robustness.
 (Robustness governs resistance to blood loss and frost.)
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69990291l0i2swl19cw8v99d5tk.png</t>
+  </si>
+  <si>
     <t>Stalwart Horn Charm +1</t>
   </si>
   <si>
@@ -1432,21 +1432,18 @@
     <t>Raises intelligence</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69726e74l0i2sunvmav2rtqj9e.png</t>
-  </si>
-  <si>
     <t>A talisman engraved with the legend of a queen.
 Raises intelligence.
 The young astrologer gazed at the night sky as she walked. She had always chased the stars every step of her journey. Then she met the full moon—and, in time, the astrologer became a queen.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69726e74l0i2sunvmav2rtqj9e.png</t>
+  </si>
+  <si>
     <t>Starscourge Heirloom</t>
   </si>
   <si>
     <t>Raises strength</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697e6e60l0i2sv6zgblnfuco5k5.png</t>
   </si>
   <si>
     <t>A talisman engraved with a scene from a heroic tale.
@@ -1454,13 +1451,13 @@
 The mightiest hero of the demigods confronted the falling stars alone—and thus did he crush them, his conquest sealing the very fate of the stars.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697e6e60l0i2sv6zgblnfuco5k5.png</t>
+  </si>
+  <si>
     <t>Taker's Cameo</t>
   </si>
   <si>
     <t>Restores HP upon defeating enemies</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ebbca4l0i2suzy77ydy8c49x.png</t>
   </si>
   <si>
     <t>A talisman engraved with a stern likeness of Praetor Rykard, master of Volcano Manor.
@@ -1468,13 +1465,13 @@
 When Rykard turned to heresy, taking by force became the rule. The gods themselves were no different, after all.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ebbca4l0i2suzy77ydy8c49x.png</t>
+  </si>
+  <si>
     <t>Twinblade Talisman</t>
   </si>
   <si>
     <t>Enhances final hit of chain attacks</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6964b6cbl0i2suzpeqzc8p0p31a.png</t>
   </si>
   <si>
     <t>A talisman depicting a twinblade and a confessor.
@@ -1482,13 +1479,13 @@
 The twinblade technique is a tradition of the confessors, who closely guard the secret of how they preserve the momentum of their attacks. Thus is the final strike of their onslaught all the more deadly.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6964b6cbl0i2suzpeqzc8p0p31a.png</t>
+  </si>
+  <si>
     <t>Two Fingers Heirloom</t>
   </si>
   <si>
     <t>Raises faith</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b8ff63l0i2svfsqagao13n1q.png</t>
   </si>
   <si>
     <t>A talisman engraved with the legend of the Two Fingers.
@@ -1498,13 +1495,13 @@
 Thus did we gain the words. The words of our faith.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b8ff63l0i2svfsqagao13n1q.png</t>
+  </si>
+  <si>
     <t>Viridian Amber Medallion</t>
   </si>
   <si>
     <t>Raises maximum stamina</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697609cfl0i2sv7ve0yxa2u67ps.png</t>
   </si>
   <si>
     <t>A medallion with viridian amber inlaid.
@@ -1513,6 +1510,9 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697609cfl0i2sv7ve0yxa2u67ps.png</t>
+  </si>
+  <si>
     <t>Viridian Amber Medallion +1</t>
   </si>
   <si>
@@ -1543,27 +1543,27 @@
     <t>Boosts the attack power of skills</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f4710al0i2sy6gpkd85ki28.png</t>
-  </si>
-  <si>
     <t>Shard of a shattered warrior jar.
 Boosts the attack power of skills.
 Scraps of stewed flesh cling to the shard, and tatters of ornaments can be seen mingled within the slime. Relics of ancient royal warriors, perhaps.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f4710al0i2sy6gpkd85ki28.png</t>
+  </si>
+  <si>
     <t>Winged Sword Insignia</t>
   </si>
   <si>
     <t>Raises attack power with successive attacks</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69a2445bl0i2svl6l9dei5cxhbd.png</t>
   </si>
   <si>
     <t>A talisman depicting a raised prosthetic blade.
 An honor bestowed upon the knights who fought alongside Malenia the Severed.
 Raises attack power with successive attacks.
 The wings symbolize Malenia and her undefeated prowess. Though she never knew relief from the accursed rot she was born into, her blade was forever beautiful—and relentless.</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69a2445bl0i2svl6l9dei5cxhbd.png</t>
   </si>
   <si>
     <t>Column 1</t>
@@ -2150,13 +2150,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2167,16 +2167,16 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
         <v>1.2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2187,16 +2187,16 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2207,16 +2207,16 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2227,16 +2227,16 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
         <v>1.5</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
         <v>100.0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2247,14 +2247,14 @@
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
         <v>1.5</v>
       </c>
-      <c r="F6" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
+      <c r="E6" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="7">
@@ -2264,16 +2264,16 @@
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.8</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="1">
         <v>1500.0</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2284,16 +2284,16 @@
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
         <v>1500.0</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2304,16 +2304,16 @@
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.8</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2324,16 +2324,16 @@
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.6</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="E10" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2344,16 +2344,16 @@
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.9</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2364,14 +2364,14 @@
       <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1">
         <v>1.1</v>
       </c>
-      <c r="F12" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
+      <c r="E12" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="13">
@@ -2381,16 +2381,16 @@
       <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.6</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="1">
         <v>100.0</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2401,14 +2401,14 @@
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.6</v>
       </c>
-      <c r="F14" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>54</v>
+      <c r="E14" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="15">
@@ -2418,14 +2418,14 @@
       <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.6</v>
       </c>
-      <c r="F15" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
+      <c r="E15" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="16">
@@ -2435,14 +2435,14 @@
       <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.5</v>
       </c>
-      <c r="F16" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>60</v>
+      <c r="E16" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="17">
@@ -2452,16 +2452,16 @@
       <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.8</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="E17" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2472,16 +2472,16 @@
       <c r="B18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.3</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="1">
         <v>100.0</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2492,14 +2492,14 @@
       <c r="B19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.3</v>
       </c>
-      <c r="F19" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>71</v>
+      <c r="E19" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="20">
@@ -2509,14 +2509,14 @@
       <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1">
         <v>0.3</v>
       </c>
-      <c r="F20" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>74</v>
+      <c r="E20" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="21">
@@ -2526,16 +2526,16 @@
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1">
         <v>0.8</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="E21" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2546,16 +2546,16 @@
       <c r="B22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1">
         <v>0.6</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="E22" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2566,14 +2566,14 @@
       <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="1">
         <v>0.6</v>
       </c>
-      <c r="F23" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>85</v>
+      <c r="E23" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="24">
@@ -2583,16 +2583,16 @@
       <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.7</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="E24" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2603,16 +2603,16 @@
       <c r="B25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.6</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="E25" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2623,16 +2623,16 @@
       <c r="B26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="1">
         <v>0.9</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="E26" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2643,16 +2643,16 @@
       <c r="B27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1">
         <v>0.7</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="E27" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2663,16 +2663,16 @@
       <c r="B28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="1">
         <v>0.3</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="1">
         <v>100.0</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2683,14 +2683,14 @@
       <c r="B29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="1">
         <v>0.3</v>
       </c>
-      <c r="F29" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>108</v>
+      <c r="E29" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="30">
@@ -2700,14 +2700,14 @@
       <c r="B30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="1">
         <v>0.3</v>
       </c>
-      <c r="F30" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>111</v>
+      <c r="E30" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="31">
@@ -2717,16 +2717,16 @@
       <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="1">
         <v>0.8</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="E31" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2737,16 +2737,16 @@
       <c r="B32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="1">
         <v>0.8</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="E32" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2757,16 +2757,16 @@
       <c r="B33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="1">
         <v>0.5</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="E33" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2777,16 +2777,16 @@
       <c r="B34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="1">
         <v>1.1</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="E34" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2797,16 +2797,16 @@
       <c r="B35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="1">
         <v>0.7</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="E35" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2817,16 +2817,16 @@
       <c r="B36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="1">
         <v>0.8</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="E36" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2837,16 +2837,16 @@
       <c r="B37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="1">
         <v>1.1</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="E37" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2857,16 +2857,16 @@
       <c r="B38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="1">
         <v>0.8</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="E38" s="1">
         <v>2000.0</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2877,16 +2877,16 @@
       <c r="B39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="1">
         <v>0.8</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="E39" s="1">
         <v>100.0</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2897,14 +2897,14 @@
       <c r="B40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="1">
         <v>0.8</v>
       </c>
-      <c r="F40" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>150</v>
+      <c r="E40" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="41">
@@ -2914,14 +2914,14 @@
       <c r="B41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="1">
         <v>0.8</v>
       </c>
-      <c r="F41" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>153</v>
+      <c r="E41" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="42">
@@ -2931,16 +2931,16 @@
       <c r="B42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="1">
         <v>0.5</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="E42" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2951,16 +2951,16 @@
       <c r="B43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="1">
         <v>1.5</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="E43" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2971,14 +2971,14 @@
       <c r="B44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="1">
         <v>1.5</v>
       </c>
-      <c r="F44" s="1">
+      <c r="E44" s="1">
         <v>1500.0</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="45">
@@ -2988,14 +2988,14 @@
       <c r="B45" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="1">
         <v>1.5</v>
       </c>
-      <c r="F45" s="1">
+      <c r="E45" s="1">
         <v>3000.0</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="46">
@@ -3005,16 +3005,16 @@
       <c r="B46" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="1">
         <v>0.7</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="E46" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3025,16 +3025,16 @@
       <c r="B47" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="1">
         <v>0.8</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="E47" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3045,16 +3045,16 @@
       <c r="B48" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="1">
         <v>0.6</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="E48" s="1">
         <v>100.0</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3065,14 +3065,14 @@
       <c r="B49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="1">
         <v>0.6</v>
       </c>
-      <c r="F49" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>180</v>
+      <c r="E49" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="50">
@@ -3082,14 +3082,14 @@
       <c r="B50" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="1">
         <v>0.6</v>
       </c>
-      <c r="F50" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>183</v>
+      <c r="E50" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="51">
@@ -3099,16 +3099,16 @@
       <c r="B51" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="1">
         <v>1.0</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="E51" s="1">
         <v>2000.0</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3119,14 +3119,14 @@
       <c r="B52" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="1">
         <v>0.7</v>
       </c>
-      <c r="F52" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>190</v>
+      <c r="E52" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="53">
@@ -3136,16 +3136,16 @@
       <c r="B53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="1">
         <v>0.8</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="E53" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3156,16 +3156,16 @@
       <c r="B54" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="1">
         <v>0.9</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="E54" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3176,16 +3176,16 @@
       <c r="B55" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="1">
         <v>1.2</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F55" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="E55" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3196,14 +3196,14 @@
       <c r="B56" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="1">
         <v>1.0</v>
       </c>
-      <c r="F56" s="1">
+      <c r="E56" s="1">
         <v>2000.0</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="57">
@@ -3213,14 +3213,14 @@
       <c r="B57" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="1">
         <v>0.7</v>
       </c>
-      <c r="F57" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>208</v>
+      <c r="E57" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="58">
@@ -3230,14 +3230,14 @@
       <c r="B58" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="1">
         <v>1.5</v>
       </c>
-      <c r="F58" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>211</v>
+      <c r="E58" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="59">
@@ -3247,16 +3247,16 @@
       <c r="B59" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="1">
         <v>0.9</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F59" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="E59" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3267,16 +3267,16 @@
       <c r="B60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="1">
         <v>0.7</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F60" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="E60" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3287,16 +3287,16 @@
       <c r="B61" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="1">
         <v>0.6</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F61" s="1">
+      <c r="E61" s="1">
         <v>100.0</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3307,14 +3307,14 @@
       <c r="B62" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62" s="1">
         <v>0.6</v>
       </c>
-      <c r="F62" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>226</v>
+      <c r="E62" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="63">
@@ -3324,14 +3324,14 @@
       <c r="B63" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="1">
         <v>0.6</v>
       </c>
-      <c r="F63" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>229</v>
+      <c r="E63" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="64">
@@ -3341,16 +3341,16 @@
       <c r="B64" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="1">
         <v>0.9</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F64" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="E64" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3361,14 +3361,14 @@
       <c r="B65" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" s="1">
         <v>0.7</v>
       </c>
-      <c r="F65" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>236</v>
+      <c r="E65" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="66">
@@ -3378,16 +3378,16 @@
       <c r="B66" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="1">
         <v>0.6</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F66" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="E66" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3398,14 +3398,14 @@
       <c r="B67" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="1">
         <v>0.6</v>
       </c>
-      <c r="F67" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>243</v>
+      <c r="E67" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="68">
@@ -3415,14 +3415,14 @@
       <c r="B68" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="1">
         <v>0.9</v>
       </c>
-      <c r="F68" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>246</v>
+      <c r="E68" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="69">
@@ -3432,16 +3432,16 @@
       <c r="B69" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" s="1">
         <v>0.7</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F69" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="E69" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3452,16 +3452,16 @@
       <c r="B70" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" s="1">
         <v>0.8</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F70" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="E70" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3472,16 +3472,16 @@
       <c r="B71" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D71" s="1">
         <v>0.6</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F71" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="E71" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3492,14 +3492,14 @@
       <c r="B72" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="1">
         <v>0.9</v>
       </c>
-      <c r="F72" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>261</v>
+      <c r="E72" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="73">
@@ -3509,16 +3509,16 @@
       <c r="B73" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" s="1">
         <v>0.8</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F73" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="E73" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3529,16 +3529,16 @@
       <c r="B74" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D74" s="1">
         <v>0.8</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="E74" s="1">
         <v>3000.0</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3549,16 +3549,16 @@
       <c r="B75" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="1">
         <v>0.8</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="E75" s="1">
         <v>3000.0</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3569,16 +3569,16 @@
       <c r="B76" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="1">
         <v>1.6</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G76" s="1" t="s">
+      <c r="E76" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3589,14 +3589,14 @@
       <c r="B77" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" s="1">
         <v>0.8</v>
       </c>
-      <c r="F77" s="1">
+      <c r="E77" s="1">
         <v>2000.0</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="78">
@@ -3606,16 +3606,16 @@
       <c r="B78" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D78" s="1">
         <v>0.9</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G78" s="1" t="s">
+      <c r="E78" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3626,14 +3626,14 @@
       <c r="B79" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" s="1">
         <v>0.9</v>
       </c>
-      <c r="F79" s="1">
+      <c r="E79" s="1">
         <v>2000.0</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="80">
@@ -3643,16 +3643,16 @@
       <c r="B80" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D80" s="1">
         <v>0.5</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F80" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G80" s="1" t="s">
+      <c r="E80" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3663,16 +3663,16 @@
       <c r="B81" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D81" s="1">
         <v>0.9</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F81" s="1">
+      <c r="E81" s="1">
         <v>100.0</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3683,14 +3683,14 @@
       <c r="B82" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D82" s="1">
         <v>0.9</v>
       </c>
-      <c r="F82" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>298</v>
+      <c r="E82" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="83">
@@ -3700,14 +3700,14 @@
       <c r="B83" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D83" s="1">
         <v>0.9</v>
       </c>
-      <c r="F83" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>301</v>
+      <c r="E83" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="84">
@@ -3717,16 +3717,16 @@
       <c r="B84" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D84" s="1">
         <v>0.6</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F84" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="E84" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3737,16 +3737,16 @@
       <c r="B85" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D85" s="1">
         <v>0.6</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F85" s="1">
+      <c r="E85" s="1">
         <v>2000.0</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3757,14 +3757,14 @@
       <c r="B86" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D86" s="1">
         <v>0.6</v>
       </c>
-      <c r="F86" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>312</v>
+      <c r="E86" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="87">
@@ -3774,14 +3774,14 @@
       <c r="B87" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" s="1">
         <v>0.6</v>
       </c>
-      <c r="F87" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>315</v>
+      <c r="E87" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="88">
@@ -3791,14 +3791,14 @@
       <c r="B88" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D88" s="1">
         <v>0.8</v>
       </c>
-      <c r="F88" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>318</v>
+      <c r="E88" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="89">
@@ -3808,16 +3808,16 @@
       <c r="B89" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D89" s="1">
         <v>0.7</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G89" s="1" t="s">
+      <c r="E89" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3828,16 +3828,16 @@
       <c r="B90" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" s="1">
         <v>0.8</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F90" s="1">
+      <c r="E90" s="1">
         <v>3000.0</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="F90" s="2" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3848,16 +3848,16 @@
       <c r="B91" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D91" s="1">
         <v>0.8</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F91" s="1">
+      <c r="E91" s="1">
         <v>3000.0</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="F91" s="2" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3868,14 +3868,14 @@
       <c r="B92" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D92" s="1">
         <v>1.4</v>
       </c>
-      <c r="F92" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>331</v>
+      <c r="E92" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="93">
@@ -3885,16 +3885,16 @@
       <c r="B93" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D93" s="1">
         <v>0.9</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F93" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G93" s="1" t="s">
+      <c r="E93" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>335</v>
       </c>
     </row>
@@ -3905,16 +3905,16 @@
       <c r="B94" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D94" s="1">
         <v>0.9</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F94" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G94" s="1" t="s">
+      <c r="E94" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3925,14 +3925,14 @@
       <c r="B95" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D95" s="1">
         <v>0.7</v>
       </c>
-      <c r="F95" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>342</v>
+      <c r="E95" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="96">
@@ -3942,14 +3942,14 @@
       <c r="B96" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D96" s="1">
         <v>1.4</v>
       </c>
-      <c r="F96" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>345</v>
+      <c r="E96" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="97">
@@ -3959,16 +3959,16 @@
       <c r="B97" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D97" s="1">
         <v>0.8</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F97" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G97" s="1" t="s">
+      <c r="E97" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3979,16 +3979,16 @@
       <c r="B98" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D98" s="1">
         <v>1.0</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F98" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G98" s="1" t="s">
+      <c r="E98" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3999,16 +3999,16 @@
       <c r="B99" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D99" s="1">
         <v>0.6</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F99" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G99" s="1" t="s">
+      <c r="E99" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>357</v>
       </c>
     </row>
@@ -4019,14 +4019,14 @@
       <c r="B100" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D100" s="1">
         <v>0.9</v>
       </c>
-      <c r="F100" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>360</v>
+      <c r="E100" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="101">
@@ -4036,14 +4036,14 @@
       <c r="B101" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D101" s="1">
         <v>1.2</v>
       </c>
-      <c r="F101" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>363</v>
+      <c r="E101" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="102">
@@ -4053,16 +4053,16 @@
       <c r="B102" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D102" s="1">
         <v>0.5</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F102" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G102" s="1" t="s">
+      <c r="E102" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4073,16 +4073,16 @@
       <c r="B103" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D103" s="1">
         <v>0.6</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F103" s="1">
+      <c r="E103" s="1">
         <v>100.0</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="F103" s="2" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4093,14 +4093,14 @@
       <c r="B104" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D104" s="1">
         <v>0.6</v>
       </c>
-      <c r="F104" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>374</v>
+      <c r="E104" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="105">
@@ -4110,14 +4110,14 @@
       <c r="B105" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D105" s="1">
         <v>0.6</v>
       </c>
-      <c r="F105" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>377</v>
+      <c r="E105" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="106">
@@ -4127,16 +4127,16 @@
       <c r="B106" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D106" s="1">
         <v>0.6</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F106" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G106" s="1" t="s">
+      <c r="E106" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>381</v>
       </c>
     </row>
@@ -4147,14 +4147,14 @@
       <c r="B107" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D107" s="1">
         <v>0.6</v>
       </c>
-      <c r="F107" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>384</v>
+      <c r="E107" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4164,16 +4164,16 @@
       <c r="B108" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D108" s="1">
         <v>0.6</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F108" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G108" s="1" t="s">
+      <c r="E108" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4184,16 +4184,16 @@
       <c r="B109" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D109" s="1">
         <v>0.8</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F109" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G109" s="1" t="s">
+      <c r="E109" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>392</v>
       </c>
     </row>
@@ -4204,16 +4204,16 @@
       <c r="B110" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D110" s="1">
         <v>1.0</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F110" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G110" s="1" t="s">
+      <c r="E110" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>396</v>
       </c>
     </row>
@@ -4224,16 +4224,16 @@
       <c r="B111" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D111" s="1">
         <v>0.7</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F111" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G111" s="1" t="s">
+      <c r="E111" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>400</v>
       </c>
     </row>
@@ -4244,16 +4244,16 @@
       <c r="B112" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" s="1">
         <v>0.6</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F112" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="E112" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4264,16 +4264,16 @@
       <c r="B113" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D113" s="1">
         <v>0.3</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F113" s="1">
+      <c r="E113" s="1">
         <v>100.0</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="F113" s="2" t="s">
         <v>408</v>
       </c>
     </row>
@@ -4284,14 +4284,14 @@
       <c r="B114" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D114" s="1">
         <v>0.3</v>
       </c>
-      <c r="F114" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>411</v>
+      <c r="E114" s="1">
+        <v>500.0</v>
       </c>
     </row>
     <row r="115">
@@ -4301,14 +4301,14 @@
       <c r="B115" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D115" s="1">
         <v>0.3</v>
       </c>
-      <c r="F115" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>414</v>
+      <c r="E115" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="116">
@@ -4318,16 +4318,16 @@
       <c r="B116" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D116" s="1">
         <v>0.9</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F116" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G116" s="1" t="s">
+      <c r="E116" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4338,94 +4338,94 @@
       <c r="B117" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D117" s="1">
         <v>1.4</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F117" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G117" s="1" t="s">
+      <c r="E117" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
-    <hyperlink r:id="rId2" ref="E3"/>
-    <hyperlink r:id="rId3" ref="E4"/>
-    <hyperlink r:id="rId4" ref="E5"/>
-    <hyperlink r:id="rId5" ref="E7"/>
-    <hyperlink r:id="rId6" ref="E8"/>
-    <hyperlink r:id="rId7" ref="E9"/>
-    <hyperlink r:id="rId8" ref="E10"/>
-    <hyperlink r:id="rId9" ref="E11"/>
-    <hyperlink r:id="rId10" ref="E13"/>
-    <hyperlink r:id="rId11" ref="E17"/>
-    <hyperlink r:id="rId12" ref="E18"/>
-    <hyperlink r:id="rId13" ref="E21"/>
-    <hyperlink r:id="rId14" ref="E22"/>
-    <hyperlink r:id="rId15" ref="E24"/>
-    <hyperlink r:id="rId16" ref="E25"/>
-    <hyperlink r:id="rId17" ref="E26"/>
-    <hyperlink r:id="rId18" ref="E27"/>
-    <hyperlink r:id="rId19" ref="E28"/>
-    <hyperlink r:id="rId20" ref="E31"/>
-    <hyperlink r:id="rId21" ref="E32"/>
-    <hyperlink r:id="rId22" ref="E33"/>
-    <hyperlink r:id="rId23" ref="E34"/>
-    <hyperlink r:id="rId24" ref="E35"/>
-    <hyperlink r:id="rId25" ref="E36"/>
-    <hyperlink r:id="rId26" ref="E37"/>
-    <hyperlink r:id="rId27" ref="E38"/>
-    <hyperlink r:id="rId28" ref="E39"/>
-    <hyperlink r:id="rId29" ref="E42"/>
-    <hyperlink r:id="rId30" ref="E43"/>
-    <hyperlink r:id="rId31" ref="E46"/>
-    <hyperlink r:id="rId32" ref="E47"/>
-    <hyperlink r:id="rId33" ref="E48"/>
-    <hyperlink r:id="rId34" ref="E51"/>
-    <hyperlink r:id="rId35" ref="E53"/>
-    <hyperlink r:id="rId36" ref="E54"/>
-    <hyperlink r:id="rId37" ref="E55"/>
-    <hyperlink r:id="rId38" ref="E59"/>
-    <hyperlink r:id="rId39" ref="E60"/>
-    <hyperlink r:id="rId40" ref="E61"/>
-    <hyperlink r:id="rId41" ref="E64"/>
-    <hyperlink r:id="rId42" ref="E66"/>
-    <hyperlink r:id="rId43" ref="E69"/>
-    <hyperlink r:id="rId44" ref="E70"/>
-    <hyperlink r:id="rId45" ref="E71"/>
-    <hyperlink r:id="rId46" ref="E73"/>
-    <hyperlink r:id="rId47" ref="E74"/>
-    <hyperlink r:id="rId48" ref="E75"/>
-    <hyperlink r:id="rId49" ref="E76"/>
-    <hyperlink r:id="rId50" ref="E78"/>
-    <hyperlink r:id="rId51" ref="E80"/>
-    <hyperlink r:id="rId52" ref="E81"/>
-    <hyperlink r:id="rId53" ref="E84"/>
-    <hyperlink r:id="rId54" ref="E85"/>
-    <hyperlink r:id="rId55" ref="E89"/>
-    <hyperlink r:id="rId56" ref="E90"/>
-    <hyperlink r:id="rId57" ref="E91"/>
-    <hyperlink r:id="rId58" ref="E93"/>
-    <hyperlink r:id="rId59" ref="E94"/>
-    <hyperlink r:id="rId60" ref="E97"/>
-    <hyperlink r:id="rId61" ref="E98"/>
-    <hyperlink r:id="rId62" ref="E99"/>
-    <hyperlink r:id="rId63" ref="E102"/>
-    <hyperlink r:id="rId64" ref="E103"/>
-    <hyperlink r:id="rId65" ref="E106"/>
-    <hyperlink r:id="rId66" ref="E108"/>
-    <hyperlink r:id="rId67" ref="E109"/>
-    <hyperlink r:id="rId68" ref="E110"/>
-    <hyperlink r:id="rId69" ref="E111"/>
-    <hyperlink r:id="rId70" ref="E112"/>
-    <hyperlink r:id="rId71" ref="E113"/>
-    <hyperlink r:id="rId72" ref="E116"/>
-    <hyperlink r:id="rId73" ref="E117"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="F3"/>
+    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink r:id="rId4" ref="F5"/>
+    <hyperlink r:id="rId5" ref="F7"/>
+    <hyperlink r:id="rId6" ref="F8"/>
+    <hyperlink r:id="rId7" ref="F9"/>
+    <hyperlink r:id="rId8" ref="F10"/>
+    <hyperlink r:id="rId9" ref="F11"/>
+    <hyperlink r:id="rId10" ref="F13"/>
+    <hyperlink r:id="rId11" ref="F17"/>
+    <hyperlink r:id="rId12" ref="F18"/>
+    <hyperlink r:id="rId13" ref="F21"/>
+    <hyperlink r:id="rId14" ref="F22"/>
+    <hyperlink r:id="rId15" ref="F24"/>
+    <hyperlink r:id="rId16" ref="F25"/>
+    <hyperlink r:id="rId17" ref="F26"/>
+    <hyperlink r:id="rId18" ref="F27"/>
+    <hyperlink r:id="rId19" ref="F28"/>
+    <hyperlink r:id="rId20" ref="F31"/>
+    <hyperlink r:id="rId21" ref="F32"/>
+    <hyperlink r:id="rId22" ref="F33"/>
+    <hyperlink r:id="rId23" ref="F34"/>
+    <hyperlink r:id="rId24" ref="F35"/>
+    <hyperlink r:id="rId25" ref="F36"/>
+    <hyperlink r:id="rId26" ref="F37"/>
+    <hyperlink r:id="rId27" ref="F38"/>
+    <hyperlink r:id="rId28" ref="F39"/>
+    <hyperlink r:id="rId29" ref="F42"/>
+    <hyperlink r:id="rId30" ref="F43"/>
+    <hyperlink r:id="rId31" ref="F46"/>
+    <hyperlink r:id="rId32" ref="F47"/>
+    <hyperlink r:id="rId33" ref="F48"/>
+    <hyperlink r:id="rId34" ref="F51"/>
+    <hyperlink r:id="rId35" ref="F53"/>
+    <hyperlink r:id="rId36" ref="F54"/>
+    <hyperlink r:id="rId37" ref="F55"/>
+    <hyperlink r:id="rId38" ref="F59"/>
+    <hyperlink r:id="rId39" ref="F60"/>
+    <hyperlink r:id="rId40" ref="F61"/>
+    <hyperlink r:id="rId41" ref="F64"/>
+    <hyperlink r:id="rId42" ref="F66"/>
+    <hyperlink r:id="rId43" ref="F69"/>
+    <hyperlink r:id="rId44" ref="F70"/>
+    <hyperlink r:id="rId45" ref="F71"/>
+    <hyperlink r:id="rId46" ref="F73"/>
+    <hyperlink r:id="rId47" ref="F74"/>
+    <hyperlink r:id="rId48" ref="F75"/>
+    <hyperlink r:id="rId49" ref="F76"/>
+    <hyperlink r:id="rId50" ref="F78"/>
+    <hyperlink r:id="rId51" ref="F80"/>
+    <hyperlink r:id="rId52" ref="F81"/>
+    <hyperlink r:id="rId53" ref="F84"/>
+    <hyperlink r:id="rId54" ref="F85"/>
+    <hyperlink r:id="rId55" ref="F89"/>
+    <hyperlink r:id="rId56" ref="F90"/>
+    <hyperlink r:id="rId57" ref="F91"/>
+    <hyperlink r:id="rId58" ref="F93"/>
+    <hyperlink r:id="rId59" ref="F94"/>
+    <hyperlink r:id="rId60" ref="F97"/>
+    <hyperlink r:id="rId61" ref="F98"/>
+    <hyperlink r:id="rId62" ref="F99"/>
+    <hyperlink r:id="rId63" ref="F102"/>
+    <hyperlink r:id="rId64" ref="F103"/>
+    <hyperlink r:id="rId65" ref="F106"/>
+    <hyperlink r:id="rId66" ref="F108"/>
+    <hyperlink r:id="rId67" ref="F109"/>
+    <hyperlink r:id="rId68" ref="F110"/>
+    <hyperlink r:id="rId69" ref="F111"/>
+    <hyperlink r:id="rId70" ref="F112"/>
+    <hyperlink r:id="rId71" ref="F113"/>
+    <hyperlink r:id="rId72" ref="F116"/>
+    <hyperlink r:id="rId73" ref="F117"/>
   </hyperlinks>
   <drawing r:id="rId74"/>
 </worksheet>
@@ -4459,19 +4459,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>423</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -4485,13 +4485,13 @@
         <v>1.2</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4505,13 +4505,13 @@
         <v>0.7</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -4525,13 +4525,13 @@
         <v>0.7</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -4545,13 +4545,13 @@
         <v>1.5</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="14">
         <v>100.0</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -4583,13 +4583,13 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="14">
         <v>1500.0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -4603,13 +4603,13 @@
         <v>0.8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="9">
         <v>1500.0</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -4623,13 +4623,13 @@
         <v>0.8</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -4643,13 +4643,13 @@
         <v>0.6</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -4663,13 +4663,13 @@
         <v>0.9</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -4701,13 +4701,13 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="14">
         <v>100.0</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -4775,13 +4775,13 @@
         <v>0.8</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="F17" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -4795,13 +4795,13 @@
         <v>0.3</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="9">
         <v>100.0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -4851,13 +4851,13 @@
         <v>0.8</v>
       </c>
       <c r="E21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="F21" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -4871,13 +4871,13 @@
         <v>0.6</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="F22" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -4909,13 +4909,13 @@
         <v>0.7</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="F24" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -4929,13 +4929,13 @@
         <v>0.6</v>
       </c>
       <c r="E25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="F25" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -4949,13 +4949,13 @@
         <v>0.9</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="F26" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -4969,13 +4969,13 @@
         <v>0.7</v>
       </c>
       <c r="E27" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="F27" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -4989,13 +4989,13 @@
         <v>0.3</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F28" s="9">
         <v>100.0</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -5045,13 +5045,13 @@
         <v>0.8</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="F31" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -5065,13 +5065,13 @@
         <v>0.8</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="F32" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -5085,13 +5085,13 @@
         <v>0.5</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="F33" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -5105,13 +5105,13 @@
         <v>1.1</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="F34" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35">
@@ -5125,13 +5125,13 @@
         <v>0.7</v>
       </c>
       <c r="E35" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="F35" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36">
@@ -5145,13 +5145,13 @@
         <v>0.8</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="F36" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="37">
@@ -5165,13 +5165,13 @@
         <v>1.1</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G37" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="F37" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="38">
@@ -5185,13 +5185,13 @@
         <v>0.8</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F38" s="9">
         <v>2000.0</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -5205,13 +5205,13 @@
         <v>0.8</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F39" s="14">
         <v>100.0</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40">
@@ -5261,13 +5261,13 @@
         <v>0.5</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="F42" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="43">
@@ -5281,13 +5281,13 @@
         <v>1.5</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>160</v>
-      </c>
-      <c r="F43" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="44">
@@ -5337,13 +5337,13 @@
         <v>0.7</v>
       </c>
       <c r="E46" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="F46" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="47">
@@ -5357,13 +5357,13 @@
         <v>0.8</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G47" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="F47" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="48">
@@ -5377,13 +5377,13 @@
         <v>0.6</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F48" s="9">
         <v>100.0</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49">
@@ -5433,13 +5433,13 @@
         <v>1.0</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F51" s="14">
         <v>2000.0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52">
@@ -5471,13 +5471,13 @@
         <v>0.8</v>
       </c>
       <c r="E53" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="G53" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="F53" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="54">
@@ -5491,13 +5491,13 @@
         <v>0.9</v>
       </c>
       <c r="E54" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="F54" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="55">
@@ -5511,13 +5511,13 @@
         <v>1.2</v>
       </c>
       <c r="E55" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G55" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="F55" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="56">
@@ -5585,13 +5585,13 @@
         <v>0.9</v>
       </c>
       <c r="E59" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F59" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G59" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="F59" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="60">
@@ -5605,13 +5605,13 @@
         <v>0.7</v>
       </c>
       <c r="E60" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F60" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="F60" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="61">
@@ -5625,13 +5625,13 @@
         <v>0.6</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F61" s="14">
         <v>100.0</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62">
@@ -5681,13 +5681,13 @@
         <v>0.9</v>
       </c>
       <c r="E64" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="F64" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="65">
@@ -5719,13 +5719,13 @@
         <v>0.6</v>
       </c>
       <c r="E66" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F66" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="F66" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="67">
@@ -5775,13 +5775,13 @@
         <v>0.7</v>
       </c>
       <c r="E69" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G69" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="F69" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="70">
@@ -5795,13 +5795,13 @@
         <v>0.8</v>
       </c>
       <c r="E70" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F70" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="F70" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="71">
@@ -5815,13 +5815,13 @@
         <v>0.6</v>
       </c>
       <c r="E71" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F71" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G71" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="F71" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="72">
@@ -5853,13 +5853,13 @@
         <v>0.8</v>
       </c>
       <c r="E73" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F73" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G73" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="F73" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="74">
@@ -5873,13 +5873,13 @@
         <v>0.8</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F74" s="9">
         <v>3000.0</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75">
@@ -5893,13 +5893,13 @@
         <v>0.8</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F75" s="14">
         <v>3000.0</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76">
@@ -5913,13 +5913,13 @@
         <v>1.6</v>
       </c>
       <c r="E76" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F76" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G76" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="F76" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="77">
@@ -5951,13 +5951,13 @@
         <v>0.9</v>
       </c>
       <c r="E78" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F78" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="F78" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="79">
@@ -5989,13 +5989,13 @@
         <v>0.5</v>
       </c>
       <c r="E80" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G80" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="F80" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="81">
@@ -6009,13 +6009,13 @@
         <v>0.9</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F81" s="14">
         <v>100.0</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82">
@@ -6065,13 +6065,13 @@
         <v>0.6</v>
       </c>
       <c r="E84" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F84" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="F84" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="85">
@@ -6085,13 +6085,13 @@
         <v>0.6</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F85" s="14">
         <v>2000.0</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86">
@@ -6159,13 +6159,13 @@
         <v>0.7</v>
       </c>
       <c r="E89" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F89" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="G89" s="16" t="s">
         <v>321</v>
-      </c>
-      <c r="F89" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="90">
@@ -6179,13 +6179,13 @@
         <v>0.8</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F90" s="9">
         <v>3000.0</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91">
@@ -6199,13 +6199,13 @@
         <v>0.8</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F91" s="14">
         <v>3000.0</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92">
@@ -6237,13 +6237,13 @@
         <v>0.9</v>
       </c>
       <c r="E93" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F93" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G93" s="16" t="s">
         <v>334</v>
-      </c>
-      <c r="F93" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="94">
@@ -6257,13 +6257,13 @@
         <v>0.9</v>
       </c>
       <c r="E94" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F94" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="F94" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="95">
@@ -6313,13 +6313,13 @@
         <v>0.8</v>
       </c>
       <c r="E97" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F97" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G97" s="16" t="s">
         <v>348</v>
-      </c>
-      <c r="F97" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="98">
@@ -6333,13 +6333,13 @@
         <v>1.0</v>
       </c>
       <c r="E98" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F98" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G98" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="F98" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="99">
@@ -6353,13 +6353,13 @@
         <v>0.6</v>
       </c>
       <c r="E99" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F99" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G99" s="16" t="s">
         <v>356</v>
-      </c>
-      <c r="F99" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="100">
@@ -6409,13 +6409,13 @@
         <v>0.5</v>
       </c>
       <c r="E102" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F102" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G102" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="F102" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="103">
@@ -6429,13 +6429,13 @@
         <v>0.6</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F103" s="14">
         <v>100.0</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104">
@@ -6485,13 +6485,13 @@
         <v>0.6</v>
       </c>
       <c r="E106" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F106" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G106" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="F106" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="107">
@@ -6523,13 +6523,13 @@
         <v>0.6</v>
       </c>
       <c r="E108" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G108" s="11" t="s">
         <v>387</v>
-      </c>
-      <c r="F108" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="109">
@@ -6543,13 +6543,13 @@
         <v>0.8</v>
       </c>
       <c r="E109" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="F109" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="G109" s="16" t="s">
         <v>391</v>
-      </c>
-      <c r="F109" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="110">
@@ -6563,13 +6563,13 @@
         <v>1.0</v>
       </c>
       <c r="E110" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F110" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G110" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="F110" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="111">
@@ -6583,13 +6583,13 @@
         <v>0.7</v>
       </c>
       <c r="E111" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="F111" s="14">
+        <v>500.0</v>
+      </c>
+      <c r="G111" s="16" t="s">
         <v>399</v>
-      </c>
-      <c r="F111" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="112">
@@ -6603,13 +6603,13 @@
         <v>0.6</v>
       </c>
       <c r="E112" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F112" s="9">
+        <v>1000.0</v>
+      </c>
+      <c r="G112" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="F112" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="113">
@@ -6623,13 +6623,13 @@
         <v>0.3</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F113" s="14">
         <v>100.0</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="114">
@@ -6679,13 +6679,13 @@
         <v>0.9</v>
       </c>
       <c r="E116" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F116" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G116" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="F116" s="9">
-        <v>500.0</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="117">
@@ -6699,13 +6699,13 @@
         <v>1.4</v>
       </c>
       <c r="E117" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="F117" s="21">
+        <v>500.0</v>
+      </c>
+      <c r="G117" s="23" t="s">
         <v>421</v>
-      </c>
-      <c r="F117" s="21">
-        <v>500.0</v>
-      </c>
-      <c r="G117" s="23" t="s">
-        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/data/talismans.xlsx
+++ b/data/talismans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="424">
   <si>
     <t>id</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>image_url</t>
-  </si>
-  <si>
-    <t>Ancestral Spirit's Horn</t>
   </si>
   <si>
     <t>Restores FP upon defeating enemies</t>
@@ -46,9 +43,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f6967466bl0i2swi5et1ibv4rc6r.png</t>
   </si>
   <si>
-    <t>Arrow's Reach Talisman</t>
-  </si>
-  <si>
     <t>Increases bow effective range</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69dfff40l0i2soo71h481xlxzx8i.png</t>
   </si>
   <si>
-    <t>Arrow's Sting Talisman</t>
-  </si>
-  <si>
     <t>Raises attack power of arrows and bolts</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69f4f7a3l0i2soioqe3qysjxaw.png</t>
   </si>
   <si>
-    <t>Arsenal Charm</t>
-  </si>
-  <si>
     <t>Raises maximum equipment load</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69659e33l0i2soj4uhpxf54ncje.png</t>
   </si>
   <si>
-    <t>Arsenal Charm +1</t>
-  </si>
-  <si>
     <t>Greatly raises maximum equip load</t>
   </si>
   <si>
@@ -99,9 +84,6 @@
 This talisman was derived from an unusual greatsword once wielded by a hero hungry for vengeance.</t>
   </si>
   <si>
-    <t>Assassin's Cerulean Dagger</t>
-  </si>
-  <si>
     <t>Critical hits restore FP</t>
   </si>
   <si>
@@ -113,9 +95,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69d47ea5l0i2sokp40249x3da4f.png</t>
   </si>
   <si>
-    <t>Assassin's Crimson Dagger</t>
-  </si>
-  <si>
     <t>Critical hits restore HP</t>
   </si>
   <si>
@@ -127,9 +106,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f697e45b3l0i2sol3u2c1y0ja11.png</t>
   </si>
   <si>
-    <t>Axe Talisman</t>
-  </si>
-  <si>
     <t>Enhances charge attacks</t>
   </si>
   <si>
@@ -141,9 +117,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69c74ab1l0i2sp8u8ehul0cxenh.png</t>
   </si>
   <si>
-    <t>Blessed Dew Talisman</t>
-  </si>
-  <si>
     <t>Slowly restores HP</t>
   </si>
   <si>
@@ -153,9 +126,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69977289l0i2spaggtt1hdtxhk4.png</t>
-  </si>
-  <si>
-    <t>Blue Dancer Charm</t>
   </si>
   <si>
     <t>Raises attack power with lower equipment load</t>
@@ -170,18 +140,12 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69811f79l0i2spa5kavq1z95u5i.png</t>
   </si>
   <si>
-    <t>Blue-Feathered Branchsword</t>
-  </si>
-  <si>
     <t>Raises defense when HP is low</t>
   </si>
   <si>
     <t>A talisman adorned with blue feathers, once used in ancient death rituals.
 Raises defense when HP is low.
 The heart sings when one draws close to death, and thus does one cling so tenaciously to life—to render up a death worth offering.</t>
-  </si>
-  <si>
-    <t>Boltdrake Talisman</t>
   </si>
   <si>
     <t>Boosts lightning damage negation</t>
@@ -196,9 +160,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f697718ffl0i2sp9dowe0oahaam.png</t>
   </si>
   <si>
-    <t>Boltdrake Talisman +1</t>
-  </si>
-  <si>
     <t>Greatly boosts lightning damage negation</t>
   </si>
   <si>
@@ -208,9 +169,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Boltdrake Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts lightning damage negation</t>
   </si>
   <si>
@@ -220,9 +178,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Bull-Goat's Talisman</t>
-  </si>
-  <si>
     <t>Raises poise</t>
   </si>
   <si>
@@ -231,9 +186,6 @@
 Bull-goats are associated with the stout and mighty Tragoth, said to be unflinching in combat—now a silent comrade to those who fight.</t>
   </si>
   <si>
-    <t>Carian Filigreed Crest</t>
-  </si>
-  <si>
     <t>Lowers FP consumed by skills</t>
   </si>
   <si>
@@ -243,9 +195,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69e97eaal0i2sq1lvpkd5cfq2q.png</t>
-  </si>
-  <si>
-    <t>Cerulean Amber Medallion</t>
   </si>
   <si>
     <t>Raises maximum FP</t>
@@ -260,9 +209,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69ed62a2l0i2sq0x8kqy5oe9mwn.png</t>
   </si>
   <si>
-    <t>Cerulean Amber Medallion +1</t>
-  </si>
-  <si>
     <t>Greatly raises maximum FP</t>
   </si>
   <si>
@@ -272,9 +218,6 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Cerulean Amber Medallion +2</t>
-  </si>
-  <si>
     <t>Vastly raises maximum FP</t>
   </si>
   <si>
@@ -284,9 +227,6 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Cerulean Seed Talisman</t>
-  </si>
-  <si>
     <t>Boosts FP restoration from Flask of Cerulean Tears</t>
   </si>
   <si>
@@ -296,9 +236,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69dc1892l0i2sq1oh9i2x6tlarj.png</t>
-  </si>
-  <si>
-    <t>Clarifying Horn Charm</t>
   </si>
   <si>
     <t>Raises focus</t>
@@ -313,9 +250,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69942443l0i2sq2zl2bttnq08hp.png</t>
   </si>
   <si>
-    <t>Clarifying Horn Charm +1</t>
-  </si>
-  <si>
     <t>Greatly raises focus</t>
   </si>
   <si>
@@ -325,9 +259,6 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Claw Talisman</t>
-  </si>
-  <si>
     <t>Enhances jump attacks</t>
   </si>
   <si>
@@ -339,9 +270,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69ba1d62l0i2sq92f4o8t2tlzp7.png</t>
   </si>
   <si>
-    <t>Companion Jar</t>
-  </si>
-  <si>
     <t>Raises potency of throwing pots</t>
   </si>
   <si>
@@ -353,9 +281,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69eaed7fl0i2sz3buubfj570rq.png</t>
   </si>
   <si>
-    <t>Concealing Veil</t>
-  </si>
-  <si>
     <t>Conceals wearer while crouching away from foes</t>
   </si>
   <si>
@@ -367,9 +292,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69c9bfc8l0i2sze3h5gawcr577p.png</t>
   </si>
   <si>
-    <t>Crepus's Vial</t>
-  </si>
-  <si>
     <t>Eliminates all sound made by the wearer during movement</t>
   </si>
   <si>
@@ -379,9 +301,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69b7aec7l0i2sqw1x7ajlmzguyi.png</t>
-  </si>
-  <si>
-    <t>Crimson Amber Medallion</t>
   </si>
   <si>
     <t>Raises maximum HP</t>
@@ -396,9 +315,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f699e5a9dl0i2sqsk8mpabyj9mm4.png</t>
   </si>
   <si>
-    <t>Crimson Amber Medallion +1</t>
-  </si>
-  <si>
     <t>Greatly raises maximum HP</t>
   </si>
   <si>
@@ -408,9 +324,6 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Crimson Amber Medallion +2</t>
-  </si>
-  <si>
     <t>Vastly raises maximum HP</t>
   </si>
   <si>
@@ -420,9 +333,6 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Crimson Seed Talisman</t>
-  </si>
-  <si>
     <t>Boosts HP restoration from Flask of Crimson Tears</t>
   </si>
   <si>
@@ -432,9 +342,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f699b6e58l0i2svqah8qxabssa6s.png</t>
-  </si>
-  <si>
-    <t>Crucible Feather Talisman</t>
   </si>
   <si>
     <t>Improves dodge rolling but increases damage taken</t>
@@ -449,9 +356,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69d33e2dl0i2szt872otxd3taua.png</t>
   </si>
   <si>
-    <t>Crucible Knot Talisman</t>
-  </si>
-  <si>
     <t>Reduces damage and impact of headshots</t>
   </si>
   <si>
@@ -464,9 +368,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69d61012l0i2sqr9dmioj7dxngi.png</t>
   </si>
   <si>
-    <t>Crucible Scale Talisman</t>
-  </si>
-  <si>
     <t>Reduces damage taken from critical hits</t>
   </si>
   <si>
@@ -479,9 +380,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f6993bc1fl0i2sqt5xscysq45rce.png</t>
   </si>
   <si>
-    <t>Curved Sword Talisman</t>
-  </si>
-  <si>
     <t>Enhances guard counters</t>
   </si>
   <si>
@@ -491,9 +389,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69ed2edfl0i2sqxgpadu0gprbn.png</t>
-  </si>
-  <si>
-    <t>Daedicar's Woe</t>
   </si>
   <si>
     <t>Increases damage taken</t>
@@ -508,9 +403,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f699d64d5l0i2szu3wjjkmeqklc.png</t>
   </si>
   <si>
-    <t>Dagger Talisman</t>
-  </si>
-  <si>
     <t>Enhances critical hits</t>
   </si>
   <si>
@@ -520,9 +412,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f6991130cl0i2sywsfxyysl6tz7h.png</t>
-  </si>
-  <si>
-    <t>Dragoncrest Greatshield Talisman</t>
   </si>
   <si>
     <t>Enormously boosts physical damage negation</t>
@@ -537,9 +426,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f696b90dbl0i2sws9twxdvi39xzf.png</t>
   </si>
   <si>
-    <t>Dragoncrest Shield Talisman</t>
-  </si>
-  <si>
     <t>Boosts physical damage negation</t>
   </si>
   <si>
@@ -552,9 +438,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69d584c8l0i2srfem3zhei7qek.png</t>
   </si>
   <si>
-    <t>Dragoncrest Shield Talisman +1</t>
-  </si>
-  <si>
     <t>Greatly boosts physical damage negation</t>
   </si>
   <si>
@@ -564,9 +447,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Dragoncrest Shield Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts physical damage negation</t>
   </si>
   <si>
@@ -576,9 +456,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Entwining Umbilical Cord</t>
-  </si>
-  <si>
     <t>Changes demeanour of wearer's actions</t>
   </si>
   <si>
@@ -587,9 +464,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f696c4991l0i2szwm52zrw4bgso4.png</t>
-  </si>
-  <si>
-    <t>Erdtree's Favor</t>
   </si>
   <si>
     <t>Raises maximum HP, stamina and equip load</t>
@@ -603,23 +477,14 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69f205a0l0i2svmo2djg04dhvj4.png</t>
   </si>
   <si>
-    <t>Erdtree's Favor +1</t>
-  </si>
-  <si>
     <t>A talisman depicting a special blessing of the Erdtree.
 Raises maximum HP, stamina, and equip load.
 It is said that when the Age of the Erdtree began, such blessings were personally bestowed upon their recipients by Queen Marika herself.</t>
   </si>
   <si>
-    <t>Erdtree's Favor +2</t>
-  </si>
-  <si>
     <t>A legendary talisman depicting the Elden Lord Godfrey.
 Raises charge attack power of sorceries, incantations, and skills.
 Godfrey was a ferocious warrior. When he vowed to become a lord, he took the Beast Regent Serosh upon his back to suppress the ceaseless lust for battle that raged within.</t>
-  </si>
-  <si>
-    <t>Faithful's Canvas Talisman</t>
   </si>
   <si>
     <t>Raises potency of incantations</t>
@@ -634,9 +499,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f696b2a8el0i2srkijjgnyeo45ic.png</t>
   </si>
   <si>
-    <t>Fire Scorpion Charm</t>
-  </si>
-  <si>
     <t>Raises fire attack, but lowers damage negation</t>
   </si>
   <si>
@@ -646,9 +508,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f697b6373l0i2srhja32ffmg9v7s.png</t>
-  </si>
-  <si>
-    <t>Flamedrake Talisman</t>
   </si>
   <si>
     <t>Boosts fire damage negation</t>
@@ -663,9 +522,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f6969e375l0i2srh8fpkcyede0z.png</t>
   </si>
   <si>
-    <t>Flamedrake Talisman +1</t>
-  </si>
-  <si>
     <t>Greatly boosts fire damage negation</t>
   </si>
   <si>
@@ -675,9 +531,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Flamedrake Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts fire damage negation</t>
   </si>
   <si>
@@ -687,9 +540,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Flock's Canvas Talisman</t>
-  </si>
-  <si>
     <t>Greatly raises potency of incantations</t>
   </si>
   <si>
@@ -702,9 +552,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f6976f6b0l0i2szav175mw9xww9x.png</t>
   </si>
   <si>
-    <t>Furled Finger's Trick-Mirror</t>
-  </si>
-  <si>
     <t>Take on appearance of a Host of Fingers</t>
   </si>
   <si>
@@ -713,9 +560,6 @@
 One of the ritual implements created by the Tarnished to deceive invaders.</t>
   </si>
   <si>
-    <t>Godfrey Icon</t>
-  </si>
-  <si>
     <t>Enhances charged spells and skills</t>
   </si>
   <si>
@@ -727,9 +571,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69c0c973l0i2sw8w6uvbwqiqfmy.png</t>
   </si>
   <si>
-    <t>Godskin Swaddling Cloth</t>
-  </si>
-  <si>
     <t>Successive attacks restore HP</t>
   </si>
   <si>
@@ -741,9 +582,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69c7f897l0i2srkhjmyvn5rfnva.png</t>
   </si>
   <si>
-    <t>Gold Scarab</t>
-  </si>
-  <si>
     <t>Increases runes obtained from defeated enemies</t>
   </si>
   <si>
@@ -752,9 +590,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69d1b2c0l0i2sx1e2ftbrqshztb.png</t>
-  </si>
-  <si>
-    <t>Graven-Mass Talisman</t>
   </si>
   <si>
     <t>Greatly raises potency of sorceries</t>
@@ -765,18 +600,12 @@
 The primeval current is a forbidden tradition of glintstone sorcery. To those who cleave to its teachings, the act of collecting sorcerers to fashion them into the seeds of stars is but another path of scientific inquiry.</t>
   </si>
   <si>
-    <t>Graven-School Talisman</t>
-  </si>
-  <si>
     <t>Raises potency of sorceries</t>
   </si>
   <si>
     <t>A talisman depicting a school of graven mages, the nightmare of the academy.
 Raises potency of sorceries.
 The primeval current is a forbidden tradition of glintstone sorcery. To those who cleave to its teachings, the act of collecting sorcerers to fashion them into the seeds of stars is but another path of scientific inquiry.</t>
-  </si>
-  <si>
-    <t>Great-Jar's Arsenal</t>
   </si>
   <si>
     <t>Vastly raises maximum equip load</t>
@@ -788,9 +617,6 @@
 Carry as much as you can—grow big and strong.</t>
   </si>
   <si>
-    <t>Greatshield Talisman</t>
-  </si>
-  <si>
     <t>Boosts guarding ability</t>
   </si>
   <si>
@@ -800,9 +626,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69ba2ff0l0i2sye3sdb94vc6u6j.png</t>
-  </si>
-  <si>
-    <t>Green Turtle Talisman</t>
   </si>
   <si>
     <t>Raises stamina recovery speed</t>
@@ -817,9 +640,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69ecd4bdl0i2ss5cnven5hobw5d.png</t>
   </si>
   <si>
-    <t>Haligdrake Talisman</t>
-  </si>
-  <si>
     <t>Boosts holy damage negation</t>
   </si>
   <si>
@@ -832,9 +652,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69854ae6l0i2ss4quq0gikz8cw.png</t>
   </si>
   <si>
-    <t>Haligdrake Talisman +1</t>
-  </si>
-  <si>
     <t>Greatly boosts holy damage negation</t>
   </si>
   <si>
@@ -844,9 +661,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Haligdrake Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts holy damage negation</t>
   </si>
   <si>
@@ -856,9 +670,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Hammer Talisman</t>
-  </si>
-  <si>
     <t>Enhances stamina-reducing attacks against blockers</t>
   </si>
   <si>
@@ -870,18 +681,12 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f696fc245l0i2ss7f2pzn3xdhj6n.png</t>
   </si>
   <si>
-    <t>Host's Trick-Mirror</t>
-  </si>
-  <si>
     <t>Take on appearance of a cooperator</t>
   </si>
   <si>
     <t>A small, clouded mirror that reflects a flesh-and-blood figure.
 Makes the bearer take on the appearance of a summoned cooperator.
 One of the ritual implements created by the Tarnished to deceive invaders.</t>
-  </si>
-  <si>
-    <t>Immunizing Horn Charm</t>
   </si>
   <si>
     <t>Raises immunity</t>
@@ -896,9 +701,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69a7ec34l0i2ss898co9a2xz8uv.png</t>
   </si>
   <si>
-    <t>Immunizing Horn Charm +1</t>
-  </si>
-  <si>
     <t>Greatly raises immunity</t>
   </si>
   <si>
@@ -908,9 +710,6 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Kindred of Rot's Exultation</t>
-  </si>
-  <si>
     <t>Poisoning or rot in vicinity increases attack power</t>
   </si>
   <si>
@@ -919,9 +718,6 @@
 "Rot for the scarlet goddess. O scarlet blossoms, flourish in distant lands, and return to us, the unwanted children."</t>
   </si>
   <si>
-    <t>Lance Talisman</t>
-  </si>
-  <si>
     <t>Enhances attacks on horseback</t>
   </si>
   <si>
@@ -933,9 +729,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69858252l0i2swaqtyccdf5kihk.png</t>
   </si>
   <si>
-    <t>Lightning Scorpion Charm</t>
-  </si>
-  <si>
     <t>Raises lightning attack, but lowers damage negation</t>
   </si>
   <si>
@@ -947,9 +740,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69e2a905l0i2ssrfz1ym5wgjvc.png</t>
   </si>
   <si>
-    <t>Longtail Cat Talisman</t>
-  </si>
-  <si>
     <t>Grants immunity to fall damage, but does not prevent death from a high fall</t>
   </si>
   <si>
@@ -961,9 +751,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69ca952al0i2ssu6yw9l5kfw6q.png</t>
   </si>
   <si>
-    <t>Lord of Blood's Exultation</t>
-  </si>
-  <si>
     <t>Blood loss in vicinity increases attack power</t>
   </si>
   <si>
@@ -972,9 +759,6 @@
 "Render up your offerings of blood to your Lord. Drench my consort's chamber. Slake his cocoon's thirst. His awakening shall herald the dawn of our dynasty."</t>
   </si>
   <si>
-    <t>Magic Scorpion Charm</t>
-  </si>
-  <si>
     <t>Raises magic attack, but lowers damage negation</t>
   </si>
   <si>
@@ -984,9 +768,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69747fbcl0i2sxow29iyn6fm75v.png</t>
-  </si>
-  <si>
-    <t>Marika's Scarseal</t>
   </si>
   <si>
     <t>Raises attributes, but also increases damage taken</t>
@@ -1001,9 +782,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69bdcd53l0i2ssvjmuvkx73w1bo.png</t>
   </si>
   <si>
-    <t>Marika's Soreseal</t>
-  </si>
-  <si>
     <t>Greatly raises attributes, but also increases damage taken</t>
   </si>
   <si>
@@ -1013,9 +791,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69c504f2l0i2swunxt9oun5dn9.png</t>
-  </si>
-  <si>
-    <t>Millicent's Prosthesis</t>
   </si>
   <si>
     <t>Boosts dexterity, raises attack power with successive attacks</t>
@@ -1030,9 +805,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69afb835l0i2sykg6ynuw6wl9b.png</t>
   </si>
   <si>
-    <t>Moon of Nokstella</t>
-  </si>
-  <si>
     <t>Increases memory slots</t>
   </si>
   <si>
@@ -1042,9 +814,6 @@
 The moon of Nokstella was the guide of countless stars.</t>
   </si>
   <si>
-    <t>Mottled Necklace</t>
-  </si>
-  <si>
     <t>Raises robustness, immunity, and focus</t>
   </si>
   <si>
@@ -1056,9 +825,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69b9af92l0i2st8bt7bg2grdb1h.png</t>
   </si>
   <si>
-    <t>Mottled Necklace +1</t>
-  </si>
-  <si>
     <t>Greatly raises robustness, immunity, and focus</t>
   </si>
   <si>
@@ -1067,9 +833,6 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Old Lord's Talisman</t>
-  </si>
-  <si>
     <t>Extends spell effect duration</t>
   </si>
   <si>
@@ -1079,9 +842,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f6967fb2dl0i2ste8y2pomb9gcj9.png</t>
-  </si>
-  <si>
-    <t>Pearldrake Talisman</t>
   </si>
   <si>
     <t>Boosts non-physical damage negation</t>
@@ -1096,9 +856,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f699f5086l0i2stgzl85bqm2vvy.png</t>
   </si>
   <si>
-    <t>Pearldrake Talisman +1</t>
-  </si>
-  <si>
     <t>Greatly boosts non-physical damage negation</t>
   </si>
   <si>
@@ -1108,9 +865,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Pearldrake Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts non-physical damage negation</t>
   </si>
   <si>
@@ -1120,9 +874,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Perfumer's Talisman</t>
-  </si>
-  <si>
     <t>Raises potency of perfume items</t>
   </si>
   <si>
@@ -1134,9 +885,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69e92d45l0i2sxmogqn2tdfna89.png</t>
   </si>
   <si>
-    <t>Primal Glintstone Blade</t>
-  </si>
-  <si>
     <t>Spells consume less FP, but maximum HP is reduced</t>
   </si>
   <si>
@@ -1146,9 +894,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69e4e872l0i2strgtb0bn8sior8.png</t>
-  </si>
-  <si>
-    <t>Prince of Death's Cyst</t>
   </si>
   <si>
     <t>Greatly raises vitality</t>
@@ -1160,9 +905,6 @@
 It is said that this cyst came from the corrupted visage of one unable to die a true Death. Indeed, it comes from the Prince of Death, scion of the golden bough and First of the Dead among the demigods.</t>
   </si>
   <si>
-    <t>Prince of Death's Pustule</t>
-  </si>
-  <si>
     <t>Raises vitality</t>
   </si>
   <si>
@@ -1172,9 +914,6 @@
 It is said that this pustule came from the visage of the Prince of Death, he who used to be called Godwyn. As First Dead of the demigods, it's said he's buried deep under the capital, at the Erdtree's roots.</t>
   </si>
   <si>
-    <t>Prosthesis-Wearer Heirloom</t>
-  </si>
-  <si>
     <t>Raises dexterity</t>
   </si>
   <si>
@@ -1183,9 +922,6 @@
 Though born into the accursed rot, when the young girl encountered her mentor and his flowing blade, she gained wings of unparalleled strength.</t>
   </si>
   <si>
-    <t>Radagon Icon</t>
-  </si>
-  <si>
     <t>Shortens spell casting time</t>
   </si>
   <si>
@@ -1195,9 +931,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69db3ddfl0i2stxpa5we7cuil2.png</t>
-  </si>
-  <si>
-    <t>Radagon's Scarseal</t>
   </si>
   <si>
     <t>An eye engraved with an Elden Rune.
@@ -1209,9 +942,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69f6b0d2l0i2su0uxibci7qzsn.png</t>
   </si>
   <si>
-    <t>Radagon's Soreseal</t>
-  </si>
-  <si>
     <t>This legendary talisman is an eye engraved with an Elden Rune, said to be the seal of King Consort Radagon.
 Greatly raises vigor, endurance, strength, and dexterity, but also increases damage taken by a similar measure.
 Solemn duty weighs upon the one beholden; not unlike a gnawing curse from which there is no deliverance.</t>
@@ -1220,9 +950,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f696a52c1l0i2su2ddt9cbw3bnog.png</t>
   </si>
   <si>
-    <t>Red-Feathered Branchsword</t>
-  </si>
-  <si>
     <t>Raises attack power when HP is low</t>
   </si>
   <si>
@@ -1231,9 +958,6 @@
 The heart sings when one draws close to death, and a glorious end awaits those who cling so tenaciously to life.</t>
   </si>
   <si>
-    <t>Ritual Shield Talisman</t>
-  </si>
-  <si>
     <t>Raises defense when HP is at maximum</t>
   </si>
   <si>
@@ -1245,9 +969,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f699e1a3al0i2sxkv62fi32hab4.png</t>
   </si>
   <si>
-    <t>Ritual Sword Talisman</t>
-  </si>
-  <si>
     <t>Raises attack power when HP is at maximum</t>
   </si>
   <si>
@@ -1259,18 +980,12 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f699ae959l0i2sx3bloupcziqiz.png</t>
   </si>
   <si>
-    <t>Roar Medallion</t>
-  </si>
-  <si>
     <t>Enhances roars and breath attacks</t>
   </si>
   <si>
     <t>A bronze medallion depicting a roaring giant.
 Enhances roars and breath attacks.
 In ancient times, the giants were mortal enemies of the Erdtree. Their bellowing roars desolated nature, triggered avalanches, and whipped up storms of flame.</t>
-  </si>
-  <si>
-    <t>Rotten Winged Sword Insignia</t>
   </si>
   <si>
     <t>Greatly raises attack power with successive attacks</t>
@@ -1282,9 +997,6 @@
 The four sisters were born in the Swamp of Aeonia, and came to the Haligtree under the aegis of Gowry. And yet, those buds were doomed to never blossom.</t>
   </si>
   <si>
-    <t>Sacred Scorpion Charm</t>
-  </si>
-  <si>
     <t>Raises holy attack, but lowers damage negation</t>
   </si>
   <si>
@@ -1296,9 +1008,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69e49085l0i2sudupmymnf7is0e.png</t>
   </si>
   <si>
-    <t>Sacrificial Twig</t>
-  </si>
-  <si>
     <t>Will be lost on death in place of runes</t>
   </si>
   <si>
@@ -1308,9 +1017,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f6966d3a9l0i2suh41ayrux3telz.png</t>
-  </si>
-  <si>
-    <t>Shabriri's Woe</t>
   </si>
   <si>
     <t>Constantly attracts enemies' aggression</t>
@@ -1325,9 +1031,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f697d1dacl0i2sui3ut73lui72f.png</t>
   </si>
   <si>
-    <t>Shard of Alexander</t>
-  </si>
-  <si>
     <t>Greatly boosts the attack power of skills</t>
   </si>
   <si>
@@ -1336,17 +1039,11 @@
 Scraps of stewed flesh cling to the shard, and tatters of ornaments can be seen mingled within the slime. Relics of a red-haired champion, it would seem.</t>
   </si>
   <si>
-    <t>Silver Scarab</t>
-  </si>
-  <si>
     <t>Raises item discovery</t>
   </si>
   <si>
     <t>A talisman facsimile of a scarab, the carrier of treasures and precious things.
 This silver scarab enhances item discovery.</t>
-  </si>
-  <si>
-    <t>Spear Talisman</t>
   </si>
   <si>
     <t>Enhances counterattacks unique to thrusting weapons</t>
@@ -1358,9 +1055,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69e13918l0i2syr0vvb0gg1l8xg.png</t>
-  </si>
-  <si>
-    <t>Spelldrake Talisman</t>
   </si>
   <si>
     <t>Boosts magical damage negation</t>
@@ -1375,9 +1069,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69b80630l0i2sum3q22drl273qe.png</t>
   </si>
   <si>
-    <t>Spelldrake Talisman +1</t>
-  </si>
-  <si>
     <t>Greatly boosts magical damage negation</t>
   </si>
   <si>
@@ -1387,9 +1078,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Spelldrake Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts magical damage negation</t>
   </si>
   <si>
@@ -1399,9 +1087,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Stalwart Horn Charm</t>
-  </si>
-  <si>
     <t>Raises robustness</t>
   </si>
   <si>
@@ -1414,9 +1099,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69990291l0i2swl19cw8v99d5tk.png</t>
   </si>
   <si>
-    <t>Stalwart Horn Charm +1</t>
-  </si>
-  <si>
     <t>Greatly raises robustness</t>
   </si>
   <si>
@@ -1426,9 +1108,6 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Stargazer Heirloom</t>
-  </si>
-  <si>
     <t>Raises intelligence</t>
   </si>
   <si>
@@ -1440,9 +1119,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69726e74l0i2sunvmav2rtqj9e.png</t>
   </si>
   <si>
-    <t>Starscourge Heirloom</t>
-  </si>
-  <si>
     <t>Raises strength</t>
   </si>
   <si>
@@ -1454,9 +1130,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f697e6e60l0i2sv6zgblnfuco5k5.png</t>
   </si>
   <si>
-    <t>Taker's Cameo</t>
-  </si>
-  <si>
     <t>Restores HP upon defeating enemies</t>
   </si>
   <si>
@@ -1468,9 +1141,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69ebbca4l0i2suzy77ydy8c49x.png</t>
   </si>
   <si>
-    <t>Twinblade Talisman</t>
-  </si>
-  <si>
     <t>Enhances final hit of chain attacks</t>
   </si>
   <si>
@@ -1480,9 +1150,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f6964b6cbl0i2suzpeqzc8p0p31a.png</t>
-  </si>
-  <si>
-    <t>Two Fingers Heirloom</t>
   </si>
   <si>
     <t>Raises faith</t>
@@ -1498,9 +1165,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f69b8ff63l0i2svfsqagao13n1q.png</t>
   </si>
   <si>
-    <t>Viridian Amber Medallion</t>
-  </si>
-  <si>
     <t>Raises maximum stamina</t>
   </si>
   <si>
@@ -1513,9 +1177,6 @@
     <t>https://eldenring.fanapis.com/images/talismans/17f697609cfl0i2sv7ve0yxa2u67ps.png</t>
   </si>
   <si>
-    <t>Viridian Amber Medallion +1</t>
-  </si>
-  <si>
     <t>Greatly raises maximum stamina</t>
   </si>
   <si>
@@ -1525,9 +1186,6 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Viridian Amber Medallion +2</t>
-  </si>
-  <si>
     <t>Vastly raises maximum stamina</t>
   </si>
   <si>
@@ -1537,9 +1195,6 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Warrior Jar Shard</t>
-  </si>
-  <si>
     <t>Boosts the attack power of skills</t>
   </si>
   <si>
@@ -1549,9 +1204,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/talismans/17f69f4710al0i2sy6gpkd85ki28.png</t>
-  </si>
-  <si>
-    <t>Winged Sword Insignia</t>
   </si>
   <si>
     <t>Raises attack power with successive attacks</t>
@@ -1567,6 +1219,354 @@
   </si>
   <si>
     <t>Column 1</t>
+  </si>
+  <si>
+    <t>Ancestral Spirit's Horn</t>
+  </si>
+  <si>
+    <t>Arrow's Reach Talisman</t>
+  </si>
+  <si>
+    <t>Arrow's Sting Talisman</t>
+  </si>
+  <si>
+    <t>Arsenal Charm</t>
+  </si>
+  <si>
+    <t>Arsenal Charm +1</t>
+  </si>
+  <si>
+    <t>Assassin's Cerulean Dagger</t>
+  </si>
+  <si>
+    <t>Assassin's Crimson Dagger</t>
+  </si>
+  <si>
+    <t>Axe Talisman</t>
+  </si>
+  <si>
+    <t>Blessed Dew Talisman</t>
+  </si>
+  <si>
+    <t>Blue Dancer Charm</t>
+  </si>
+  <si>
+    <t>Blue-Feathered Branchsword</t>
+  </si>
+  <si>
+    <t>Boltdrake Talisman</t>
+  </si>
+  <si>
+    <t>Boltdrake Talisman +1</t>
+  </si>
+  <si>
+    <t>Boltdrake Talisman +2</t>
+  </si>
+  <si>
+    <t>Bull-Goat's Talisman</t>
+  </si>
+  <si>
+    <t>Carian Filigreed Crest</t>
+  </si>
+  <si>
+    <t>Cerulean Amber Medallion</t>
+  </si>
+  <si>
+    <t>Cerulean Amber Medallion +1</t>
+  </si>
+  <si>
+    <t>Cerulean Amber Medallion +2</t>
+  </si>
+  <si>
+    <t>Cerulean Seed Talisman</t>
+  </si>
+  <si>
+    <t>Clarifying Horn Charm</t>
+  </si>
+  <si>
+    <t>Clarifying Horn Charm +1</t>
+  </si>
+  <si>
+    <t>Claw Talisman</t>
+  </si>
+  <si>
+    <t>Companion Jar</t>
+  </si>
+  <si>
+    <t>Concealing Veil</t>
+  </si>
+  <si>
+    <t>Crepus's Vial</t>
+  </si>
+  <si>
+    <t>Crimson Amber Medallion</t>
+  </si>
+  <si>
+    <t>Crimson Amber Medallion +1</t>
+  </si>
+  <si>
+    <t>Crimson Amber Medallion +2</t>
+  </si>
+  <si>
+    <t>Crimson Seed Talisman</t>
+  </si>
+  <si>
+    <t>Crucible Feather Talisman</t>
+  </si>
+  <si>
+    <t>Crucible Knot Talisman</t>
+  </si>
+  <si>
+    <t>Crucible Scale Talisman</t>
+  </si>
+  <si>
+    <t>Curved Sword Talisman</t>
+  </si>
+  <si>
+    <t>Daedicar's Woe</t>
+  </si>
+  <si>
+    <t>Dagger Talisman</t>
+  </si>
+  <si>
+    <t>Dragoncrest Greatshield Talisman</t>
+  </si>
+  <si>
+    <t>Dragoncrest Shield Talisman</t>
+  </si>
+  <si>
+    <t>Dragoncrest Shield Talisman +1</t>
+  </si>
+  <si>
+    <t>Dragoncrest Shield Talisman +2</t>
+  </si>
+  <si>
+    <t>Entwining Umbilical Cord</t>
+  </si>
+  <si>
+    <t>Erdtree's Favor</t>
+  </si>
+  <si>
+    <t>Erdtree's Favor +1</t>
+  </si>
+  <si>
+    <t>Erdtree's Favor +2</t>
+  </si>
+  <si>
+    <t>Faithful's Canvas Talisman</t>
+  </si>
+  <si>
+    <t>Fire Scorpion Charm</t>
+  </si>
+  <si>
+    <t>Flamedrake Talisman</t>
+  </si>
+  <si>
+    <t>Flamedrake Talisman +1</t>
+  </si>
+  <si>
+    <t>Flamedrake Talisman +2</t>
+  </si>
+  <si>
+    <t>Flock's Canvas Talisman</t>
+  </si>
+  <si>
+    <t>Furled Finger's Trick-Mirror</t>
+  </si>
+  <si>
+    <t>Godfrey Icon</t>
+  </si>
+  <si>
+    <t>Godskin Swaddling Cloth</t>
+  </si>
+  <si>
+    <t>Gold Scarab</t>
+  </si>
+  <si>
+    <t>Graven-Mass Talisman</t>
+  </si>
+  <si>
+    <t>Graven-School Talisman</t>
+  </si>
+  <si>
+    <t>Great-Jar's Arsenal</t>
+  </si>
+  <si>
+    <t>Greatshield Talisman</t>
+  </si>
+  <si>
+    <t>Green Turtle Talisman</t>
+  </si>
+  <si>
+    <t>Haligdrake Talisman</t>
+  </si>
+  <si>
+    <t>Haligdrake Talisman +1</t>
+  </si>
+  <si>
+    <t>Haligdrake Talisman +2</t>
+  </si>
+  <si>
+    <t>Hammer Talisman</t>
+  </si>
+  <si>
+    <t>Host's Trick-Mirror</t>
+  </si>
+  <si>
+    <t>Immunizing Horn Charm</t>
+  </si>
+  <si>
+    <t>Immunizing Horn Charm +1</t>
+  </si>
+  <si>
+    <t>Kindred of Rot's Exultation</t>
+  </si>
+  <si>
+    <t>Lance Talisman</t>
+  </si>
+  <si>
+    <t>Lightning Scorpion Charm</t>
+  </si>
+  <si>
+    <t>Longtail Cat Talisman</t>
+  </si>
+  <si>
+    <t>Lord of Blood's Exultation</t>
+  </si>
+  <si>
+    <t>Magic Scorpion Charm</t>
+  </si>
+  <si>
+    <t>Marika's Scarseal</t>
+  </si>
+  <si>
+    <t>Marika's Soreseal</t>
+  </si>
+  <si>
+    <t>Millicent's Prosthesis</t>
+  </si>
+  <si>
+    <t>Moon of Nokstella</t>
+  </si>
+  <si>
+    <t>Mottled Necklace</t>
+  </si>
+  <si>
+    <t>Mottled Necklace +1</t>
+  </si>
+  <si>
+    <t>Old Lord's Talisman</t>
+  </si>
+  <si>
+    <t>Pearldrake Talisman</t>
+  </si>
+  <si>
+    <t>Pearldrake Talisman +1</t>
+  </si>
+  <si>
+    <t>Pearldrake Talisman +2</t>
+  </si>
+  <si>
+    <t>Perfumer's Talisman</t>
+  </si>
+  <si>
+    <t>Primal Glintstone Blade</t>
+  </si>
+  <si>
+    <t>Prince of Death's Cyst</t>
+  </si>
+  <si>
+    <t>Prince of Death's Pustule</t>
+  </si>
+  <si>
+    <t>Prosthesis-Wearer Heirloom</t>
+  </si>
+  <si>
+    <t>Radagon Icon</t>
+  </si>
+  <si>
+    <t>Radagon's Scarseal</t>
+  </si>
+  <si>
+    <t>Radagon's Soreseal</t>
+  </si>
+  <si>
+    <t>Red-Feathered Branchsword</t>
+  </si>
+  <si>
+    <t>Ritual Shield Talisman</t>
+  </si>
+  <si>
+    <t>Ritual Sword Talisman</t>
+  </si>
+  <si>
+    <t>Roar Medallion</t>
+  </si>
+  <si>
+    <t>Rotten Winged Sword Insignia</t>
+  </si>
+  <si>
+    <t>Sacred Scorpion Charm</t>
+  </si>
+  <si>
+    <t>Sacrificial Twig</t>
+  </si>
+  <si>
+    <t>Shabriri's Woe</t>
+  </si>
+  <si>
+    <t>Shard of Alexander</t>
+  </si>
+  <si>
+    <t>Silver Scarab</t>
+  </si>
+  <si>
+    <t>Spear Talisman</t>
+  </si>
+  <si>
+    <t>Spelldrake Talisman</t>
+  </si>
+  <si>
+    <t>Spelldrake Talisman +1</t>
+  </si>
+  <si>
+    <t>Spelldrake Talisman +2</t>
+  </si>
+  <si>
+    <t>Stalwart Horn Charm</t>
+  </si>
+  <si>
+    <t>Stalwart Horn Charm +1</t>
+  </si>
+  <si>
+    <t>Stargazer Heirloom</t>
+  </si>
+  <si>
+    <t>Starscourge Heirloom</t>
+  </si>
+  <si>
+    <t>Taker's Cameo</t>
+  </si>
+  <si>
+    <t>Twinblade Talisman</t>
+  </si>
+  <si>
+    <t>Two Fingers Heirloom</t>
+  </si>
+  <si>
+    <t>Viridian Amber Medallion</t>
+  </si>
+  <si>
+    <t>Viridian Amber Medallion +1</t>
+  </si>
+  <si>
+    <t>Viridian Amber Medallion +2</t>
+  </si>
+  <si>
+    <t>Warrior Jar Shard</t>
+  </si>
+  <si>
+    <t>Winged Sword Insignia</t>
   </si>
 </sst>
 </file>
@@ -2161,14 +2161,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>3249.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>1.2</v>
@@ -2177,18 +2177,18 @@
         <v>500.0</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>3250.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>0.7</v>
@@ -2197,18 +2197,18 @@
         <v>500.0</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3251.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>0.7</v>
@@ -2217,18 +2217,18 @@
         <v>500.0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
+      <c r="A5" s="1">
+        <v>3252.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>1.5</v>
@@ -2237,18 +2237,18 @@
         <v>100.0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="1">
+        <v>3253.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>1.5</v>
@@ -2258,14 +2258,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
+      <c r="A7" s="1">
+        <v>3254.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>0.8</v>
@@ -2274,18 +2274,18 @@
         <v>1500.0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
+      <c r="A8" s="1">
+        <v>3255.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>0.8</v>
@@ -2294,18 +2294,18 @@
         <v>1500.0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
+      <c r="A9" s="1">
+        <v>3256.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <v>0.8</v>
@@ -2314,18 +2314,18 @@
         <v>500.0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
+      <c r="A10" s="1">
+        <v>3257.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>0.6</v>
@@ -2334,18 +2334,18 @@
         <v>1000.0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
+      <c r="A11" s="1">
+        <v>3258.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>0.9</v>
@@ -2354,18 +2354,18 @@
         <v>500.0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
+      <c r="A12" s="1">
+        <v>3259.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>1.1</v>
@@ -2375,14 +2375,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
+      <c r="A13" s="1">
+        <v>3260.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>0.6</v>
@@ -2391,18 +2391,18 @@
         <v>100.0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>52</v>
+      <c r="A14" s="1">
+        <v>3261.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <v>0.6</v>
@@ -2412,14 +2412,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
+      <c r="A15" s="1">
+        <v>3262.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1">
         <v>0.6</v>
@@ -2429,14 +2429,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
+      <c r="A16" s="1">
+        <v>3263.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1">
         <v>0.5</v>
@@ -2446,14 +2446,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>61</v>
+      <c r="A17" s="1">
+        <v>3264.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
         <v>0.8</v>
@@ -2462,18 +2462,18 @@
         <v>1000.0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
+      <c r="A18" s="1">
+        <v>3265.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1">
         <v>0.3</v>
@@ -2482,18 +2482,18 @@
         <v>100.0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
+      <c r="A19" s="1">
+        <v>3266.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1">
         <v>0.3</v>
@@ -2503,14 +2503,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>72</v>
+      <c r="A20" s="1">
+        <v>3267.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1">
         <v>0.3</v>
@@ -2520,14 +2520,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>75</v>
+      <c r="A21" s="1">
+        <v>3268.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1">
         <v>0.8</v>
@@ -2536,18 +2536,18 @@
         <v>1000.0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>79</v>
+      <c r="A22" s="1">
+        <v>3269.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1">
         <v>0.6</v>
@@ -2556,18 +2556,18 @@
         <v>500.0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>83</v>
+      <c r="A23" s="1">
+        <v>3270.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1">
         <v>0.6</v>
@@ -2577,14 +2577,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>86</v>
+      <c r="A24" s="1">
+        <v>3271.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1">
         <v>0.7</v>
@@ -2593,18 +2593,18 @@
         <v>500.0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>90</v>
+      <c r="A25" s="1">
+        <v>3272.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1">
         <v>0.6</v>
@@ -2613,18 +2613,18 @@
         <v>500.0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>94</v>
+      <c r="A26" s="1">
+        <v>3273.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1">
         <v>0.9</v>
@@ -2633,18 +2633,18 @@
         <v>500.0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>98</v>
+      <c r="A27" s="1">
+        <v>3274.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1">
         <v>0.7</v>
@@ -2653,18 +2653,18 @@
         <v>500.0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>102</v>
+      <c r="A28" s="1">
+        <v>3275.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1">
         <v>0.3</v>
@@ -2673,18 +2673,18 @@
         <v>100.0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>106</v>
+      <c r="A29" s="1">
+        <v>3276.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1">
         <v>0.3</v>
@@ -2694,14 +2694,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>109</v>
+      <c r="A30" s="1">
+        <v>3277.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1">
         <v>0.3</v>
@@ -2711,14 +2711,14 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>112</v>
+      <c r="A31" s="1">
+        <v>3278.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1">
         <v>0.8</v>
@@ -2727,18 +2727,18 @@
         <v>1000.0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>116</v>
+      <c r="A32" s="1">
+        <v>3279.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1">
         <v>0.8</v>
@@ -2747,18 +2747,18 @@
         <v>1000.0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>120</v>
+      <c r="A33" s="1">
+        <v>3280.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D33" s="1">
         <v>0.5</v>
@@ -2767,18 +2767,18 @@
         <v>500.0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>124</v>
+      <c r="A34" s="1">
+        <v>3281.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D34" s="1">
         <v>1.1</v>
@@ -2787,18 +2787,18 @@
         <v>500.0</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>128</v>
+      <c r="A35" s="1">
+        <v>3282.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D35" s="1">
         <v>0.7</v>
@@ -2807,18 +2807,18 @@
         <v>500.0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>132</v>
+      <c r="A36" s="1">
+        <v>3283.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1">
         <v>0.8</v>
@@ -2827,18 +2827,18 @@
         <v>500.0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>136</v>
+      <c r="A37" s="1">
+        <v>3284.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="D37" s="1">
         <v>1.1</v>
@@ -2847,18 +2847,18 @@
         <v>500.0</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>140</v>
+      <c r="A38" s="1">
+        <v>3285.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1">
         <v>0.8</v>
@@ -2867,18 +2867,18 @@
         <v>2000.0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>144</v>
+      <c r="A39" s="1">
+        <v>3286.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D39" s="1">
         <v>0.8</v>
@@ -2887,18 +2887,18 @@
         <v>100.0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>148</v>
+      <c r="A40" s="1">
+        <v>3287.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D40" s="1">
         <v>0.8</v>
@@ -2908,14 +2908,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>151</v>
+      <c r="A41" s="1">
+        <v>3288.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1">
         <v>0.8</v>
@@ -2925,14 +2925,14 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>154</v>
+      <c r="A42" s="1">
+        <v>3289.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1">
         <v>0.5</v>
@@ -2941,18 +2941,18 @@
         <v>1000.0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>158</v>
+      <c r="A43" s="1">
+        <v>3290.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1">
         <v>1.5</v>
@@ -2961,18 +2961,18 @@
         <v>500.0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>162</v>
+      <c r="A44" s="1">
+        <v>3291.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1">
         <v>1.5</v>
@@ -2982,14 +2982,14 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>164</v>
+      <c r="A45" s="1">
+        <v>3292.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="D45" s="1">
         <v>1.5</v>
@@ -2999,14 +2999,14 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>166</v>
+      <c r="A46" s="1">
+        <v>3293.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="D46" s="1">
         <v>0.7</v>
@@ -3015,18 +3015,18 @@
         <v>1000.0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>170</v>
+      <c r="A47" s="1">
+        <v>3294.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="D47" s="1">
         <v>0.8</v>
@@ -3035,18 +3035,18 @@
         <v>500.0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>174</v>
+      <c r="A48" s="1">
+        <v>3295.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1">
         <v>0.6</v>
@@ -3055,18 +3055,18 @@
         <v>100.0</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>178</v>
+      <c r="A49" s="1">
+        <v>3296.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1">
         <v>0.6</v>
@@ -3076,14 +3076,14 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>181</v>
+      <c r="A50" s="1">
+        <v>3297.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1">
         <v>0.6</v>
@@ -3093,14 +3093,14 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>184</v>
+      <c r="A51" s="1">
+        <v>3298.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="D51" s="1">
         <v>1.0</v>
@@ -3109,18 +3109,18 @@
         <v>2000.0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>188</v>
+      <c r="A52" s="1">
+        <v>3299.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="D52" s="1">
         <v>0.7</v>
@@ -3130,14 +3130,14 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>191</v>
+      <c r="A53" s="1">
+        <v>3300.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="D53" s="1">
         <v>0.8</v>
@@ -3146,18 +3146,18 @@
         <v>1000.0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>195</v>
+      <c r="A54" s="1">
+        <v>3301.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="D54" s="1">
         <v>0.9</v>
@@ -3166,18 +3166,18 @@
         <v>1000.0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>199</v>
+      <c r="A55" s="1">
+        <v>3302.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="D55" s="1">
         <v>1.2</v>
@@ -3186,18 +3186,18 @@
         <v>500.0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>203</v>
+      <c r="A56" s="1">
+        <v>3303.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="D56" s="1">
         <v>1.0</v>
@@ -3207,14 +3207,14 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>206</v>
+      <c r="A57" s="1">
+        <v>3304.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="D57" s="1">
         <v>0.7</v>
@@ -3224,14 +3224,14 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>209</v>
+      <c r="A58" s="1">
+        <v>3305.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="D58" s="1">
         <v>1.5</v>
@@ -3241,14 +3241,14 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>212</v>
+      <c r="A59" s="1">
+        <v>3306.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="D59" s="1">
         <v>0.9</v>
@@ -3257,18 +3257,18 @@
         <v>500.0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>216</v>
+      <c r="A60" s="1">
+        <v>3307.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="D60" s="1">
         <v>0.7</v>
@@ -3277,18 +3277,18 @@
         <v>500.0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>220</v>
+      <c r="A61" s="1">
+        <v>3308.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="D61" s="1">
         <v>0.6</v>
@@ -3297,18 +3297,18 @@
         <v>100.0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>224</v>
+      <c r="A62" s="1">
+        <v>3309.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="D62" s="1">
         <v>0.6</v>
@@ -3318,14 +3318,14 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>227</v>
+      <c r="A63" s="1">
+        <v>3310.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="D63" s="1">
         <v>0.6</v>
@@ -3335,14 +3335,14 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>230</v>
+      <c r="A64" s="1">
+        <v>3311.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="D64" s="1">
         <v>0.9</v>
@@ -3351,18 +3351,18 @@
         <v>500.0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>234</v>
+      <c r="A65" s="1">
+        <v>3312.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="D65" s="1">
         <v>0.7</v>
@@ -3372,14 +3372,14 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>237</v>
+      <c r="A66" s="1">
+        <v>3313.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="D66" s="1">
         <v>0.6</v>
@@ -3388,18 +3388,18 @@
         <v>500.0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>241</v>
+      <c r="A67" s="1">
+        <v>3314.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="D67" s="1">
         <v>0.6</v>
@@ -3409,14 +3409,14 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>244</v>
+      <c r="A68" s="1">
+        <v>3315.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="D68" s="1">
         <v>0.9</v>
@@ -3426,14 +3426,14 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>247</v>
+      <c r="A69" s="1">
+        <v>3316.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="D69" s="1">
         <v>0.7</v>
@@ -3442,18 +3442,18 @@
         <v>500.0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>251</v>
+      <c r="A70" s="1">
+        <v>3317.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="D70" s="1">
         <v>0.8</v>
@@ -3462,18 +3462,18 @@
         <v>500.0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>255</v>
+      <c r="A71" s="1">
+        <v>3318.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="D71" s="1">
         <v>0.6</v>
@@ -3482,18 +3482,18 @@
         <v>500.0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>259</v>
+      <c r="A72" s="1">
+        <v>3319.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="D72" s="1">
         <v>0.9</v>
@@ -3503,14 +3503,14 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>262</v>
+      <c r="A73" s="1">
+        <v>3320.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="D73" s="1">
         <v>0.8</v>
@@ -3519,18 +3519,18 @@
         <v>500.0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>266</v>
+      <c r="A74" s="1">
+        <v>3321.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="D74" s="1">
         <v>0.8</v>
@@ -3539,18 +3539,18 @@
         <v>3000.0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>270</v>
+      <c r="A75" s="1">
+        <v>3322.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="D75" s="1">
         <v>0.8</v>
@@ -3559,18 +3559,18 @@
         <v>3000.0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>273</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>274</v>
+      <c r="A76" s="1">
+        <v>3323.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="D76" s="1">
         <v>1.6</v>
@@ -3579,18 +3579,18 @@
         <v>1000.0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>278</v>
+      <c r="A77" s="1">
+        <v>3324.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="D77" s="1">
         <v>0.8</v>
@@ -3600,14 +3600,14 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>281</v>
+      <c r="A78" s="1">
+        <v>3325.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="D78" s="1">
         <v>0.9</v>
@@ -3616,18 +3616,18 @@
         <v>1000.0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>285</v>
+      <c r="A79" s="1">
+        <v>3326.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="D79" s="1">
         <v>0.9</v>
@@ -3637,14 +3637,14 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>288</v>
+      <c r="A80" s="1">
+        <v>3327.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="D80" s="1">
         <v>0.5</v>
@@ -3653,18 +3653,18 @@
         <v>1000.0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>292</v>
+      <c r="A81" s="1">
+        <v>3328.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="D81" s="1">
         <v>0.9</v>
@@ -3673,18 +3673,18 @@
         <v>100.0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>296</v>
+      <c r="A82" s="1">
+        <v>3329.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="D82" s="1">
         <v>0.9</v>
@@ -3694,14 +3694,14 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>299</v>
+      <c r="A83" s="1">
+        <v>3330.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="D83" s="1">
         <v>0.9</v>
@@ -3711,14 +3711,14 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>302</v>
+      <c r="A84" s="1">
+        <v>3331.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="D84" s="1">
         <v>0.6</v>
@@ -3727,18 +3727,18 @@
         <v>500.0</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>306</v>
+      <c r="A85" s="1">
+        <v>3332.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="D85" s="1">
         <v>0.6</v>
@@ -3747,18 +3747,18 @@
         <v>2000.0</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>309</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>310</v>
+      <c r="A86" s="1">
+        <v>3333.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="D86" s="1">
         <v>0.6</v>
@@ -3768,14 +3768,14 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>313</v>
+      <c r="A87" s="1">
+        <v>3334.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>315</v>
+        <v>229</v>
       </c>
       <c r="D87" s="1">
         <v>0.6</v>
@@ -3785,14 +3785,14 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>316</v>
+      <c r="A88" s="1">
+        <v>3335.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>318</v>
+        <v>231</v>
       </c>
       <c r="D88" s="1">
         <v>0.8</v>
@@ -3802,14 +3802,14 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>319</v>
+      <c r="A89" s="1">
+        <v>3336.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="D89" s="1">
         <v>0.7</v>
@@ -3818,18 +3818,18 @@
         <v>1000.0</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>323</v>
+      <c r="A90" s="1">
+        <v>3337.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="D90" s="1">
         <v>0.8</v>
@@ -3838,18 +3838,18 @@
         <v>3000.0</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>326</v>
+      <c r="A91" s="1">
+        <v>3338.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="D91" s="1">
         <v>0.8</v>
@@ -3858,18 +3858,18 @@
         <v>3000.0</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
-        <v>329</v>
+      <c r="A92" s="1">
+        <v>3339.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>330</v>
+        <v>239</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>331</v>
+        <v>240</v>
       </c>
       <c r="D92" s="1">
         <v>1.4</v>
@@ -3879,14 +3879,14 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>332</v>
+      <c r="A93" s="1">
+        <v>3340.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="D93" s="1">
         <v>0.9</v>
@@ -3895,18 +3895,18 @@
         <v>500.0</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>336</v>
+      <c r="A94" s="1">
+        <v>3341.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="D94" s="1">
         <v>0.9</v>
@@ -3915,18 +3915,18 @@
         <v>500.0</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>340</v>
+      <c r="A95" s="1">
+        <v>3342.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="D95" s="1">
         <v>0.7</v>
@@ -3936,14 +3936,14 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>343</v>
+      <c r="A96" s="1">
+        <v>3343.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="D96" s="1">
         <v>1.4</v>
@@ -3953,14 +3953,14 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>346</v>
+      <c r="A97" s="1">
+        <v>3344.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>348</v>
+        <v>252</v>
       </c>
       <c r="D97" s="1">
         <v>0.8</v>
@@ -3969,18 +3969,18 @@
         <v>500.0</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>350</v>
+      <c r="A98" s="1">
+        <v>3345.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>351</v>
+        <v>254</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="D98" s="1">
         <v>1.0</v>
@@ -3989,18 +3989,18 @@
         <v>1000.0</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>354</v>
+      <c r="A99" s="1">
+        <v>3346.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>356</v>
+        <v>258</v>
       </c>
       <c r="D99" s="1">
         <v>0.6</v>
@@ -4009,18 +4009,18 @@
         <v>500.0</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>357</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>358</v>
+      <c r="A100" s="1">
+        <v>3347.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="D100" s="1">
         <v>0.9</v>
@@ -4030,14 +4030,14 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>361</v>
+      <c r="A101" s="1">
+        <v>3348.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="D101" s="1">
         <v>1.2</v>
@@ -4047,14 +4047,14 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>364</v>
+      <c r="A102" s="1">
+        <v>3349.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>366</v>
+        <v>265</v>
       </c>
       <c r="D102" s="1">
         <v>0.5</v>
@@ -4063,18 +4063,18 @@
         <v>500.0</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>367</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>368</v>
+      <c r="A103" s="1">
+        <v>3350.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="D103" s="1">
         <v>0.6</v>
@@ -4083,18 +4083,18 @@
         <v>100.0</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>371</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>372</v>
+      <c r="A104" s="1">
+        <v>3351.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>374</v>
+        <v>271</v>
       </c>
       <c r="D104" s="1">
         <v>0.6</v>
@@ -4104,14 +4104,14 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>375</v>
+      <c r="A105" s="1">
+        <v>3352.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
       <c r="D105" s="1">
         <v>0.6</v>
@@ -4121,14 +4121,14 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>378</v>
+      <c r="A106" s="1">
+        <v>3353.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="D106" s="1">
         <v>0.6</v>
@@ -4137,18 +4137,18 @@
         <v>500.0</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>382</v>
+      <c r="A107" s="1">
+        <v>3354.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
       <c r="D107" s="1">
         <v>0.6</v>
@@ -4158,14 +4158,14 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>385</v>
+      <c r="A108" s="1">
+        <v>3355.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>386</v>
+        <v>279</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>387</v>
+        <v>280</v>
       </c>
       <c r="D108" s="1">
         <v>0.6</v>
@@ -4174,18 +4174,18 @@
         <v>1000.0</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>388</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>389</v>
+      <c r="A109" s="1">
+        <v>3356.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>391</v>
+        <v>283</v>
       </c>
       <c r="D109" s="1">
         <v>0.8</v>
@@ -4194,18 +4194,18 @@
         <v>1000.0</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>393</v>
+      <c r="A110" s="1">
+        <v>3357.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>394</v>
+        <v>285</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>395</v>
+        <v>286</v>
       </c>
       <c r="D110" s="1">
         <v>1.0</v>
@@ -4214,18 +4214,18 @@
         <v>1000.0</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>396</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>397</v>
+      <c r="A111" s="1">
+        <v>3358.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>398</v>
+        <v>288</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="D111" s="1">
         <v>0.7</v>
@@ -4234,18 +4234,18 @@
         <v>500.0</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>400</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>401</v>
+      <c r="A112" s="1">
+        <v>3359.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>402</v>
+        <v>291</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="D112" s="1">
         <v>0.6</v>
@@ -4254,18 +4254,18 @@
         <v>1000.0</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>404</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>405</v>
+      <c r="A113" s="1">
+        <v>3360.0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="D113" s="1">
         <v>0.3</v>
@@ -4274,18 +4274,18 @@
         <v>100.0</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>409</v>
+      <c r="A114" s="1">
+        <v>3361.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>410</v>
+        <v>297</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>411</v>
+        <v>298</v>
       </c>
       <c r="D114" s="1">
         <v>0.3</v>
@@ -4295,14 +4295,14 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>412</v>
+      <c r="A115" s="1">
+        <v>3362.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>413</v>
+        <v>299</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>414</v>
+        <v>300</v>
       </c>
       <c r="D115" s="1">
         <v>0.3</v>
@@ -4312,14 +4312,14 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>415</v>
+      <c r="A116" s="1">
+        <v>3363.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>416</v>
+        <v>301</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>417</v>
+        <v>302</v>
       </c>
       <c r="D116" s="1">
         <v>0.9</v>
@@ -4328,18 +4328,18 @@
         <v>500.0</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>418</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>419</v>
+      <c r="A117" s="1">
+        <v>3364.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>420</v>
+        <v>304</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>421</v>
+        <v>305</v>
       </c>
       <c r="D117" s="1">
         <v>1.4</v>
@@ -4348,7 +4348,7 @@
         <v>500.0</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>422</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4462,7 +4462,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>423</v>
+        <v>307</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -4476,90 +4476,90 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="9">
         <v>1.2</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="9">
         <v>500.0</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="14">
         <v>0.7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="14">
         <v>500.0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9">
         <v>0.7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="9">
         <v>500.0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="14">
         <v>1.5</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="14">
         <v>100.0</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9">
         <v>1.5</v>
@@ -4569,115 +4569,115 @@
         <v>500.0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="14">
         <v>0.8</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F7" s="14">
         <v>1500.0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9">
         <v>0.8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F8" s="9">
         <v>1500.0</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" s="14">
         <v>0.8</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F9" s="14">
         <v>500.0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9">
         <v>0.6</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F10" s="9">
         <v>1000.0</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C11" s="14">
         <v>0.9</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F11" s="14">
         <v>500.0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9">
         <v>1.1</v>
@@ -4687,35 +4687,35 @@
         <v>500.0</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C13" s="14">
         <v>0.6</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F13" s="14">
         <v>100.0</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C14" s="9">
         <v>0.6</v>
@@ -4725,15 +4725,15 @@
         <v>500.0</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>55</v>
+        <v>321</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C15" s="14">
         <v>0.6</v>
@@ -4743,15 +4743,15 @@
         <v>1000.0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C16" s="9">
         <v>0.5</v>
@@ -4761,55 +4761,55 @@
         <v>1000.0</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C17" s="14">
         <v>0.8</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F17" s="14">
         <v>1000.0</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C18" s="9">
         <v>0.3</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F18" s="9">
         <v>100.0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C19" s="14">
         <v>0.3</v>
@@ -4819,15 +4819,15 @@
         <v>500.0</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>72</v>
+        <v>326</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C20" s="9">
         <v>0.3</v>
@@ -4837,55 +4837,55 @@
         <v>1000.0</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C21" s="14">
         <v>0.8</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F21" s="14">
         <v>1000.0</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C22" s="9">
         <v>0.6</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F22" s="9">
         <v>500.0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C23" s="14">
         <v>0.6</v>
@@ -4895,115 +4895,115 @@
         <v>1000.0</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C24" s="9">
         <v>0.7</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F24" s="9">
         <v>500.0</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>90</v>
+        <v>331</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C25" s="14">
         <v>0.6</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F25" s="14">
         <v>500.0</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C26" s="9">
         <v>0.9</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F26" s="9">
         <v>500.0</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C27" s="14">
         <v>0.7</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F27" s="14">
         <v>500.0</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>102</v>
+        <v>334</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C28" s="9">
         <v>0.3</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F28" s="9">
         <v>100.0</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>106</v>
+        <v>335</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C29" s="14">
         <v>0.3</v>
@@ -5013,15 +5013,15 @@
         <v>500.0</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>109</v>
+        <v>336</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C30" s="9">
         <v>0.3</v>
@@ -5031,195 +5031,195 @@
         <v>1000.0</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>112</v>
+        <v>337</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C31" s="14">
         <v>0.8</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F31" s="14">
         <v>1000.0</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>116</v>
+        <v>338</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C32" s="9">
         <v>0.8</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F32" s="9">
         <v>1000.0</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C33" s="14">
         <v>0.5</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="F33" s="14">
         <v>500.0</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C34" s="9">
         <v>1.1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="F34" s="9">
         <v>500.0</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C35" s="14">
         <v>0.7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F35" s="14">
         <v>500.0</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C36" s="9">
         <v>0.8</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="F36" s="9">
         <v>500.0</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>136</v>
+        <v>343</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C37" s="14">
         <v>1.1</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F37" s="14">
         <v>500.0</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>140</v>
+        <v>344</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C38" s="9">
         <v>0.8</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="F38" s="9">
         <v>2000.0</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>144</v>
+        <v>345</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C39" s="14">
         <v>0.8</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="F39" s="14">
         <v>100.0</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C40" s="9">
         <v>0.8</v>
@@ -5229,15 +5229,15 @@
         <v>500.0</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C41" s="14">
         <v>0.8</v>
@@ -5247,55 +5247,55 @@
         <v>1000.0</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>154</v>
+        <v>348</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="C42" s="9">
         <v>0.5</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="F42" s="9">
         <v>1000.0</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C43" s="14">
         <v>1.5</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="F43" s="14">
         <v>500.0</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>162</v>
+        <v>350</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C44" s="9">
         <v>1.5</v>
@@ -5305,15 +5305,15 @@
         <v>1500.0</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>164</v>
+        <v>351</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C45" s="14">
         <v>1.5</v>
@@ -5323,75 +5323,75 @@
         <v>3000.0</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>166</v>
+        <v>352</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C46" s="9">
         <v>0.7</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="F46" s="9">
         <v>1000.0</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>170</v>
+        <v>353</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C47" s="14">
         <v>0.8</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="F47" s="14">
         <v>500.0</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C48" s="9">
         <v>0.6</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="F48" s="9">
         <v>100.0</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="C49" s="14">
         <v>0.6</v>
@@ -5401,15 +5401,15 @@
         <v>500.0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>181</v>
+        <v>356</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C50" s="9">
         <v>0.6</v>
@@ -5419,35 +5419,35 @@
         <v>1000.0</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>184</v>
+        <v>357</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="C51" s="14">
         <v>1.0</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="F51" s="14">
         <v>2000.0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>188</v>
+        <v>358</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="C52" s="9">
         <v>0.7</v>
@@ -5457,75 +5457,75 @@
         <v>1000.0</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>191</v>
+        <v>359</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="C53" s="14">
         <v>0.8</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="F53" s="14">
         <v>1000.0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>195</v>
+        <v>360</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="C54" s="9">
         <v>0.9</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="F54" s="9">
         <v>1000.0</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>199</v>
+        <v>361</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="C55" s="14">
         <v>1.2</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="F55" s="14">
         <v>500.0</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="C56" s="9">
         <v>1.0</v>
@@ -5535,15 +5535,15 @@
         <v>2000.0</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>206</v>
+        <v>363</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="C57" s="14">
         <v>0.7</v>
@@ -5553,15 +5553,15 @@
         <v>1000.0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="C58" s="9">
         <v>1.5</v>
@@ -5571,75 +5571,75 @@
         <v>1000.0</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="C59" s="14">
         <v>0.9</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="F59" s="14">
         <v>500.0</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>216</v>
+        <v>366</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C60" s="9">
         <v>0.7</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="F60" s="9">
         <v>500.0</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C61" s="14">
         <v>0.6</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="F61" s="14">
         <v>100.0</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="C62" s="9">
         <v>0.6</v>
@@ -5649,15 +5649,15 @@
         <v>500.0</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="C63" s="14">
         <v>0.6</v>
@@ -5667,35 +5667,35 @@
         <v>1000.0</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="C64" s="9">
         <v>0.9</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="F64" s="9">
         <v>500.0</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>234</v>
+        <v>371</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="C65" s="14">
         <v>0.7</v>
@@ -5705,35 +5705,35 @@
         <v>1000.0</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="C66" s="9">
         <v>0.6</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="F66" s="9">
         <v>500.0</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="C67" s="14">
         <v>0.6</v>
@@ -5743,15 +5743,15 @@
         <v>1000.0</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>244</v>
+        <v>374</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="C68" s="9">
         <v>0.9</v>
@@ -5761,75 +5761,75 @@
         <v>500.0</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="C69" s="14">
         <v>0.7</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="F69" s="14">
         <v>500.0</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="C70" s="9">
         <v>0.8</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="F70" s="9">
         <v>500.0</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="C71" s="14">
         <v>0.6</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="F71" s="14">
         <v>500.0</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="C72" s="9">
         <v>0.9</v>
@@ -5839,95 +5839,95 @@
         <v>500.0</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>262</v>
+        <v>379</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="C73" s="14">
         <v>0.8</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="F73" s="14">
         <v>500.0</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>266</v>
+        <v>380</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="C74" s="9">
         <v>0.8</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="F74" s="9">
         <v>3000.0</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
-        <v>270</v>
+        <v>381</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="C75" s="14">
         <v>0.8</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="F75" s="14">
         <v>3000.0</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>274</v>
+        <v>382</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="C76" s="9">
         <v>1.6</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="F76" s="9">
         <v>1000.0</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="C77" s="14">
         <v>0.8</v>
@@ -5937,35 +5937,35 @@
         <v>2000.0</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>281</v>
+        <v>384</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="C78" s="9">
         <v>0.9</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="F78" s="9">
         <v>1000.0</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>283</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>285</v>
+        <v>385</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="C79" s="14">
         <v>0.9</v>
@@ -5975,55 +5975,55 @@
         <v>2000.0</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="C80" s="9">
         <v>0.5</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="F80" s="9">
         <v>1000.0</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="C81" s="14">
         <v>0.9</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="F81" s="14">
         <v>100.0</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="C82" s="9">
         <v>0.9</v>
@@ -6033,15 +6033,15 @@
         <v>500.0</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="C83" s="14">
         <v>0.9</v>
@@ -6051,55 +6051,55 @@
         <v>1000.0</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="C84" s="9">
         <v>0.6</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="F84" s="9">
         <v>500.0</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="s">
-        <v>306</v>
+        <v>391</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="C85" s="14">
         <v>0.6</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="F85" s="14">
         <v>2000.0</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>308</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>310</v>
+        <v>392</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C86" s="9">
         <v>0.6</v>
@@ -6109,15 +6109,15 @@
         <v>1000.0</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="C87" s="14">
         <v>0.6</v>
@@ -6127,15 +6127,15 @@
         <v>500.0</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>315</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>316</v>
+        <v>394</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="C88" s="9">
         <v>0.8</v>
@@ -6145,75 +6145,75 @@
         <v>1000.0</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>318</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C89" s="14">
         <v>0.7</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="F89" s="14">
         <v>1000.0</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="C90" s="9">
         <v>0.8</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="F90" s="9">
         <v>3000.0</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="C91" s="14">
         <v>0.8</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="F91" s="14">
         <v>3000.0</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>330</v>
+        <v>239</v>
       </c>
       <c r="C92" s="9">
         <v>1.4</v>
@@ -6223,55 +6223,55 @@
         <v>500.0</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>331</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="C93" s="14">
         <v>0.9</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="F93" s="14">
         <v>500.0</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="C94" s="9">
         <v>0.9</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="F94" s="9">
         <v>500.0</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="C95" s="14">
         <v>0.7</v>
@@ -6281,15 +6281,15 @@
         <v>500.0</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c r="C96" s="9">
         <v>1.4</v>
@@ -6299,75 +6299,75 @@
         <v>500.0</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="C97" s="14">
         <v>0.8</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="F97" s="14">
         <v>500.0</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>348</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>351</v>
+        <v>254</v>
       </c>
       <c r="C98" s="9">
         <v>1.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="F98" s="9">
         <v>1000.0</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>352</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="C99" s="14">
         <v>0.6</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>357</v>
+        <v>259</v>
       </c>
       <c r="F99" s="14">
         <v>500.0</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>356</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="C100" s="9">
         <v>0.9</v>
@@ -6377,15 +6377,15 @@
         <v>1000.0</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="C101" s="14">
         <v>1.2</v>
@@ -6395,55 +6395,55 @@
         <v>500.0</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="C102" s="9">
         <v>0.5</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="F102" s="9">
         <v>500.0</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>366</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="C103" s="14">
         <v>0.6</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="F103" s="14">
         <v>100.0</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>370</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="C104" s="9">
         <v>0.6</v>
@@ -6453,15 +6453,15 @@
         <v>500.0</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>374</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="C105" s="14">
         <v>0.6</v>
@@ -6471,35 +6471,35 @@
         <v>1000.0</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="C106" s="9">
         <v>0.6</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="F106" s="9">
         <v>500.0</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="C107" s="14">
         <v>0.6</v>
@@ -6509,135 +6509,135 @@
         <v>1000.0</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>386</v>
+        <v>279</v>
       </c>
       <c r="C108" s="9">
         <v>0.6</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>388</v>
+        <v>281</v>
       </c>
       <c r="F108" s="9">
         <v>1000.0</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>387</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="C109" s="14">
         <v>0.8</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
       <c r="F109" s="14">
         <v>1000.0</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>391</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>394</v>
+        <v>285</v>
       </c>
       <c r="C110" s="9">
         <v>1.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>396</v>
+        <v>287</v>
       </c>
       <c r="F110" s="9">
         <v>1000.0</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>395</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>398</v>
+        <v>288</v>
       </c>
       <c r="C111" s="14">
         <v>0.7</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="F111" s="14">
         <v>500.0</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>399</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>402</v>
+        <v>291</v>
       </c>
       <c r="C112" s="9">
         <v>0.6</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>404</v>
+        <v>293</v>
       </c>
       <c r="F112" s="9">
         <v>1000.0</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>403</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="C113" s="14">
         <v>0.3</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="F113" s="14">
         <v>100.0</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>407</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>410</v>
+        <v>297</v>
       </c>
       <c r="C114" s="9">
         <v>0.3</v>
@@ -6647,15 +6647,15 @@
         <v>500.0</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>411</v>
+        <v>298</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>413</v>
+        <v>299</v>
       </c>
       <c r="C115" s="14">
         <v>0.3</v>
@@ -6665,47 +6665,47 @@
         <v>1000.0</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>414</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>416</v>
+        <v>301</v>
       </c>
       <c r="C116" s="9">
         <v>0.9</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>418</v>
+        <v>303</v>
       </c>
       <c r="F116" s="9">
         <v>500.0</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>417</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="19" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>420</v>
+        <v>304</v>
       </c>
       <c r="C117" s="21">
         <v>1.4</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>422</v>
+        <v>306</v>
       </c>
       <c r="F117" s="21">
         <v>500.0</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>421</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/data/talismans.xlsx
+++ b/data/talismans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="424">
   <si>
     <t>id</t>
   </si>
@@ -20,19 +20,25 @@
     <t>info</t>
   </si>
   <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>image_url</t>
+    <t>Ancestral Spirit's Horn</t>
   </si>
   <si>
     <t>Restores FP upon defeating enemies</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6967466bl0i2swi5et1ibv4rc6r.png</t>
   </si>
   <si>
     <t>Item cut from the horns of the Regal Ancestor Spirit.
@@ -40,10 +46,13 @@
 A number of new growths bud from the antler-like horns of the fallen king, each glowing with light. Thus does new life grow from death, and from death, one obtains power.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6967466bl0i2swi5et1ibv4rc6r.png</t>
+    <t>Arrow's Reach Talisman</t>
   </si>
   <si>
     <t>Increases bow effective range</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69dfff40l0i2soo71h481xlxzx8i.png</t>
   </si>
   <si>
     <t>A talisman depicting three arrows.
@@ -51,10 +60,13 @@
 Increases the effective range of bows.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69dfff40l0i2soo71h481xlxzx8i.png</t>
+    <t>Arrow's Sting Talisman</t>
   </si>
   <si>
     <t>Raises attack power of arrows and bolts</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f4f7a3l0i2soioqe3qysjxaw.png</t>
   </si>
   <si>
     <t>A talisman depicting three iron arrows.
@@ -62,10 +74,13 @@
 Raises attack power of arrows and bolts.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f4f7a3l0i2soioqe3qysjxaw.png</t>
+    <t>Arsenal Charm</t>
   </si>
   <si>
     <t>Raises maximum equipment load</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69659e33l0i2soj4uhpxf54ncje.png</t>
   </si>
   <si>
     <t>An iron charm that resembles a mass of weaponry.
@@ -73,7 +88,7 @@
 This talisman was derived from an unusual greatsword once wielded by a hero hungry for vengeance.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69659e33l0i2soj4uhpxf54ncje.png</t>
+    <t>Arsenal Charm +1</t>
   </si>
   <si>
     <t>Greatly raises maximum equip load</t>
@@ -84,7 +99,13 @@
 This talisman was derived from an unusual greatsword once wielded by a hero hungry for vengeance.</t>
   </si>
   <si>
+    <t>Assassin's Cerulean Dagger</t>
+  </si>
+  <si>
     <t>Critical hits restore FP</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d47ea5l0i2sokp40249x3da4f.png</t>
   </si>
   <si>
     <t>An assassin's dagger, misshapen and stained in cerulean.
@@ -92,10 +113,13 @@
 This charm is modelled after the darkly gleaming blades used in the Night of Black Knives. Those which gave the demigods their first taste of Death.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d47ea5l0i2sokp40249x3da4f.png</t>
+    <t>Assassin's Crimson Dagger</t>
   </si>
   <si>
     <t>Critical hits restore HP</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697e45b3l0i2sol3u2c1y0ja11.png</t>
   </si>
   <si>
     <t>An assassin's dagger, misshapen and stained in crimson.
@@ -103,10 +127,13 @@
 This charm is modelled after the darkly gleaming blades used in the Night of Black Knives. Those which gave the demigods their first taste of Death.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697e45b3l0i2sol3u2c1y0ja11.png</t>
+    <t>Axe Talisman</t>
   </si>
   <si>
     <t>Enhances charge attacks</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c74ab1l0i2sp8u8ehul0cxenh.png</t>
   </si>
   <si>
     <t>A talisman depicting an axe and a warrior.
@@ -114,10 +141,13 @@
 The Lord who led the Long March bore an axe, and his loyal warriors honored him by wielding axes of their own, making them very effective at dealing decisive blows.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c74ab1l0i2sp8u8ehul0cxenh.png</t>
+    <t>Blessed Dew Talisman</t>
   </si>
   <si>
     <t>Slowly restores HP</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69977289l0i2spaggtt1hdtxhk4.png</t>
   </si>
   <si>
     <t>Talisman depicting a drop of the Erdtree's sap, a blessed boon.
@@ -125,10 +155,13 @@
 It was once thought that the blessed sap of the Erdtree would drip from its boughs forever—but that age of plenty swiftly came to a close, and with time, the Erdtree became more an object of faith.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69977289l0i2spaggtt1hdtxhk4.png</t>
+    <t>Blue Dancer Charm</t>
   </si>
   <si>
     <t>Raises attack power with lower equipment load</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69811f79l0i2spa5kavq1z95u5i.png</t>
   </si>
   <si>
     <t>A cloth doll depicting a dancer garbed in blue.
@@ -137,7 +170,7 @@
 The dancer in blue represents a fairy, who in legend bestowed a flowing sword upon a blind swordsman. Blade in hand, the swordsman sealed away an ancient god—a god that was Rot itself.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69811f79l0i2spa5kavq1z95u5i.png</t>
+    <t>Blue-Feathered Branchsword</t>
   </si>
   <si>
     <t>Raises defense when HP is low</t>
@@ -148,7 +181,13 @@
 The heart sings when one draws close to death, and thus does one cling so tenaciously to life—to render up a death worth offering.</t>
   </si>
   <si>
+    <t>Boltdrake Talisman</t>
+  </si>
+  <si>
     <t>Boosts lightning damage negation</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697718ffl0i2sp9dowe0oahaam.png</t>
   </si>
   <si>
     <t>Talisman depicting a yellow ancient dragon.
@@ -157,7 +196,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697718ffl0i2sp9dowe0oahaam.png</t>
+    <t>Boltdrake Talisman +1</t>
   </si>
   <si>
     <t>Greatly boosts lightning damage negation</t>
@@ -169,6 +208,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Boltdrake Talisman +2</t>
+  </si>
+  <si>
     <t>Vastly boosts lightning damage negation</t>
   </si>
   <si>
@@ -178,6 +220,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Bull-Goat's Talisman</t>
+  </si>
+  <si>
     <t>Raises poise</t>
   </si>
   <si>
@@ -186,7 +231,13 @@
 Bull-goats are associated with the stout and mighty Tragoth, said to be unflinching in combat—now a silent comrade to those who fight.</t>
   </si>
   <si>
+    <t>Carian Filigreed Crest</t>
+  </si>
+  <si>
     <t>Lowers FP consumed by skills</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e97eaal0i2sq1lvpkd5cfq2q.png</t>
   </si>
   <si>
     <t>A talisman adorned with the royal crest.
@@ -194,10 +245,13 @@
 An honor said to have once been awarded to Carian knights who served as direct retainers to the kingdom's princesses. Now there is only one princess: Ranni, daughter of Rennala.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e97eaal0i2sq1lvpkd5cfq2q.png</t>
+    <t>Cerulean Amber Medallion</t>
   </si>
   <si>
     <t>Raises maximum FP</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ed62a2l0i2sq0x8kqy5oe9mwn.png</t>
   </si>
   <si>
     <t>A medallion with cerulean amber inlaid.
@@ -206,7 +260,7 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ed62a2l0i2sq0x8kqy5oe9mwn.png</t>
+    <t>Cerulean Amber Medallion +1</t>
   </si>
   <si>
     <t>Greatly raises maximum FP</t>
@@ -218,6 +272,9 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
+    <t>Cerulean Amber Medallion +2</t>
+  </si>
+  <si>
     <t>Vastly raises maximum FP</t>
   </si>
   <si>
@@ -227,7 +284,13 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
+    <t>Cerulean Seed Talisman</t>
+  </si>
+  <si>
     <t>Boosts FP restoration from Flask of Cerulean Tears</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69dc1892l0i2sq1oh9i2x6tlarj.png</t>
   </si>
   <si>
     <t>A cerulean-colored talisman patterned after an Erdtree seed.
@@ -235,10 +298,13 @@
 The Erdtree was once perfect and eternal, and thus was it believed that Erdtree seeds could not exist.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69dc1892l0i2sq1oh9i2x6tlarj.png</t>
+    <t>Clarifying Horn Charm</t>
   </si>
   <si>
     <t>Raises focus</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69942443l0i2sq2zl2bttnq08hp.png</t>
   </si>
   <si>
     <t>An accoutrement worn by the ancestral followers.
@@ -247,7 +313,7 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69942443l0i2sq2zl2bttnq08hp.png</t>
+    <t>Clarifying Horn Charm +1</t>
   </si>
   <si>
     <t>Greatly raises focus</t>
@@ -259,7 +325,13 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
+    <t>Claw Talisman</t>
+  </si>
+  <si>
     <t>Enhances jump attacks</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ba1d62l0i2sq92f4o8t2tlzp7.png</t>
   </si>
   <si>
     <t>A talisman depicting a claw and an assassin.
@@ -267,10 +339,13 @@
 The assassins of Ravenmount are killers by trade. They assail their victims while dressed as birds of prey.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ba1d62l0i2sq92f4o8t2tlzp7.png</t>
+    <t>Companion Jar</t>
   </si>
   <si>
     <t>Raises potency of throwing pots</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69eaed7fl0i2sz3buubfj570rq.png</t>
   </si>
   <si>
     <t>A talisman given by the jars to their friends.
@@ -278,10 +353,13 @@
 Though the jars are brought to life by human flesh and blood, they are all rather kindly folk. Perhaps they were made to be better than their innards.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69eaed7fl0i2sz3buubfj570rq.png</t>
+    <t>Concealing Veil</t>
   </si>
   <si>
     <t>Conceals wearer while crouching away from foes</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c9bfc8l0i2sze3h5gawcr577p.png</t>
   </si>
   <si>
     <t>Talisman put together from dark cloth with a lustrous sheen.
@@ -289,10 +367,13 @@
 Part of one of the concealing veils used by the assassins on the Night of Black Knives.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c9bfc8l0i2sze3h5gawcr577p.png</t>
+    <t>Crepus's Vial</t>
   </si>
   <si>
     <t>Eliminates all sound made by the wearer during movement</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b7aec7l0i2sqw1x7ajlmzguyi.png</t>
   </si>
   <si>
     <t>Small mysterious bottle with a dark mist sealed within.
@@ -300,10 +381,13 @@
 A ritual implement used by Roundtable Hold assassins. There was a time when Tarnished who had strayed from guidance feared nothing more than utter silence.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b7aec7l0i2sqw1x7ajlmzguyi.png</t>
+    <t>Crimson Amber Medallion</t>
   </si>
   <si>
     <t>Raises maximum HP</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699e5a9dl0i2sqsk8mpabyj9mm4.png</t>
   </si>
   <si>
     <t>A medallion with crimson amber inlaid.
@@ -312,7 +396,7 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699e5a9dl0i2sqsk8mpabyj9mm4.png</t>
+    <t>Crimson Amber Medallion +1</t>
   </si>
   <si>
     <t>Greatly raises maximum HP</t>
@@ -324,6 +408,9 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
+    <t>Crimson Amber Medallion +2</t>
+  </si>
+  <si>
     <t>Vastly raises maximum HP</t>
   </si>
   <si>
@@ -333,7 +420,13 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
+    <t>Crimson Seed Talisman</t>
+  </si>
+  <si>
     <t>Boosts HP restoration from Flask of Crimson Tears</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699b6e58l0i2svqah8qxabssa6s.png</t>
   </si>
   <si>
     <t>A crimson-colored talisman patterned after an Erdtree seed.
@@ -341,10 +434,13 @@
 The Erdtree was once perfect and eternal, and thus was it believed that Erdtree seeds could not exist.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699b6e58l0i2svqah8qxabssa6s.png</t>
+    <t>Crucible Feather Talisman</t>
   </si>
   <si>
     <t>Improves dodge rolling but increases damage taken</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d33e2dl0i2szt872otxd3taua.png</t>
   </si>
   <si>
     <t>A talisman fashioned from feathers that embody the aspects of various creatures.
@@ -353,10 +449,13 @@
 A vestige of the crucible of primordial life. Born partially of devolution, it was considered a signifier of the divine in ancient times, but is now increasingly disdained as an impurity as civilization has advanced.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d33e2dl0i2szt872otxd3taua.png</t>
+    <t>Crucible Knot Talisman</t>
   </si>
   <si>
     <t>Reduces damage and impact of headshots</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d61012l0i2sqr9dmioj7dxngi.png</t>
   </si>
   <si>
     <t>A talisman fashioned from a bony knot that embodies the aspects of various creatures.
@@ -365,10 +464,13 @@
 A vestige of the crucible of primordial life. Born partially of devolution, it was considered a signifier of the divine in ancient times, but is now increasingly disdained as an impurity as civilization has advanced.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d61012l0i2sqr9dmioj7dxngi.png</t>
+    <t>Crucible Scale Talisman</t>
   </si>
   <si>
     <t>Reduces damage taken from critical hits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6993bc1fl0i2sqt5xscysq45rce.png</t>
   </si>
   <si>
     <t>A talisman fashioned from a scale that embodies the aspects of various creatures.
@@ -377,10 +479,13 @@
 A vestige of the crucible of primordial life. Born partially of devolution, it was considered a signifier of the divine in ancient times, but is now increasingly disdained as an impurity as civilization has advanced.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6993bc1fl0i2sqt5xscysq45rce.png</t>
+    <t>Curved Sword Talisman</t>
   </si>
   <si>
     <t>Enhances guard counters</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ed2edfl0i2sqxgpadu0gprbn.png</t>
   </si>
   <si>
     <t>A talisman depicting a curved sword and a swordsman.
@@ -388,10 +493,13 @@
 It is said that a blind swordsman was the originator of this technique—the art of allowing one's opponent to strike so as to leave them vulnerable to a well-timed reply.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ed2edfl0i2sqxgpadu0gprbn.png</t>
+    <t>Daedicar's Woe</t>
   </si>
   <si>
     <t>Increases damage taken</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699d64d5l0i2szu3wjjkmeqklc.png</t>
   </si>
   <si>
     <t>Disturbing likeness of a woman whose skin was flayed.
@@ -400,10 +508,13 @@
 It is said that this woman, named Daedicar, indulged in every form of adultery and wicked pleasure imaginable, giving birth to a myriad of grotesque children.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699d64d5l0i2szu3wjjkmeqklc.png</t>
+    <t>Dagger Talisman</t>
   </si>
   <si>
     <t>Enhances critical hits</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6991130cl0i2sywsfxyysl6tz7h.png</t>
   </si>
   <si>
     <t>A talisman depicting a dagger and a surgeon.
@@ -411,10 +522,13 @@
 The white-garbed field surgeons come to the aid of friend and foe alike by dealing a final deadly thrust to spare them from the prolonged agony of a mortal wound. A sense of mercy is a catalyst for bloodlust.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6991130cl0i2sywsfxyysl6tz7h.png</t>
+    <t>Dragoncrest Greatshield Talisman</t>
   </si>
   <si>
     <t>Enormously boosts physical damage negation</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696b90dbl0i2sws9twxdvi39xzf.png</t>
   </si>
   <si>
     <t>Legendary talisman of wrought iron depicting a massive ancient dragon.
@@ -423,10 +537,13 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696b90dbl0i2sws9twxdvi39xzf.png</t>
+    <t>Dragoncrest Shield Talisman</t>
   </si>
   <si>
     <t>Boosts physical damage negation</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d584c8l0i2srfem3zhei7qek.png</t>
   </si>
   <si>
     <t>Wrought iron talisman depicting an ancient dragon.
@@ -435,7 +552,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d584c8l0i2srfem3zhei7qek.png</t>
+    <t>Dragoncrest Shield Talisman +1</t>
   </si>
   <si>
     <t>Greatly boosts physical damage negation</t>
@@ -447,6 +564,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Dragoncrest Shield Talisman +2</t>
+  </si>
+  <si>
     <t>Vastly boosts physical damage negation</t>
   </si>
   <si>
@@ -456,17 +576,26 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Entwining Umbilical Cord</t>
+  </si>
+  <si>
     <t>Changes demeanour of wearer's actions</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696c4991l0i2szwm52zrw4bgso4.png</t>
   </si>
   <si>
     <t>Mysterious circular object that's oddly warped.
 Changes the demeanour of the wearer's actions.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696c4991l0i2szwm52zrw4bgso4.png</t>
+    <t>Erdtree's Favor</t>
   </si>
   <si>
     <t>Raises maximum HP, stamina and equip load</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f205a0l0i2svmo2djg04dhvj4.png</t>
   </si>
   <si>
     <t>A talisman depicting a special blessing of the Erdtree.
@@ -474,7 +603,7 @@
 It is said that when the Age of the Erdtree began, such blessings were personally bestowed upon their recipients by Queen Marika herself.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f205a0l0i2svmo2djg04dhvj4.png</t>
+    <t>Erdtree's Favor +1</t>
   </si>
   <si>
     <t>A talisman depicting a special blessing of the Erdtree.
@@ -482,12 +611,21 @@
 It is said that when the Age of the Erdtree began, such blessings were personally bestowed upon their recipients by Queen Marika herself.</t>
   </si>
   <si>
+    <t>Erdtree's Favor +2</t>
+  </si>
+  <si>
     <t>A legendary talisman depicting the Elden Lord Godfrey.
 Raises charge attack power of sorceries, incantations, and skills.
 Godfrey was a ferocious warrior. When he vowed to become a lord, he took the Beast Regent Serosh upon his back to suppress the ceaseless lust for battle that raged within.</t>
   </si>
   <si>
+    <t>Faithful's Canvas Talisman</t>
+  </si>
+  <si>
     <t>Raises potency of incantations</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696b2a8el0i2srkijjgnyeo45ic.png</t>
   </si>
   <si>
     <t>A talisman bearing an icon that depicts a group of masked figures.
@@ -496,10 +634,13 @@
 What is faith if not an affirmation?</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696b2a8el0i2srkijjgnyeo45ic.png</t>
+    <t>Fire Scorpion Charm</t>
   </si>
   <si>
     <t>Raises fire attack, but lowers damage negation</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697b6373l0i2srhja32ffmg9v7s.png</t>
   </si>
   <si>
     <t>A talisman carried by assassins who strike unseen.
@@ -507,10 +648,13 @@
 Raises fire attack power, but lowers damage negation.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697b6373l0i2srhja32ffmg9v7s.png</t>
+    <t>Flamedrake Talisman</t>
   </si>
   <si>
     <t>Boosts fire damage negation</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6969e375l0i2srh8fpkcyede0z.png</t>
   </si>
   <si>
     <t>Talisman depicting a red ancient dragon.
@@ -519,7 +663,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6969e375l0i2srh8fpkcyede0z.png</t>
+    <t>Flamedrake Talisman +1</t>
   </si>
   <si>
     <t>Greatly boosts fire damage negation</t>
@@ -531,6 +675,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Flamedrake Talisman +2</t>
+  </si>
+  <si>
     <t>Vastly boosts fire damage negation</t>
   </si>
   <si>
@@ -540,7 +687,13 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Flock's Canvas Talisman</t>
+  </si>
+  <si>
     <t>Greatly raises potency of incantations</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6976f6b0l0i2szav175mw9xww9x.png</t>
   </si>
   <si>
     <t>A talisman bearing an icon that depicts a mass of masked figures.
@@ -549,7 +702,7 @@
 What is faith if not an affirmation?</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6976f6b0l0i2szav175mw9xww9x.png</t>
+    <t>Furled Finger's Trick-Mirror</t>
   </si>
   <si>
     <t>Take on appearance of a Host of Fingers</t>
@@ -560,7 +713,13 @@
 One of the ritual implements created by the Tarnished to deceive invaders.</t>
   </si>
   <si>
+    <t>Godfrey Icon</t>
+  </si>
+  <si>
     <t>Enhances charged spells and skills</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c0c973l0i2sw8w6uvbwqiqfmy.png</t>
   </si>
   <si>
     <t>A legendary talisman depicting the Elden Lord Godfrey.
@@ -568,10 +727,13 @@
 Godfrey was a ferocious warrior. When he vowed to become a lord, he took the Beast Regent Serosh upon on his back to suppress the ceaseless lust for battle that raged within.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c0c973l0i2sw8w6uvbwqiqfmy.png</t>
+    <t>Godskin Swaddling Cloth</t>
   </si>
   <si>
     <t>Successive attacks restore HP</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c7f897l0i2srkhjmyvn5rfnva.png</t>
   </si>
   <si>
     <t>Sacred cloth of the Godskin Apostles, made from supple skin sewn together.
@@ -579,17 +741,20 @@
 The Gloam-Eyed Queen cradles newborn apostles swaddled in this cloth. Soon they will grow to become the death of the gods.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c7f897l0i2srkhjmyvn5rfnva.png</t>
+    <t>Gold Scarab</t>
   </si>
   <si>
     <t>Increases runes obtained from defeated enemies</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d1b2c0l0i2sx1e2ftbrqshztb.png</t>
   </si>
   <si>
     <t>A talisman facsimile of a scarab, the carrier of treasures and precious things.
 This golden scarab increases the amount of runes obtained from defeating enemies.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d1b2c0l0i2sx1e2ftbrqshztb.png</t>
+    <t>Graven-Mass Talisman</t>
   </si>
   <si>
     <t>Greatly raises potency of sorceries</t>
@@ -600,12 +765,18 @@
 The primeval current is a forbidden tradition of glintstone sorcery. To those who cleave to its teachings, the act of collecting sorcerers to fashion them into the seeds of stars is but another path of scientific inquiry.</t>
   </si>
   <si>
+    <t>Graven-School Talisman</t>
+  </si>
+  <si>
     <t>Raises potency of sorceries</t>
   </si>
   <si>
     <t>A talisman depicting a school of graven mages, the nightmare of the academy.
 Raises potency of sorceries.
 The primeval current is a forbidden tradition of glintstone sorcery. To those who cleave to its teachings, the act of collecting sorcerers to fashion them into the seeds of stars is but another path of scientific inquiry.</t>
+  </si>
+  <si>
+    <t>Great-Jar's Arsenal</t>
   </si>
   <si>
     <t>Vastly raises maximum equip load</t>
@@ -617,7 +788,13 @@
 Carry as much as you can—grow big and strong.</t>
   </si>
   <si>
+    <t>Greatshield Talisman</t>
+  </si>
+  <si>
     <t>Boosts guarding ability</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ba2ff0l0i2sye3sdb94vc6u6j.png</t>
   </si>
   <si>
     <t>Talisman depicting a knight holding a greatshield.
@@ -625,10 +802,13 @@
 The knights of Leyndell once modelled themselves after the Tree Sentinels. Their purpose is to protect that which deserves protection, and thus the shield always comes before the sword.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ba2ff0l0i2sye3sdb94vc6u6j.png</t>
+    <t>Green Turtle Talisman</t>
   </si>
   <si>
     <t>Raises stamina recovery speed</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ecd4bdl0i2ss5cnven5hobw5d.png</t>
   </si>
   <si>
     <t>A talisman in the shape of a green turtle.
@@ -637,10 +817,13 @@
 However, those who hold turtles to be wise creatures consider the practice of eating their meat to be barbarous.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ecd4bdl0i2ss5cnven5hobw5d.png</t>
+    <t>Haligdrake Talisman</t>
   </si>
   <si>
     <t>Boosts holy damage negation</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69854ae6l0i2ss4quq0gikz8cw.png</t>
   </si>
   <si>
     <t>Talisman depicting a golden ancient dragon.
@@ -649,7 +832,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69854ae6l0i2ss4quq0gikz8cw.png</t>
+    <t>Haligdrake Talisman +1</t>
   </si>
   <si>
     <t>Greatly boosts holy damage negation</t>
@@ -661,6 +844,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Haligdrake Talisman +2</t>
+  </si>
+  <si>
     <t>Vastly boosts holy damage negation</t>
   </si>
   <si>
@@ -670,7 +856,13 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Hammer Talisman</t>
+  </si>
+  <si>
     <t>Enhances stamina-reducing attacks against blockers</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696fc245l0i2ss7f2pzn3xdhj6n.png</t>
   </si>
   <si>
     <t>A talisman depicting a hammer and a knight.
@@ -678,7 +870,7 @@
 Hammers are highly effective against shield-bearing foes, so much so that they are known as "knight-killers."</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696fc245l0i2ss7f2pzn3xdhj6n.png</t>
+    <t>Host's Trick-Mirror</t>
   </si>
   <si>
     <t>Take on appearance of a cooperator</t>
@@ -689,7 +881,13 @@
 One of the ritual implements created by the Tarnished to deceive invaders.</t>
   </si>
   <si>
+    <t>Immunizing Horn Charm</t>
+  </si>
+  <si>
     <t>Raises immunity</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69a7ec34l0i2ss898co9a2xz8uv.png</t>
   </si>
   <si>
     <t>An accoutrement worn by the ancestral followers.
@@ -698,7 +896,7 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69a7ec34l0i2ss898co9a2xz8uv.png</t>
+    <t>Immunizing Horn Charm +1</t>
   </si>
   <si>
     <t>Greatly raises immunity</t>
@@ -710,6 +908,9 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
+    <t>Kindred of Rot's Exultation</t>
+  </si>
+  <si>
     <t>Poisoning or rot in vicinity increases attack power</t>
   </si>
   <si>
@@ -718,7 +919,13 @@
 "Rot for the scarlet goddess. O scarlet blossoms, flourish in distant lands, and return to us, the unwanted children."</t>
   </si>
   <si>
+    <t>Lance Talisman</t>
+  </si>
+  <si>
     <t>Enhances attacks on horseback</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69858252l0i2swaqtyccdf5kihk.png</t>
   </si>
   <si>
     <t>A talisman depicting a lance and a knight.
@@ -726,10 +933,13 @@
 Knights on horseback are deadly foes. They see all below from their lofty position, meeting little meaningful resistance as they charge ahead.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69858252l0i2swaqtyccdf5kihk.png</t>
+    <t>Lightning Scorpion Charm</t>
   </si>
   <si>
     <t>Raises lightning attack, but lowers damage negation</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e2a905l0i2ssrfz1ym5wgjvc.png</t>
   </si>
   <si>
     <t>A talisman carried by assassins who strike unseen.
@@ -737,10 +947,13 @@
 Raises lightning attack power, but lowers damage negation.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e2a905l0i2ssrfz1ym5wgjvc.png</t>
+    <t>Longtail Cat Talisman</t>
   </si>
   <si>
     <t>Grants immunity to fall damage, but does not prevent death from a high fall</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ca952al0i2ssu6yw9l5kfw6q.png</t>
   </si>
   <si>
     <t>A brooch depicting Lacrima, the long-tailed cat.
@@ -748,7 +961,7 @@
 Lacrima features in the fables of Raya Lucaria, in which she is described as a faerie cat who was fond of playing in the great bell tower.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ca952al0i2ssu6yw9l5kfw6q.png</t>
+    <t>Lord of Blood's Exultation</t>
   </si>
   <si>
     <t>Blood loss in vicinity increases attack power</t>
@@ -759,7 +972,13 @@
 "Render up your offerings of blood to your Lord. Drench my consort's chamber. Slake his cocoon's thirst. His awakening shall herald the dawn of our dynasty."</t>
   </si>
   <si>
+    <t>Magic Scorpion Charm</t>
+  </si>
+  <si>
     <t>Raises magic attack, but lowers damage negation</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69747fbcl0i2sxow29iyn6fm75v.png</t>
   </si>
   <si>
     <t>A talisman carried by assassins who strike unseen.
@@ -767,10 +986,13 @@
 Raises magic attack power, but lowers damage negation.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69747fbcl0i2sxow29iyn6fm75v.png</t>
+    <t>Marika's Scarseal</t>
   </si>
   <si>
     <t>Raises attributes, but also increases damage taken</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69bdcd53l0i2ssvjmuvkx73w1bo.png</t>
   </si>
   <si>
     <t>An eye engraved with an Elden Rune.
@@ -779,10 +1001,13 @@
 These seals represent the lifelong duty of those chosen by the gods.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69bdcd53l0i2ssvjmuvkx73w1bo.png</t>
+    <t>Marika's Soreseal</t>
   </si>
   <si>
     <t>Greatly raises attributes, but also increases damage taken</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c504f2l0i2swunxt9oun5dn9.png</t>
   </si>
   <si>
     <t>This legendary talisman is an eye engraved with an Elden Rune, said to be the seal of Queen Marika.
@@ -790,10 +1015,13 @@
 Solemn duty weighs upon the one beholden; not unlike a gnawing curse from which there is no deliverance.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c504f2l0i2swunxt9oun5dn9.png</t>
+    <t>Millicent's Prosthesis</t>
   </si>
   <si>
     <t>Boosts dexterity, raises attack power with successive attacks</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69afb835l0i2sykg6ynuw6wl9b.png</t>
   </si>
   <si>
     <t>Part of the golden prosthesis used by Millicent.
@@ -802,7 +1030,7 @@
 The despair of sweet betrayal transformed Millicent from a mere bud into a magnificent flower. And one day, she will be reborn—as a beautiful scarlet valkyrie.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69afb835l0i2sykg6ynuw6wl9b.png</t>
+    <t>Moon of Nokstella</t>
   </si>
   <si>
     <t>Increases memory slots</t>
@@ -814,7 +1042,13 @@
 The moon of Nokstella was the guide of countless stars.</t>
   </si>
   <si>
+    <t>Mottled Necklace</t>
+  </si>
+  <si>
     <t>Raises robustness, immunity, and focus</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b9af92l0i2st8bt7bg2grdb1h.png</t>
   </si>
   <si>
     <t>A vividly-colored accoutrement precious to the ancestral followers.
@@ -822,7 +1056,7 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b9af92l0i2st8bt7bg2grdb1h.png</t>
+    <t>Mottled Necklace +1</t>
   </si>
   <si>
     <t>Greatly raises robustness, immunity, and focus</t>
@@ -833,7 +1067,13 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
+    <t>Old Lord's Talisman</t>
+  </si>
+  <si>
     <t>Extends spell effect duration</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6967fb2dl0i2ste8y2pomb9gcj9.png</t>
   </si>
   <si>
     <t>A legendary talisman depicting the ancient king whose seat lies at the heart of the storm beyond time.
@@ -841,10 +1081,13 @@
 It is said that the ancient royal city of Farum Azula has been slowly crumbling since time immemorial.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6967fb2dl0i2ste8y2pomb9gcj9.png</t>
+    <t>Pearldrake Talisman</t>
   </si>
   <si>
     <t>Boosts non-physical damage negation</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699f5086l0i2stgzl85bqm2vvy.png</t>
   </si>
   <si>
     <t>Talisman depicting a pearlescent ancient dragon.
@@ -853,7 +1096,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699f5086l0i2stgzl85bqm2vvy.png</t>
+    <t>Pearldrake Talisman +1</t>
   </si>
   <si>
     <t>Greatly boosts non-physical damage negation</t>
@@ -865,6 +1108,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Pearldrake Talisman +2</t>
+  </si>
+  <si>
     <t>Vastly boosts non-physical damage negation</t>
   </si>
   <si>
@@ -874,7 +1120,13 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Perfumer's Talisman</t>
+  </si>
+  <si>
     <t>Raises potency of perfume items</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e92d45l0i2sxmogqn2tdfna89.png</t>
   </si>
   <si>
     <t>A talisman depicting a set of perfume bottles.
@@ -882,10 +1134,13 @@
 There are gardens known only to the perfumers. Whether hidden on the fringes of the highlands, or obscured by shadows inside caves, the flowers blossom in secret, waiting to impart their scent.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e92d45l0i2sxmogqn2tdfna89.png</t>
+    <t>Primal Glintstone Blade</t>
   </si>
   <si>
     <t>Spells consume less FP, but maximum HP is reduced</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e4e872l0i2strgtb0bn8sior8.png</t>
   </si>
   <si>
     <t>An old glintstone blade that has been stained with blood.
@@ -893,7 +1148,7 @@
 The old sorcerers would slice open their hearts with these blades to imbue a primal glintstone with their soul, and thus did they die.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e4e872l0i2strgtb0bn8sior8.png</t>
+    <t>Prince of Death's Cyst</t>
   </si>
   <si>
     <t>Greatly raises vitality</t>
@@ -905,6 +1160,9 @@
 It is said that this cyst came from the corrupted visage of one unable to die a true Death. Indeed, it comes from the Prince of Death, scion of the golden bough and First of the Dead among the demigods.</t>
   </si>
   <si>
+    <t>Prince of Death's Pustule</t>
+  </si>
+  <si>
     <t>Raises vitality</t>
   </si>
   <si>
@@ -914,6 +1172,9 @@
 It is said that this pustule came from the visage of the Prince of Death, he who used to be called Godwyn. As First Dead of the demigods, it's said he's buried deep under the capital, at the Erdtree's roots.</t>
   </si>
   <si>
+    <t>Prosthesis-Wearer Heirloom</t>
+  </si>
+  <si>
     <t>Raises dexterity</t>
   </si>
   <si>
@@ -922,7 +1183,13 @@
 Though born into the accursed rot, when the young girl encountered her mentor and his flowing blade, she gained wings of unparalleled strength.</t>
   </si>
   <si>
+    <t>Radagon Icon</t>
+  </si>
+  <si>
     <t>Shortens spell casting time</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69db3ddfl0i2stxpa5we7cuil2.png</t>
   </si>
   <si>
     <t>A legendary talisman depicting the Elden Lord Radagon.
@@ -930,7 +1197,10 @@
 As the husband of Rennala of Caria, the red-haired Radagon studied sorcery, and as the husband of Queen Marika, he studied incantations. Thus did the hero aspire to be complete.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69db3ddfl0i2stxpa5we7cuil2.png</t>
+    <t>Radagon's Scarseal</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f6b0d2l0i2su0uxibci7qzsn.png</t>
   </si>
   <si>
     <t>An eye engraved with an Elden Rune.
@@ -939,7 +1209,10 @@
 These seals represent the lifelong duty of those chosen by the gods.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f6b0d2l0i2su0uxibci7qzsn.png</t>
+    <t>Radagon's Soreseal</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696a52c1l0i2su2ddt9cbw3bnog.png</t>
   </si>
   <si>
     <t>This legendary talisman is an eye engraved with an Elden Rune, said to be the seal of King Consort Radagon.
@@ -947,7 +1220,7 @@
 Solemn duty weighs upon the one beholden; not unlike a gnawing curse from which there is no deliverance.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696a52c1l0i2su2ddt9cbw3bnog.png</t>
+    <t>Red-Feathered Branchsword</t>
   </si>
   <si>
     <t>Raises attack power when HP is low</t>
@@ -958,7 +1231,13 @@
 The heart sings when one draws close to death, and a glorious end awaits those who cling so tenaciously to life.</t>
   </si>
   <si>
+    <t>Ritual Shield Talisman</t>
+  </si>
+  <si>
     <t>Raises defense when HP is at maximum</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699e1a3al0i2sxkv62fi32hab4.png</t>
   </si>
   <si>
     <t>A talisman patterned after shields used in ritual combat held to honor the Erdtree.
@@ -966,10 +1245,13 @@
 The practice had died out by the age of King Consort Radagon, but remains of the arenas where ritual combat took place can still be found in every land.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699e1a3al0i2sxkv62fi32hab4.png</t>
+    <t>Ritual Sword Talisman</t>
   </si>
   <si>
     <t>Raises attack power when HP is at maximum</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699ae959l0i2sx3bloupcziqiz.png</t>
   </si>
   <si>
     <t>A talisman patterned after swords used in ritual combat held to honor the Erdtree.
@@ -977,7 +1259,7 @@
 The practice had died out by the age of King Consort Radagon, but remains of the arenas where ritual combat took place can still be found in every land.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699ae959l0i2sx3bloupcziqiz.png</t>
+    <t>Roar Medallion</t>
   </si>
   <si>
     <t>Enhances roars and breath attacks</t>
@@ -986,6 +1268,9 @@
     <t>A bronze medallion depicting a roaring giant.
 Enhances roars and breath attacks.
 In ancient times, the giants were mortal enemies of the Erdtree. Their bellowing roars desolated nature, triggered avalanches, and whipped up storms of flame.</t>
+  </si>
+  <si>
+    <t>Rotten Winged Sword Insignia</t>
   </si>
   <si>
     <t>Greatly raises attack power with successive attacks</t>
@@ -997,7 +1282,13 @@
 The four sisters were born in the Swamp of Aeonia, and came to the Haligtree under the aegis of Gowry. And yet, those buds were doomed to never blossom.</t>
   </si>
   <si>
+    <t>Sacred Scorpion Charm</t>
+  </si>
+  <si>
     <t>Raises holy attack, but lowers damage negation</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e49085l0i2sudupmymnf7is0e.png</t>
   </si>
   <si>
     <t>A talisman carried by assassins who strike unseen.
@@ -1005,10 +1296,13 @@
 Raises holy attack power, but lowers damage negation.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e49085l0i2sudupmymnf7is0e.png</t>
+    <t>Sacrificial Twig</t>
   </si>
   <si>
     <t>Will be lost on death in place of runes</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6966d3a9l0i2suh41ayrux3telz.png</t>
   </si>
   <si>
     <t>A talisman fashioned from a dried twig, so slender that it might snap at the slightest touch.
@@ -1016,10 +1310,13 @@
 Believed to be a twig pruned from the Erdtree long, long ago.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6966d3a9l0i2suh41ayrux3telz.png</t>
+    <t>Shabriri's Woe</t>
   </si>
   <si>
     <t>Constantly attracts enemies' aggression</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697d1dacl0i2sui3ut73lui72f.png</t>
   </si>
   <si>
     <t>Disturbing likeness of a man whose eyes have been gouged out.
@@ -1028,7 +1325,7 @@
 It is said that the man, named Shabriri, had his eyes gouged out as punishment for the crime of slander, and, with time, the blight of the flame of frenzy came to dwell in the empty sockets.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697d1dacl0i2sui3ut73lui72f.png</t>
+    <t>Shard of Alexander</t>
   </si>
   <si>
     <t>Greatly boosts the attack power of skills</t>
@@ -1039,6 +1336,9 @@
 Scraps of stewed flesh cling to the shard, and tatters of ornaments can be seen mingled within the slime. Relics of a red-haired champion, it would seem.</t>
   </si>
   <si>
+    <t>Silver Scarab</t>
+  </si>
+  <si>
     <t>Raises item discovery</t>
   </si>
   <si>
@@ -1046,7 +1346,13 @@
 This silver scarab enhances item discovery.</t>
   </si>
   <si>
+    <t>Spear Talisman</t>
+  </si>
+  <si>
     <t>Enhances counterattacks unique to thrusting weapons</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e13918l0i2syr0vvb0gg1l8xg.png</t>
   </si>
   <si>
     <t>A talisman depicting a spear and a soldier.
@@ -1054,10 +1360,13 @@
 Spears are standard weapons for soldiers in the Lands Between. They made it possible to respond to a ferocious foe with an equally ferocious counterattack.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e13918l0i2syr0vvb0gg1l8xg.png</t>
+    <t>Spelldrake Talisman</t>
   </si>
   <si>
     <t>Boosts magical damage negation</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b80630l0i2sum3q22drl273qe.png</t>
   </si>
   <si>
     <t>Talisman depicting a blue ancient dragon.
@@ -1066,7 +1375,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b80630l0i2sum3q22drl273qe.png</t>
+    <t>Spelldrake Talisman +1</t>
   </si>
   <si>
     <t>Greatly boosts magical damage negation</t>
@@ -1078,6 +1387,9 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Spelldrake Talisman +2</t>
+  </si>
+  <si>
     <t>Vastly boosts magical damage negation</t>
   </si>
   <si>
@@ -1087,7 +1399,13 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
+    <t>Stalwart Horn Charm</t>
+  </si>
+  <si>
     <t>Raises robustness</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69990291l0i2swl19cw8v99d5tk.png</t>
   </si>
   <si>
     <t>An accoutrement worn by the ancestral followers.
@@ -1096,7 +1414,7 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69990291l0i2swl19cw8v99d5tk.png</t>
+    <t>Stalwart Horn Charm +1</t>
   </si>
   <si>
     <t>Greatly raises robustness</t>
@@ -1108,7 +1426,13 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
+    <t>Stargazer Heirloom</t>
+  </si>
+  <si>
     <t>Raises intelligence</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69726e74l0i2sunvmav2rtqj9e.png</t>
   </si>
   <si>
     <t>A talisman engraved with the legend of a queen.
@@ -1116,10 +1440,13 @@
 The young astrologer gazed at the night sky as she walked. She had always chased the stars every step of her journey. Then she met the full moon—and, in time, the astrologer became a queen.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69726e74l0i2sunvmav2rtqj9e.png</t>
+    <t>Starscourge Heirloom</t>
   </si>
   <si>
     <t>Raises strength</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697e6e60l0i2sv6zgblnfuco5k5.png</t>
   </si>
   <si>
     <t>A talisman engraved with a scene from a heroic tale.
@@ -1127,10 +1454,13 @@
 The mightiest hero of the demigods confronted the falling stars alone—and thus did he crush them, his conquest sealing the very fate of the stars.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697e6e60l0i2sv6zgblnfuco5k5.png</t>
+    <t>Taker's Cameo</t>
   </si>
   <si>
     <t>Restores HP upon defeating enemies</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ebbca4l0i2suzy77ydy8c49x.png</t>
   </si>
   <si>
     <t>A talisman engraved with a stern likeness of Praetor Rykard, master of Volcano Manor.
@@ -1138,10 +1468,13 @@
 When Rykard turned to heresy, taking by force became the rule. The gods themselves were no different, after all.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ebbca4l0i2suzy77ydy8c49x.png</t>
+    <t>Twinblade Talisman</t>
   </si>
   <si>
     <t>Enhances final hit of chain attacks</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6964b6cbl0i2suzpeqzc8p0p31a.png</t>
   </si>
   <si>
     <t>A talisman depicting a twinblade and a confessor.
@@ -1149,10 +1482,13 @@
 The twinblade technique is a tradition of the confessors, who closely guard the secret of how they preserve the momentum of their attacks. Thus is the final strike of their onslaught all the more deadly.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6964b6cbl0i2suzpeqzc8p0p31a.png</t>
+    <t>Two Fingers Heirloom</t>
   </si>
   <si>
     <t>Raises faith</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b8ff63l0i2svfsqagao13n1q.png</t>
   </si>
   <si>
     <t>A talisman engraved with the legend of the Two Fingers.
@@ -1162,10 +1498,13 @@
 Thus did we gain the words. The words of our faith.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b8ff63l0i2svfsqagao13n1q.png</t>
+    <t>Viridian Amber Medallion</t>
   </si>
   <si>
     <t>Raises maximum stamina</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697609cfl0i2sv7ve0yxa2u67ps.png</t>
   </si>
   <si>
     <t>A medallion with viridian amber inlaid.
@@ -1174,7 +1513,7 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697609cfl0i2sv7ve0yxa2u67ps.png</t>
+    <t>Viridian Amber Medallion +1</t>
   </si>
   <si>
     <t>Greatly raises maximum stamina</t>
@@ -1186,6 +1525,9 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
+    <t>Viridian Amber Medallion +2</t>
+  </si>
+  <si>
     <t>Vastly raises maximum stamina</t>
   </si>
   <si>
@@ -1195,7 +1537,13 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
+    <t>Warrior Jar Shard</t>
+  </si>
+  <si>
     <t>Boosts the attack power of skills</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f4710al0i2sy6gpkd85ki28.png</t>
   </si>
   <si>
     <t>Shard of a shattered warrior jar.
@@ -1203,10 +1551,13 @@
 Scraps of stewed flesh cling to the shard, and tatters of ornaments can be seen mingled within the slime. Relics of ancient royal warriors, perhaps.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f4710al0i2sy6gpkd85ki28.png</t>
+    <t>Winged Sword Insignia</t>
   </si>
   <si>
     <t>Raises attack power with successive attacks</t>
+  </si>
+  <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69a2445bl0i2svl6l9dei5cxhbd.png</t>
   </si>
   <si>
     <t>A talisman depicting a raised prosthetic blade.
@@ -1215,358 +1566,7 @@
 The wings symbolize Malenia and her undefeated prowess. Though she never knew relief from the accursed rot she was born into, her blade was forever beautiful—and relentless.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69a2445bl0i2svl6l9dei5cxhbd.png</t>
-  </si>
-  <si>
     <t>Column 1</t>
-  </si>
-  <si>
-    <t>Ancestral Spirit's Horn</t>
-  </si>
-  <si>
-    <t>Arrow's Reach Talisman</t>
-  </si>
-  <si>
-    <t>Arrow's Sting Talisman</t>
-  </si>
-  <si>
-    <t>Arsenal Charm</t>
-  </si>
-  <si>
-    <t>Arsenal Charm +1</t>
-  </si>
-  <si>
-    <t>Assassin's Cerulean Dagger</t>
-  </si>
-  <si>
-    <t>Assassin's Crimson Dagger</t>
-  </si>
-  <si>
-    <t>Axe Talisman</t>
-  </si>
-  <si>
-    <t>Blessed Dew Talisman</t>
-  </si>
-  <si>
-    <t>Blue Dancer Charm</t>
-  </si>
-  <si>
-    <t>Blue-Feathered Branchsword</t>
-  </si>
-  <si>
-    <t>Boltdrake Talisman</t>
-  </si>
-  <si>
-    <t>Boltdrake Talisman +1</t>
-  </si>
-  <si>
-    <t>Boltdrake Talisman +2</t>
-  </si>
-  <si>
-    <t>Bull-Goat's Talisman</t>
-  </si>
-  <si>
-    <t>Carian Filigreed Crest</t>
-  </si>
-  <si>
-    <t>Cerulean Amber Medallion</t>
-  </si>
-  <si>
-    <t>Cerulean Amber Medallion +1</t>
-  </si>
-  <si>
-    <t>Cerulean Amber Medallion +2</t>
-  </si>
-  <si>
-    <t>Cerulean Seed Talisman</t>
-  </si>
-  <si>
-    <t>Clarifying Horn Charm</t>
-  </si>
-  <si>
-    <t>Clarifying Horn Charm +1</t>
-  </si>
-  <si>
-    <t>Claw Talisman</t>
-  </si>
-  <si>
-    <t>Companion Jar</t>
-  </si>
-  <si>
-    <t>Concealing Veil</t>
-  </si>
-  <si>
-    <t>Crepus's Vial</t>
-  </si>
-  <si>
-    <t>Crimson Amber Medallion</t>
-  </si>
-  <si>
-    <t>Crimson Amber Medallion +1</t>
-  </si>
-  <si>
-    <t>Crimson Amber Medallion +2</t>
-  </si>
-  <si>
-    <t>Crimson Seed Talisman</t>
-  </si>
-  <si>
-    <t>Crucible Feather Talisman</t>
-  </si>
-  <si>
-    <t>Crucible Knot Talisman</t>
-  </si>
-  <si>
-    <t>Crucible Scale Talisman</t>
-  </si>
-  <si>
-    <t>Curved Sword Talisman</t>
-  </si>
-  <si>
-    <t>Daedicar's Woe</t>
-  </si>
-  <si>
-    <t>Dagger Talisman</t>
-  </si>
-  <si>
-    <t>Dragoncrest Greatshield Talisman</t>
-  </si>
-  <si>
-    <t>Dragoncrest Shield Talisman</t>
-  </si>
-  <si>
-    <t>Dragoncrest Shield Talisman +1</t>
-  </si>
-  <si>
-    <t>Dragoncrest Shield Talisman +2</t>
-  </si>
-  <si>
-    <t>Entwining Umbilical Cord</t>
-  </si>
-  <si>
-    <t>Erdtree's Favor</t>
-  </si>
-  <si>
-    <t>Erdtree's Favor +1</t>
-  </si>
-  <si>
-    <t>Erdtree's Favor +2</t>
-  </si>
-  <si>
-    <t>Faithful's Canvas Talisman</t>
-  </si>
-  <si>
-    <t>Fire Scorpion Charm</t>
-  </si>
-  <si>
-    <t>Flamedrake Talisman</t>
-  </si>
-  <si>
-    <t>Flamedrake Talisman +1</t>
-  </si>
-  <si>
-    <t>Flamedrake Talisman +2</t>
-  </si>
-  <si>
-    <t>Flock's Canvas Talisman</t>
-  </si>
-  <si>
-    <t>Furled Finger's Trick-Mirror</t>
-  </si>
-  <si>
-    <t>Godfrey Icon</t>
-  </si>
-  <si>
-    <t>Godskin Swaddling Cloth</t>
-  </si>
-  <si>
-    <t>Gold Scarab</t>
-  </si>
-  <si>
-    <t>Graven-Mass Talisman</t>
-  </si>
-  <si>
-    <t>Graven-School Talisman</t>
-  </si>
-  <si>
-    <t>Great-Jar's Arsenal</t>
-  </si>
-  <si>
-    <t>Greatshield Talisman</t>
-  </si>
-  <si>
-    <t>Green Turtle Talisman</t>
-  </si>
-  <si>
-    <t>Haligdrake Talisman</t>
-  </si>
-  <si>
-    <t>Haligdrake Talisman +1</t>
-  </si>
-  <si>
-    <t>Haligdrake Talisman +2</t>
-  </si>
-  <si>
-    <t>Hammer Talisman</t>
-  </si>
-  <si>
-    <t>Host's Trick-Mirror</t>
-  </si>
-  <si>
-    <t>Immunizing Horn Charm</t>
-  </si>
-  <si>
-    <t>Immunizing Horn Charm +1</t>
-  </si>
-  <si>
-    <t>Kindred of Rot's Exultation</t>
-  </si>
-  <si>
-    <t>Lance Talisman</t>
-  </si>
-  <si>
-    <t>Lightning Scorpion Charm</t>
-  </si>
-  <si>
-    <t>Longtail Cat Talisman</t>
-  </si>
-  <si>
-    <t>Lord of Blood's Exultation</t>
-  </si>
-  <si>
-    <t>Magic Scorpion Charm</t>
-  </si>
-  <si>
-    <t>Marika's Scarseal</t>
-  </si>
-  <si>
-    <t>Marika's Soreseal</t>
-  </si>
-  <si>
-    <t>Millicent's Prosthesis</t>
-  </si>
-  <si>
-    <t>Moon of Nokstella</t>
-  </si>
-  <si>
-    <t>Mottled Necklace</t>
-  </si>
-  <si>
-    <t>Mottled Necklace +1</t>
-  </si>
-  <si>
-    <t>Old Lord's Talisman</t>
-  </si>
-  <si>
-    <t>Pearldrake Talisman</t>
-  </si>
-  <si>
-    <t>Pearldrake Talisman +1</t>
-  </si>
-  <si>
-    <t>Pearldrake Talisman +2</t>
-  </si>
-  <si>
-    <t>Perfumer's Talisman</t>
-  </si>
-  <si>
-    <t>Primal Glintstone Blade</t>
-  </si>
-  <si>
-    <t>Prince of Death's Cyst</t>
-  </si>
-  <si>
-    <t>Prince of Death's Pustule</t>
-  </si>
-  <si>
-    <t>Prosthesis-Wearer Heirloom</t>
-  </si>
-  <si>
-    <t>Radagon Icon</t>
-  </si>
-  <si>
-    <t>Radagon's Scarseal</t>
-  </si>
-  <si>
-    <t>Radagon's Soreseal</t>
-  </si>
-  <si>
-    <t>Red-Feathered Branchsword</t>
-  </si>
-  <si>
-    <t>Ritual Shield Talisman</t>
-  </si>
-  <si>
-    <t>Ritual Sword Talisman</t>
-  </si>
-  <si>
-    <t>Roar Medallion</t>
-  </si>
-  <si>
-    <t>Rotten Winged Sword Insignia</t>
-  </si>
-  <si>
-    <t>Sacred Scorpion Charm</t>
-  </si>
-  <si>
-    <t>Sacrificial Twig</t>
-  </si>
-  <si>
-    <t>Shabriri's Woe</t>
-  </si>
-  <si>
-    <t>Shard of Alexander</t>
-  </si>
-  <si>
-    <t>Silver Scarab</t>
-  </si>
-  <si>
-    <t>Spear Talisman</t>
-  </si>
-  <si>
-    <t>Spelldrake Talisman</t>
-  </si>
-  <si>
-    <t>Spelldrake Talisman +1</t>
-  </si>
-  <si>
-    <t>Spelldrake Talisman +2</t>
-  </si>
-  <si>
-    <t>Stalwart Horn Charm</t>
-  </si>
-  <si>
-    <t>Stalwart Horn Charm +1</t>
-  </si>
-  <si>
-    <t>Stargazer Heirloom</t>
-  </si>
-  <si>
-    <t>Starscourge Heirloom</t>
-  </si>
-  <si>
-    <t>Taker's Cameo</t>
-  </si>
-  <si>
-    <t>Twinblade Talisman</t>
-  </si>
-  <si>
-    <t>Two Fingers Heirloom</t>
-  </si>
-  <si>
-    <t>Viridian Amber Medallion</t>
-  </si>
-  <si>
-    <t>Viridian Amber Medallion +1</t>
-  </si>
-  <si>
-    <t>Viridian Amber Medallion +2</t>
-  </si>
-  <si>
-    <t>Warrior Jar Shard</t>
-  </si>
-  <si>
-    <t>Winged Sword Insignia</t>
   </si>
 </sst>
 </file>
@@ -2150,2282 +2150,2282 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>3249.0</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1">
         <v>1.2</v>
       </c>
-      <c r="E2" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>3250.0</v>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.7</v>
       </c>
-      <c r="E3" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>3251.0</v>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.7</v>
       </c>
-      <c r="E4" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>3252.0</v>
+      <c r="A5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
         <v>1.5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
         <v>100.0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>3253.0</v>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
         <v>1.5</v>
       </c>
-      <c r="E6" s="1">
-        <v>500.0</v>
+      <c r="F6" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>3254.0</v>
+      <c r="A7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1">
         <v>1500.0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>3255.0</v>
+      <c r="A8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
         <v>1500.0</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>3256.0</v>
+      <c r="A9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.8</v>
       </c>
-      <c r="E9" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>3257.0</v>
+      <c r="A10" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.6</v>
       </c>
-      <c r="E10" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>3258.0</v>
+      <c r="A11" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.9</v>
       </c>
-      <c r="E11" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>3259.0</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1">
         <v>1.1</v>
       </c>
-      <c r="E12" s="1">
-        <v>500.0</v>
+      <c r="F12" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>3260.0</v>
+      <c r="A13" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.6</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
         <v>100.0</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
+      <c r="G13" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>3261.0</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1">
         <v>0.6</v>
       </c>
-      <c r="E14" s="1">
-        <v>500.0</v>
+      <c r="F14" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>3262.0</v>
+      <c r="A15" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1">
         <v>0.6</v>
       </c>
-      <c r="E15" s="1">
-        <v>1000.0</v>
+      <c r="F15" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>3263.0</v>
+      <c r="A16" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1">
         <v>0.5</v>
       </c>
-      <c r="E16" s="1">
-        <v>1000.0</v>
+      <c r="F16" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>3264.0</v>
+      <c r="A17" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1">
         <v>0.8</v>
       </c>
-      <c r="E17" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>48</v>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>3265.0</v>
+      <c r="A18" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="1">
         <v>100.0</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>51</v>
+      <c r="G18" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>3266.0</v>
+      <c r="A19" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1">
         <v>0.3</v>
       </c>
-      <c r="E19" s="1">
-        <v>500.0</v>
+      <c r="F19" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>3267.0</v>
+      <c r="A20" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1">
         <v>0.3</v>
       </c>
-      <c r="E20" s="1">
-        <v>1000.0</v>
+      <c r="F20" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>3268.0</v>
+      <c r="A21" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="1">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1">
         <v>0.8</v>
       </c>
-      <c r="E21" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>58</v>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>3269.0</v>
+      <c r="A22" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1">
         <v>0.6</v>
       </c>
-      <c r="E22" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>61</v>
+      <c r="E22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>3270.0</v>
+      <c r="A23" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="1">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1">
         <v>0.6</v>
       </c>
-      <c r="E23" s="1">
-        <v>1000.0</v>
+      <c r="F23" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>3271.0</v>
+      <c r="A24" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="1">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1">
         <v>0.7</v>
       </c>
-      <c r="E24" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>66</v>
+      <c r="E24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>3272.0</v>
+      <c r="A25" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1">
+        <v>91</v>
+      </c>
+      <c r="C25" s="1">
         <v>0.6</v>
       </c>
-      <c r="E25" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>69</v>
+      <c r="E25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>3273.0</v>
+      <c r="A26" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="1">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1">
         <v>0.9</v>
       </c>
-      <c r="E26" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>72</v>
+      <c r="E26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>3274.0</v>
+      <c r="A27" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="1">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1">
         <v>0.7</v>
       </c>
-      <c r="E27" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>75</v>
+      <c r="E27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>3275.0</v>
+      <c r="A28" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="1">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1">
         <v>0.3</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="1">
         <v>100.0</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>78</v>
+      <c r="G28" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>3276.0</v>
+      <c r="A29" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="1">
+        <v>107</v>
+      </c>
+      <c r="C29" s="1">
         <v>0.3</v>
       </c>
-      <c r="E29" s="1">
-        <v>500.0</v>
+      <c r="F29" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>3277.0</v>
+      <c r="A30" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="1">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1">
         <v>0.3</v>
       </c>
-      <c r="E30" s="1">
-        <v>1000.0</v>
+      <c r="F30" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>3278.0</v>
+      <c r="A31" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1">
+        <v>113</v>
+      </c>
+      <c r="C31" s="1">
         <v>0.8</v>
       </c>
-      <c r="E31" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>85</v>
+      <c r="E31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
-        <v>3279.0</v>
+      <c r="A32" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="1">
+        <v>117</v>
+      </c>
+      <c r="C32" s="1">
         <v>0.8</v>
       </c>
-      <c r="E32" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>88</v>
+      <c r="E32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
-        <v>3280.0</v>
+      <c r="A33" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="1">
+        <v>121</v>
+      </c>
+      <c r="C33" s="1">
         <v>0.5</v>
       </c>
-      <c r="E33" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>91</v>
+      <c r="E33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
-        <v>3281.0</v>
+      <c r="A34" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="1">
+        <v>125</v>
+      </c>
+      <c r="C34" s="1">
         <v>1.1</v>
       </c>
-      <c r="E34" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>94</v>
+      <c r="E34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
-        <v>3282.0</v>
+      <c r="A35" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="1">
+        <v>129</v>
+      </c>
+      <c r="C35" s="1">
         <v>0.7</v>
       </c>
-      <c r="E35" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>97</v>
+      <c r="E35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
-        <v>3283.0</v>
+      <c r="A36" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="1">
+        <v>133</v>
+      </c>
+      <c r="C36" s="1">
         <v>0.8</v>
       </c>
-      <c r="E36" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>100</v>
+      <c r="E36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
-        <v>3284.0</v>
+      <c r="A37" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="1">
+        <v>137</v>
+      </c>
+      <c r="C37" s="1">
         <v>1.1</v>
       </c>
-      <c r="E37" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>103</v>
+      <c r="E37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
-        <v>3285.0</v>
+      <c r="A38" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="1">
+        <v>141</v>
+      </c>
+      <c r="C38" s="1">
         <v>0.8</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="1">
         <v>2000.0</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>106</v>
+      <c r="G38" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
-        <v>3286.0</v>
+      <c r="A39" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="1">
+        <v>145</v>
+      </c>
+      <c r="C39" s="1">
         <v>0.8</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="1">
         <v>100.0</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>109</v>
+      <c r="G39" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
-        <v>3287.0</v>
+      <c r="A40" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="1">
+        <v>149</v>
+      </c>
+      <c r="C40" s="1">
         <v>0.8</v>
       </c>
-      <c r="E40" s="1">
-        <v>500.0</v>
+      <c r="F40" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
-        <v>3288.0</v>
+      <c r="A41" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="1">
+        <v>152</v>
+      </c>
+      <c r="C41" s="1">
         <v>0.8</v>
       </c>
-      <c r="E41" s="1">
-        <v>1000.0</v>
+      <c r="F41" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
-        <v>3289.0</v>
+      <c r="A42" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="1">
+        <v>155</v>
+      </c>
+      <c r="C42" s="1">
         <v>0.5</v>
       </c>
-      <c r="E42" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>116</v>
+      <c r="E42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
-        <v>3290.0</v>
+      <c r="A43" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="1">
+        <v>159</v>
+      </c>
+      <c r="C43" s="1">
         <v>1.5</v>
       </c>
-      <c r="E43" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>119</v>
+      <c r="E43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
-        <v>3291.0</v>
+      <c r="A44" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="1">
+        <v>159</v>
+      </c>
+      <c r="C44" s="1">
         <v>1.5</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>1500.0</v>
       </c>
+      <c r="G44" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>3292.0</v>
+      <c r="A45" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="1">
+        <v>159</v>
+      </c>
+      <c r="C45" s="1">
         <v>1.5</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>3000.0</v>
       </c>
+      <c r="G45" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
-        <v>3293.0</v>
+      <c r="A46" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="1">
+        <v>167</v>
+      </c>
+      <c r="C46" s="1">
         <v>0.7</v>
       </c>
-      <c r="E46" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>124</v>
+      <c r="E46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
-        <v>3294.0</v>
+      <c r="A47" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="1">
+        <v>171</v>
+      </c>
+      <c r="C47" s="1">
         <v>0.8</v>
       </c>
-      <c r="E47" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>127</v>
+      <c r="E47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>3295.0</v>
+      <c r="A48" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="1">
+        <v>175</v>
+      </c>
+      <c r="C48" s="1">
         <v>0.6</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="1">
         <v>100.0</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>130</v>
+      <c r="G48" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <v>3296.0</v>
+      <c r="A49" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="1">
+        <v>179</v>
+      </c>
+      <c r="C49" s="1">
         <v>0.6</v>
       </c>
-      <c r="E49" s="1">
-        <v>500.0</v>
+      <c r="F49" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
-        <v>3297.0</v>
+      <c r="A50" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="1">
+        <v>182</v>
+      </c>
+      <c r="C50" s="1">
         <v>0.6</v>
       </c>
-      <c r="E50" s="1">
-        <v>1000.0</v>
+      <c r="F50" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
-        <v>3298.0</v>
+      <c r="A51" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" s="1">
+        <v>185</v>
+      </c>
+      <c r="C51" s="1">
         <v>1.0</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="1">
         <v>2000.0</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>137</v>
+      <c r="G51" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
-        <v>3299.0</v>
+      <c r="A52" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="1">
+        <v>189</v>
+      </c>
+      <c r="C52" s="1">
         <v>0.7</v>
       </c>
-      <c r="E52" s="1">
-        <v>1000.0</v>
+      <c r="F52" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
-        <v>3300.0</v>
+      <c r="A53" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="1">
+        <v>192</v>
+      </c>
+      <c r="C53" s="1">
         <v>0.8</v>
       </c>
-      <c r="E53" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>142</v>
+      <c r="E53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
-        <v>3301.0</v>
+      <c r="A54" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="1">
+        <v>196</v>
+      </c>
+      <c r="C54" s="1">
         <v>0.9</v>
       </c>
-      <c r="E54" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>145</v>
+      <c r="E54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
-        <v>3302.0</v>
+      <c r="A55" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" s="1">
+        <v>200</v>
+      </c>
+      <c r="C55" s="1">
         <v>1.2</v>
       </c>
-      <c r="E55" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>148</v>
+      <c r="E55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
-        <v>3303.0</v>
+      <c r="A56" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="1">
+        <v>204</v>
+      </c>
+      <c r="C56" s="1">
         <v>1.0</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>2000.0</v>
       </c>
+      <c r="G56" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
-        <v>3304.0</v>
+      <c r="A57" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="1">
+        <v>207</v>
+      </c>
+      <c r="C57" s="1">
         <v>0.7</v>
       </c>
-      <c r="E57" s="1">
-        <v>1000.0</v>
+      <c r="F57" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
-        <v>3305.0</v>
+      <c r="A58" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="1">
+        <v>210</v>
+      </c>
+      <c r="C58" s="1">
         <v>1.5</v>
       </c>
-      <c r="E58" s="1">
-        <v>1000.0</v>
+      <c r="F58" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
-        <v>3306.0</v>
+      <c r="A59" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="1">
+        <v>213</v>
+      </c>
+      <c r="C59" s="1">
         <v>0.9</v>
       </c>
-      <c r="E59" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>157</v>
+      <c r="E59" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
-        <v>3307.0</v>
+      <c r="A60" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="1">
+        <v>217</v>
+      </c>
+      <c r="C60" s="1">
         <v>0.7</v>
       </c>
-      <c r="E60" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>160</v>
+      <c r="E60" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F60" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
-        <v>3308.0</v>
+      <c r="A61" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="1">
+        <v>221</v>
+      </c>
+      <c r="C61" s="1">
         <v>0.6</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" s="1">
         <v>100.0</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>163</v>
+      <c r="G61" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
-        <v>3309.0</v>
+      <c r="A62" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" s="1">
+        <v>225</v>
+      </c>
+      <c r="C62" s="1">
         <v>0.6</v>
       </c>
-      <c r="E62" s="1">
-        <v>500.0</v>
+      <c r="F62" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
-        <v>3310.0</v>
+      <c r="A63" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="1">
+        <v>228</v>
+      </c>
+      <c r="C63" s="1">
         <v>0.6</v>
       </c>
-      <c r="E63" s="1">
-        <v>1000.0</v>
+      <c r="F63" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
-        <v>3311.0</v>
+      <c r="A64" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" s="1">
+        <v>231</v>
+      </c>
+      <c r="C64" s="1">
         <v>0.9</v>
       </c>
-      <c r="E64" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>170</v>
+      <c r="E64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
-        <v>3312.0</v>
+      <c r="A65" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="1">
+        <v>235</v>
+      </c>
+      <c r="C65" s="1">
         <v>0.7</v>
       </c>
-      <c r="E65" s="1">
-        <v>1000.0</v>
+      <c r="F65" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
-        <v>3313.0</v>
+      <c r="A66" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" s="1">
+        <v>238</v>
+      </c>
+      <c r="C66" s="1">
         <v>0.6</v>
       </c>
-      <c r="E66" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>175</v>
+      <c r="E66" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F66" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
-        <v>3314.0</v>
+      <c r="A67" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D67" s="1">
+        <v>242</v>
+      </c>
+      <c r="C67" s="1">
         <v>0.6</v>
       </c>
-      <c r="E67" s="1">
-        <v>1000.0</v>
+      <c r="F67" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
-        <v>3315.0</v>
+      <c r="A68" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D68" s="1">
+        <v>245</v>
+      </c>
+      <c r="C68" s="1">
         <v>0.9</v>
       </c>
-      <c r="E68" s="1">
-        <v>500.0</v>
+      <c r="F68" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
-        <v>3316.0</v>
+      <c r="A69" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D69" s="1">
+        <v>248</v>
+      </c>
+      <c r="C69" s="1">
         <v>0.7</v>
       </c>
-      <c r="E69" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>182</v>
+      <c r="E69" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F69" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
-        <v>3317.0</v>
+      <c r="A70" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70" s="1">
+        <v>252</v>
+      </c>
+      <c r="C70" s="1">
         <v>0.8</v>
       </c>
-      <c r="E70" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>185</v>
+      <c r="E70" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F70" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
-        <v>3318.0</v>
+      <c r="A71" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D71" s="1">
+        <v>256</v>
+      </c>
+      <c r="C71" s="1">
         <v>0.6</v>
       </c>
-      <c r="E71" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>188</v>
+      <c r="E71" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F71" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1">
-        <v>3319.0</v>
+      <c r="A72" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D72" s="1">
+        <v>260</v>
+      </c>
+      <c r="C72" s="1">
         <v>0.9</v>
       </c>
-      <c r="E72" s="1">
-        <v>500.0</v>
+      <c r="F72" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1">
-        <v>3320.0</v>
+      <c r="A73" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D73" s="1">
+        <v>263</v>
+      </c>
+      <c r="C73" s="1">
         <v>0.8</v>
       </c>
-      <c r="E73" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>193</v>
+      <c r="E73" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F73" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1">
-        <v>3321.0</v>
+      <c r="A74" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D74" s="1">
+        <v>267</v>
+      </c>
+      <c r="C74" s="1">
         <v>0.8</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F74" s="1">
         <v>3000.0</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>196</v>
+      <c r="G74" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1">
-        <v>3322.0</v>
+      <c r="A75" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D75" s="1">
+        <v>271</v>
+      </c>
+      <c r="C75" s="1">
         <v>0.8</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F75" s="1">
         <v>3000.0</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>199</v>
+      <c r="G75" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1">
-        <v>3323.0</v>
+      <c r="A76" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D76" s="1">
+        <v>275</v>
+      </c>
+      <c r="C76" s="1">
         <v>1.6</v>
       </c>
-      <c r="E76" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>202</v>
+      <c r="E76" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1">
-        <v>3324.0</v>
+      <c r="A77" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D77" s="1">
+        <v>279</v>
+      </c>
+      <c r="C77" s="1">
         <v>0.8</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>2000.0</v>
       </c>
+      <c r="G77" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1">
-        <v>3325.0</v>
+      <c r="A78" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="1">
+        <v>282</v>
+      </c>
+      <c r="C78" s="1">
         <v>0.9</v>
       </c>
-      <c r="E78" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>207</v>
+      <c r="E78" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1">
-        <v>3326.0</v>
+      <c r="A79" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D79" s="1">
+        <v>286</v>
+      </c>
+      <c r="C79" s="1">
         <v>0.9</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>2000.0</v>
       </c>
+      <c r="G79" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1">
-        <v>3327.0</v>
+      <c r="A80" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D80" s="1">
+        <v>289</v>
+      </c>
+      <c r="C80" s="1">
         <v>0.5</v>
       </c>
-      <c r="E80" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>212</v>
+      <c r="E80" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1">
-        <v>3328.0</v>
+      <c r="A81" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D81" s="1">
+        <v>293</v>
+      </c>
+      <c r="C81" s="1">
         <v>0.9</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F81" s="1">
         <v>100.0</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>215</v>
+      <c r="G81" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1">
-        <v>3329.0</v>
+      <c r="A82" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D82" s="1">
+        <v>297</v>
+      </c>
+      <c r="C82" s="1">
         <v>0.9</v>
       </c>
-      <c r="E82" s="1">
-        <v>500.0</v>
+      <c r="F82" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1">
-        <v>3330.0</v>
+      <c r="A83" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83" s="1">
+        <v>300</v>
+      </c>
+      <c r="C83" s="1">
         <v>0.9</v>
       </c>
-      <c r="E83" s="1">
-        <v>1000.0</v>
+      <c r="F83" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1">
-        <v>3331.0</v>
+      <c r="A84" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D84" s="1">
+        <v>303</v>
+      </c>
+      <c r="C84" s="1">
         <v>0.6</v>
       </c>
-      <c r="E84" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>222</v>
+      <c r="E84" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F84" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1">
-        <v>3332.0</v>
+      <c r="A85" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D85" s="1">
+        <v>307</v>
+      </c>
+      <c r="C85" s="1">
         <v>0.6</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F85" s="1">
         <v>2000.0</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>225</v>
+      <c r="G85" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1">
-        <v>3333.0</v>
+      <c r="A86" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D86" s="1">
+        <v>311</v>
+      </c>
+      <c r="C86" s="1">
         <v>0.6</v>
       </c>
-      <c r="E86" s="1">
-        <v>1000.0</v>
+      <c r="F86" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1">
-        <v>3334.0</v>
+      <c r="A87" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D87" s="1">
+        <v>314</v>
+      </c>
+      <c r="C87" s="1">
         <v>0.6</v>
       </c>
-      <c r="E87" s="1">
-        <v>500.0</v>
+      <c r="F87" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1">
-        <v>3335.0</v>
+      <c r="A88" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D88" s="1">
+        <v>317</v>
+      </c>
+      <c r="C88" s="1">
         <v>0.8</v>
       </c>
-      <c r="E88" s="1">
-        <v>1000.0</v>
+      <c r="F88" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1">
-        <v>3336.0</v>
+      <c r="A89" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D89" s="1">
+        <v>320</v>
+      </c>
+      <c r="C89" s="1">
         <v>0.7</v>
       </c>
-      <c r="E89" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>234</v>
+      <c r="E89" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1">
-        <v>3337.0</v>
+      <c r="A90" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D90" s="1">
+        <v>267</v>
+      </c>
+      <c r="C90" s="1">
         <v>0.8</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F90" s="1">
         <v>3000.0</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>236</v>
+      <c r="G90" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1">
-        <v>3338.0</v>
+      <c r="A91" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D91" s="1">
+        <v>271</v>
+      </c>
+      <c r="C91" s="1">
         <v>0.8</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F91" s="1">
         <v>3000.0</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>238</v>
+      <c r="G91" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1">
-        <v>3339.0</v>
+      <c r="A92" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D92" s="1">
+        <v>330</v>
+      </c>
+      <c r="C92" s="1">
         <v>1.4</v>
       </c>
-      <c r="E92" s="1">
-        <v>500.0</v>
+      <c r="F92" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1">
-        <v>3340.0</v>
+      <c r="A93" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D93" s="1">
+        <v>333</v>
+      </c>
+      <c r="C93" s="1">
         <v>0.9</v>
       </c>
-      <c r="E93" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>243</v>
+      <c r="E93" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F93" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1">
-        <v>3341.0</v>
+      <c r="A94" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D94" s="1">
+        <v>337</v>
+      </c>
+      <c r="C94" s="1">
         <v>0.9</v>
       </c>
-      <c r="E94" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>246</v>
+      <c r="E94" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F94" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1">
-        <v>3342.0</v>
+      <c r="A95" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D95" s="1">
+        <v>341</v>
+      </c>
+      <c r="C95" s="1">
         <v>0.7</v>
       </c>
-      <c r="E95" s="1">
-        <v>500.0</v>
+      <c r="F95" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1">
-        <v>3343.0</v>
+      <c r="A96" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D96" s="1">
+        <v>344</v>
+      </c>
+      <c r="C96" s="1">
         <v>1.4</v>
       </c>
-      <c r="E96" s="1">
-        <v>500.0</v>
+      <c r="F96" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1">
-        <v>3344.0</v>
+      <c r="A97" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D97" s="1">
+        <v>347</v>
+      </c>
+      <c r="C97" s="1">
         <v>0.8</v>
       </c>
-      <c r="E97" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>253</v>
+      <c r="E97" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F97" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1">
-        <v>3345.0</v>
+      <c r="A98" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D98" s="1">
+        <v>351</v>
+      </c>
+      <c r="C98" s="1">
         <v>1.0</v>
       </c>
-      <c r="E98" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>256</v>
+      <c r="E98" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1">
-        <v>3346.0</v>
+      <c r="A99" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D99" s="1">
+        <v>355</v>
+      </c>
+      <c r="C99" s="1">
         <v>0.6</v>
       </c>
-      <c r="E99" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>259</v>
+      <c r="E99" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F99" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1">
-        <v>3347.0</v>
+      <c r="A100" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D100" s="1">
+        <v>359</v>
+      </c>
+      <c r="C100" s="1">
         <v>0.9</v>
       </c>
-      <c r="E100" s="1">
-        <v>1000.0</v>
+      <c r="F100" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1">
-        <v>3348.0</v>
+      <c r="A101" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D101" s="1">
+        <v>362</v>
+      </c>
+      <c r="C101" s="1">
         <v>1.2</v>
       </c>
-      <c r="E101" s="1">
-        <v>500.0</v>
+      <c r="F101" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1">
-        <v>3349.0</v>
+      <c r="A102" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D102" s="1">
+        <v>365</v>
+      </c>
+      <c r="C102" s="1">
         <v>0.5</v>
       </c>
-      <c r="E102" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>266</v>
+      <c r="E102" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F102" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1">
-        <v>3350.0</v>
+      <c r="A103" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D103" s="1">
+        <v>369</v>
+      </c>
+      <c r="C103" s="1">
         <v>0.6</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F103" s="1">
         <v>100.0</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>269</v>
+      <c r="G103" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1">
-        <v>3351.0</v>
+      <c r="A104" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D104" s="1">
+        <v>373</v>
+      </c>
+      <c r="C104" s="1">
         <v>0.6</v>
       </c>
-      <c r="E104" s="1">
-        <v>500.0</v>
+      <c r="F104" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1">
-        <v>3352.0</v>
+      <c r="A105" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D105" s="1">
+        <v>376</v>
+      </c>
+      <c r="C105" s="1">
         <v>0.6</v>
       </c>
-      <c r="E105" s="1">
-        <v>1000.0</v>
+      <c r="F105" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1">
-        <v>3353.0</v>
+      <c r="A106" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D106" s="1">
+        <v>379</v>
+      </c>
+      <c r="C106" s="1">
         <v>0.6</v>
       </c>
-      <c r="E106" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>276</v>
+      <c r="E106" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F106" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1">
-        <v>3354.0</v>
+      <c r="A107" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D107" s="1">
+        <v>383</v>
+      </c>
+      <c r="C107" s="1">
         <v>0.6</v>
       </c>
-      <c r="E107" s="1">
-        <v>1000.0</v>
+      <c r="F107" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1">
-        <v>3355.0</v>
+      <c r="A108" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D108" s="1">
+        <v>386</v>
+      </c>
+      <c r="C108" s="1">
         <v>0.6</v>
       </c>
-      <c r="E108" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>281</v>
+      <c r="E108" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1">
-        <v>3356.0</v>
+      <c r="A109" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D109" s="1">
+        <v>390</v>
+      </c>
+      <c r="C109" s="1">
         <v>0.8</v>
       </c>
-      <c r="E109" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>284</v>
+      <c r="E109" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1">
-        <v>3357.0</v>
+      <c r="A110" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D110" s="1">
+        <v>394</v>
+      </c>
+      <c r="C110" s="1">
         <v>1.0</v>
       </c>
-      <c r="E110" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>287</v>
+      <c r="E110" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1">
-        <v>3358.0</v>
+      <c r="A111" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D111" s="1">
+        <v>398</v>
+      </c>
+      <c r="C111" s="1">
         <v>0.7</v>
       </c>
-      <c r="E111" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>290</v>
+      <c r="E111" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F111" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1">
-        <v>3359.0</v>
+      <c r="A112" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D112" s="1">
+        <v>402</v>
+      </c>
+      <c r="C112" s="1">
         <v>0.6</v>
       </c>
-      <c r="E112" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>293</v>
+      <c r="E112" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1">
-        <v>3360.0</v>
+      <c r="A113" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D113" s="1">
+        <v>406</v>
+      </c>
+      <c r="C113" s="1">
         <v>0.3</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F113" s="1">
         <v>100.0</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>296</v>
+      <c r="G113" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1">
-        <v>3361.0</v>
+      <c r="A114" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D114" s="1">
+        <v>410</v>
+      </c>
+      <c r="C114" s="1">
         <v>0.3</v>
       </c>
-      <c r="E114" s="1">
-        <v>500.0</v>
+      <c r="F114" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1">
-        <v>3362.0</v>
+      <c r="A115" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D115" s="1">
+        <v>413</v>
+      </c>
+      <c r="C115" s="1">
         <v>0.3</v>
       </c>
-      <c r="E115" s="1">
-        <v>1000.0</v>
+      <c r="F115" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1">
-        <v>3363.0</v>
+      <c r="A116" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D116" s="1">
+        <v>416</v>
+      </c>
+      <c r="C116" s="1">
         <v>0.9</v>
       </c>
-      <c r="E116" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>303</v>
+      <c r="E116" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F116" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1">
-        <v>3364.0</v>
+      <c r="A117" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D117" s="1">
+        <v>420</v>
+      </c>
+      <c r="C117" s="1">
         <v>1.4</v>
       </c>
-      <c r="E117" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>306</v>
+      <c r="E117" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F117" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
-    <hyperlink r:id="rId4" ref="F5"/>
-    <hyperlink r:id="rId5" ref="F7"/>
-    <hyperlink r:id="rId6" ref="F8"/>
-    <hyperlink r:id="rId7" ref="F9"/>
-    <hyperlink r:id="rId8" ref="F10"/>
-    <hyperlink r:id="rId9" ref="F11"/>
-    <hyperlink r:id="rId10" ref="F13"/>
-    <hyperlink r:id="rId11" ref="F17"/>
-    <hyperlink r:id="rId12" ref="F18"/>
-    <hyperlink r:id="rId13" ref="F21"/>
-    <hyperlink r:id="rId14" ref="F22"/>
-    <hyperlink r:id="rId15" ref="F24"/>
-    <hyperlink r:id="rId16" ref="F25"/>
-    <hyperlink r:id="rId17" ref="F26"/>
-    <hyperlink r:id="rId18" ref="F27"/>
-    <hyperlink r:id="rId19" ref="F28"/>
-    <hyperlink r:id="rId20" ref="F31"/>
-    <hyperlink r:id="rId21" ref="F32"/>
-    <hyperlink r:id="rId22" ref="F33"/>
-    <hyperlink r:id="rId23" ref="F34"/>
-    <hyperlink r:id="rId24" ref="F35"/>
-    <hyperlink r:id="rId25" ref="F36"/>
-    <hyperlink r:id="rId26" ref="F37"/>
-    <hyperlink r:id="rId27" ref="F38"/>
-    <hyperlink r:id="rId28" ref="F39"/>
-    <hyperlink r:id="rId29" ref="F42"/>
-    <hyperlink r:id="rId30" ref="F43"/>
-    <hyperlink r:id="rId31" ref="F46"/>
-    <hyperlink r:id="rId32" ref="F47"/>
-    <hyperlink r:id="rId33" ref="F48"/>
-    <hyperlink r:id="rId34" ref="F51"/>
-    <hyperlink r:id="rId35" ref="F53"/>
-    <hyperlink r:id="rId36" ref="F54"/>
-    <hyperlink r:id="rId37" ref="F55"/>
-    <hyperlink r:id="rId38" ref="F59"/>
-    <hyperlink r:id="rId39" ref="F60"/>
-    <hyperlink r:id="rId40" ref="F61"/>
-    <hyperlink r:id="rId41" ref="F64"/>
-    <hyperlink r:id="rId42" ref="F66"/>
-    <hyperlink r:id="rId43" ref="F69"/>
-    <hyperlink r:id="rId44" ref="F70"/>
-    <hyperlink r:id="rId45" ref="F71"/>
-    <hyperlink r:id="rId46" ref="F73"/>
-    <hyperlink r:id="rId47" ref="F74"/>
-    <hyperlink r:id="rId48" ref="F75"/>
-    <hyperlink r:id="rId49" ref="F76"/>
-    <hyperlink r:id="rId50" ref="F78"/>
-    <hyperlink r:id="rId51" ref="F80"/>
-    <hyperlink r:id="rId52" ref="F81"/>
-    <hyperlink r:id="rId53" ref="F84"/>
-    <hyperlink r:id="rId54" ref="F85"/>
-    <hyperlink r:id="rId55" ref="F89"/>
-    <hyperlink r:id="rId56" ref="F90"/>
-    <hyperlink r:id="rId57" ref="F91"/>
-    <hyperlink r:id="rId58" ref="F93"/>
-    <hyperlink r:id="rId59" ref="F94"/>
-    <hyperlink r:id="rId60" ref="F97"/>
-    <hyperlink r:id="rId61" ref="F98"/>
-    <hyperlink r:id="rId62" ref="F99"/>
-    <hyperlink r:id="rId63" ref="F102"/>
-    <hyperlink r:id="rId64" ref="F103"/>
-    <hyperlink r:id="rId65" ref="F106"/>
-    <hyperlink r:id="rId66" ref="F108"/>
-    <hyperlink r:id="rId67" ref="F109"/>
-    <hyperlink r:id="rId68" ref="F110"/>
-    <hyperlink r:id="rId69" ref="F111"/>
-    <hyperlink r:id="rId70" ref="F112"/>
-    <hyperlink r:id="rId71" ref="F113"/>
-    <hyperlink r:id="rId72" ref="F116"/>
-    <hyperlink r:id="rId73" ref="F117"/>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId2" ref="E3"/>
+    <hyperlink r:id="rId3" ref="E4"/>
+    <hyperlink r:id="rId4" ref="E5"/>
+    <hyperlink r:id="rId5" ref="E7"/>
+    <hyperlink r:id="rId6" ref="E8"/>
+    <hyperlink r:id="rId7" ref="E9"/>
+    <hyperlink r:id="rId8" ref="E10"/>
+    <hyperlink r:id="rId9" ref="E11"/>
+    <hyperlink r:id="rId10" ref="E13"/>
+    <hyperlink r:id="rId11" ref="E17"/>
+    <hyperlink r:id="rId12" ref="E18"/>
+    <hyperlink r:id="rId13" ref="E21"/>
+    <hyperlink r:id="rId14" ref="E22"/>
+    <hyperlink r:id="rId15" ref="E24"/>
+    <hyperlink r:id="rId16" ref="E25"/>
+    <hyperlink r:id="rId17" ref="E26"/>
+    <hyperlink r:id="rId18" ref="E27"/>
+    <hyperlink r:id="rId19" ref="E28"/>
+    <hyperlink r:id="rId20" ref="E31"/>
+    <hyperlink r:id="rId21" ref="E32"/>
+    <hyperlink r:id="rId22" ref="E33"/>
+    <hyperlink r:id="rId23" ref="E34"/>
+    <hyperlink r:id="rId24" ref="E35"/>
+    <hyperlink r:id="rId25" ref="E36"/>
+    <hyperlink r:id="rId26" ref="E37"/>
+    <hyperlink r:id="rId27" ref="E38"/>
+    <hyperlink r:id="rId28" ref="E39"/>
+    <hyperlink r:id="rId29" ref="E42"/>
+    <hyperlink r:id="rId30" ref="E43"/>
+    <hyperlink r:id="rId31" ref="E46"/>
+    <hyperlink r:id="rId32" ref="E47"/>
+    <hyperlink r:id="rId33" ref="E48"/>
+    <hyperlink r:id="rId34" ref="E51"/>
+    <hyperlink r:id="rId35" ref="E53"/>
+    <hyperlink r:id="rId36" ref="E54"/>
+    <hyperlink r:id="rId37" ref="E55"/>
+    <hyperlink r:id="rId38" ref="E59"/>
+    <hyperlink r:id="rId39" ref="E60"/>
+    <hyperlink r:id="rId40" ref="E61"/>
+    <hyperlink r:id="rId41" ref="E64"/>
+    <hyperlink r:id="rId42" ref="E66"/>
+    <hyperlink r:id="rId43" ref="E69"/>
+    <hyperlink r:id="rId44" ref="E70"/>
+    <hyperlink r:id="rId45" ref="E71"/>
+    <hyperlink r:id="rId46" ref="E73"/>
+    <hyperlink r:id="rId47" ref="E74"/>
+    <hyperlink r:id="rId48" ref="E75"/>
+    <hyperlink r:id="rId49" ref="E76"/>
+    <hyperlink r:id="rId50" ref="E78"/>
+    <hyperlink r:id="rId51" ref="E80"/>
+    <hyperlink r:id="rId52" ref="E81"/>
+    <hyperlink r:id="rId53" ref="E84"/>
+    <hyperlink r:id="rId54" ref="E85"/>
+    <hyperlink r:id="rId55" ref="E89"/>
+    <hyperlink r:id="rId56" ref="E90"/>
+    <hyperlink r:id="rId57" ref="E91"/>
+    <hyperlink r:id="rId58" ref="E93"/>
+    <hyperlink r:id="rId59" ref="E94"/>
+    <hyperlink r:id="rId60" ref="E97"/>
+    <hyperlink r:id="rId61" ref="E98"/>
+    <hyperlink r:id="rId62" ref="E99"/>
+    <hyperlink r:id="rId63" ref="E102"/>
+    <hyperlink r:id="rId64" ref="E103"/>
+    <hyperlink r:id="rId65" ref="E106"/>
+    <hyperlink r:id="rId66" ref="E108"/>
+    <hyperlink r:id="rId67" ref="E109"/>
+    <hyperlink r:id="rId68" ref="E110"/>
+    <hyperlink r:id="rId69" ref="E111"/>
+    <hyperlink r:id="rId70" ref="E112"/>
+    <hyperlink r:id="rId71" ref="E113"/>
+    <hyperlink r:id="rId72" ref="E116"/>
+    <hyperlink r:id="rId73" ref="E117"/>
   </hyperlinks>
   <drawing r:id="rId74"/>
 </worksheet>
@@ -4459,27 +4459,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="9">
         <v>1.2</v>
@@ -4491,75 +4491,75 @@
         <v>500.0</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>309</v>
+        <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="14">
         <v>0.7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="14">
         <v>500.0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9">
         <v>0.7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9">
         <v>500.0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>311</v>
+        <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="14">
         <v>1.5</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="14">
         <v>100.0</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9">
         <v>1.5</v>
@@ -4569,115 +4569,115 @@
         <v>500.0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" s="14">
         <v>0.8</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F7" s="14">
         <v>1500.0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9">
         <v>0.8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F8" s="9">
         <v>1500.0</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" s="14">
         <v>0.8</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9" s="14">
         <v>500.0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C10" s="9">
         <v>0.6</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F10" s="9">
         <v>1000.0</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14">
         <v>0.9</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F11" s="14">
         <v>500.0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9">
         <v>1.1</v>
@@ -4687,35 +4687,35 @@
         <v>500.0</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C13" s="14">
         <v>0.6</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F13" s="14">
         <v>100.0</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>320</v>
+        <v>52</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C14" s="9">
         <v>0.6</v>
@@ -4725,15 +4725,15 @@
         <v>500.0</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>321</v>
+        <v>55</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C15" s="14">
         <v>0.6</v>
@@ -4743,15 +4743,15 @@
         <v>1000.0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>322</v>
+        <v>58</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C16" s="9">
         <v>0.5</v>
@@ -4761,55 +4761,55 @@
         <v>1000.0</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>323</v>
+        <v>61</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C17" s="14">
         <v>0.8</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F17" s="14">
         <v>1000.0</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>324</v>
+        <v>65</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C18" s="9">
         <v>0.3</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F18" s="9">
         <v>100.0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C19" s="14">
         <v>0.3</v>
@@ -4819,15 +4819,15 @@
         <v>500.0</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C20" s="9">
         <v>0.3</v>
@@ -4837,55 +4837,55 @@
         <v>1000.0</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>327</v>
+        <v>75</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C21" s="14">
         <v>0.8</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F21" s="14">
         <v>1000.0</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C22" s="9">
         <v>0.6</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F22" s="9">
         <v>500.0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C23" s="14">
         <v>0.6</v>
@@ -4895,115 +4895,115 @@
         <v>1000.0</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>330</v>
+        <v>86</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C24" s="9">
         <v>0.7</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F24" s="9">
         <v>500.0</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>331</v>
+        <v>90</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C25" s="14">
         <v>0.6</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F25" s="14">
         <v>500.0</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C26" s="9">
         <v>0.9</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F26" s="9">
         <v>500.0</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>333</v>
+        <v>98</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C27" s="14">
         <v>0.7</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F27" s="14">
         <v>500.0</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C28" s="9">
         <v>0.3</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F28" s="9">
         <v>100.0</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C29" s="14">
         <v>0.3</v>
@@ -5013,15 +5013,15 @@
         <v>500.0</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>336</v>
+        <v>109</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C30" s="9">
         <v>0.3</v>
@@ -5031,195 +5031,195 @@
         <v>1000.0</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>337</v>
+        <v>112</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C31" s="14">
         <v>0.8</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F31" s="14">
         <v>1000.0</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>338</v>
+        <v>116</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C32" s="9">
         <v>0.8</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F32" s="9">
         <v>1000.0</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>339</v>
+        <v>120</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C33" s="14">
         <v>0.5</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="F33" s="14">
         <v>500.0</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>340</v>
+        <v>124</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C34" s="9">
         <v>1.1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="F34" s="9">
         <v>500.0</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C35" s="14">
         <v>0.7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="F35" s="14">
         <v>500.0</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C36" s="9">
         <v>0.8</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="F36" s="9">
         <v>500.0</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>343</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C37" s="14">
         <v>1.1</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="F37" s="14">
         <v>500.0</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>344</v>
+        <v>140</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C38" s="9">
         <v>0.8</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="F38" s="9">
         <v>2000.0</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C39" s="14">
         <v>0.8</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="F39" s="14">
         <v>100.0</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>346</v>
+        <v>148</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C40" s="9">
         <v>0.8</v>
@@ -5229,15 +5229,15 @@
         <v>500.0</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>347</v>
+        <v>151</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C41" s="14">
         <v>0.8</v>
@@ -5247,55 +5247,55 @@
         <v>1000.0</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>348</v>
+        <v>154</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C42" s="9">
         <v>0.5</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="F42" s="9">
         <v>1000.0</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>349</v>
+        <v>158</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="C43" s="14">
         <v>1.5</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="F43" s="14">
         <v>500.0</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>350</v>
+        <v>162</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="C44" s="9">
         <v>1.5</v>
@@ -5305,15 +5305,15 @@
         <v>1500.0</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>351</v>
+        <v>164</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="C45" s="14">
         <v>1.5</v>
@@ -5323,75 +5323,75 @@
         <v>3000.0</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>352</v>
+        <v>166</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="C46" s="9">
         <v>0.7</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="F46" s="9">
         <v>1000.0</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>353</v>
+        <v>170</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C47" s="14">
         <v>0.8</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="F47" s="14">
         <v>500.0</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>354</v>
+        <v>174</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="C48" s="9">
         <v>0.6</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="F48" s="9">
         <v>100.0</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="C49" s="14">
         <v>0.6</v>
@@ -5401,15 +5401,15 @@
         <v>500.0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>356</v>
+        <v>181</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="C50" s="9">
         <v>0.6</v>
@@ -5419,35 +5419,35 @@
         <v>1000.0</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>357</v>
+        <v>184</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="C51" s="14">
         <v>1.0</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="F51" s="14">
         <v>2000.0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="C52" s="9">
         <v>0.7</v>
@@ -5457,75 +5457,75 @@
         <v>1000.0</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>359</v>
+        <v>191</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C53" s="14">
         <v>0.8</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="F53" s="14">
         <v>1000.0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>360</v>
+        <v>195</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="C54" s="9">
         <v>0.9</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="F54" s="9">
         <v>1000.0</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="C55" s="14">
         <v>1.2</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="F55" s="14">
         <v>500.0</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>362</v>
+        <v>203</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="C56" s="9">
         <v>1.0</v>
@@ -5535,15 +5535,15 @@
         <v>2000.0</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>363</v>
+        <v>206</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="C57" s="14">
         <v>0.7</v>
@@ -5553,15 +5553,15 @@
         <v>1000.0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="C58" s="9">
         <v>1.5</v>
@@ -5571,75 +5571,75 @@
         <v>1000.0</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>365</v>
+        <v>212</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="C59" s="14">
         <v>0.9</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="F59" s="14">
         <v>500.0</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>366</v>
+        <v>216</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="C60" s="9">
         <v>0.7</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F60" s="9">
         <v>500.0</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>367</v>
+        <v>220</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C61" s="14">
         <v>0.6</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="F61" s="14">
         <v>100.0</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>368</v>
+        <v>224</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="C62" s="9">
         <v>0.6</v>
@@ -5649,15 +5649,15 @@
         <v>500.0</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>369</v>
+        <v>227</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="C63" s="14">
         <v>0.6</v>
@@ -5667,35 +5667,35 @@
         <v>1000.0</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>370</v>
+        <v>230</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="C64" s="9">
         <v>0.9</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="F64" s="9">
         <v>500.0</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>371</v>
+        <v>234</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="C65" s="14">
         <v>0.7</v>
@@ -5705,35 +5705,35 @@
         <v>1000.0</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>372</v>
+        <v>237</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="C66" s="9">
         <v>0.6</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="F66" s="9">
         <v>500.0</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>373</v>
+        <v>241</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C67" s="14">
         <v>0.6</v>
@@ -5743,15 +5743,15 @@
         <v>1000.0</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>374</v>
+        <v>244</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="C68" s="9">
         <v>0.9</v>
@@ -5761,75 +5761,75 @@
         <v>500.0</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>375</v>
+        <v>247</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="C69" s="14">
         <v>0.7</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="F69" s="14">
         <v>500.0</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="C70" s="9">
         <v>0.8</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="F70" s="9">
         <v>500.0</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>377</v>
+        <v>255</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="C71" s="14">
         <v>0.6</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="F71" s="14">
         <v>500.0</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>378</v>
+        <v>259</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="C72" s="9">
         <v>0.9</v>
@@ -5839,95 +5839,95 @@
         <v>500.0</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>379</v>
+        <v>262</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="C73" s="14">
         <v>0.8</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="F73" s="14">
         <v>500.0</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="C74" s="9">
         <v>0.8</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="F74" s="9">
         <v>3000.0</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
-        <v>381</v>
+        <v>270</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="C75" s="14">
         <v>0.8</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="F75" s="14">
         <v>3000.0</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="C76" s="9">
         <v>1.6</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="F76" s="9">
         <v>1000.0</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="C77" s="14">
         <v>0.8</v>
@@ -5937,35 +5937,35 @@
         <v>2000.0</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>384</v>
+        <v>281</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="C78" s="9">
         <v>0.9</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="F78" s="9">
         <v>1000.0</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="C79" s="14">
         <v>0.9</v>
@@ -5975,55 +5975,55 @@
         <v>2000.0</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="C80" s="9">
         <v>0.5</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="F80" s="9">
         <v>1000.0</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>387</v>
+        <v>292</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="C81" s="14">
         <v>0.9</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="F81" s="14">
         <v>100.0</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="C82" s="9">
         <v>0.9</v>
@@ -6033,15 +6033,15 @@
         <v>500.0</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="s">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="C83" s="14">
         <v>0.9</v>
@@ -6051,55 +6051,55 @@
         <v>1000.0</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="C84" s="9">
         <v>0.6</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="F84" s="9">
         <v>500.0</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="C85" s="14">
         <v>0.6</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="F85" s="14">
         <v>2000.0</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>392</v>
+        <v>310</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="C86" s="9">
         <v>0.6</v>
@@ -6109,15 +6109,15 @@
         <v>1000.0</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
-        <v>393</v>
+        <v>313</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="C87" s="14">
         <v>0.6</v>
@@ -6127,15 +6127,15 @@
         <v>500.0</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="C88" s="9">
         <v>0.8</v>
@@ -6145,75 +6145,75 @@
         <v>1000.0</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>231</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
-        <v>395</v>
+        <v>319</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="C89" s="14">
         <v>0.7</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="F89" s="14">
         <v>1000.0</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>233</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>396</v>
+        <v>323</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="C90" s="9">
         <v>0.8</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="F90" s="9">
         <v>3000.0</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
-        <v>397</v>
+        <v>326</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="C91" s="14">
         <v>0.8</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>238</v>
+        <v>327</v>
       </c>
       <c r="F91" s="14">
         <v>3000.0</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>239</v>
+        <v>330</v>
       </c>
       <c r="C92" s="9">
         <v>1.4</v>
@@ -6223,55 +6223,55 @@
         <v>500.0</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="C93" s="14">
         <v>0.9</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="F93" s="14">
         <v>500.0</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="C94" s="9">
         <v>0.9</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="F94" s="9">
         <v>500.0</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="C95" s="14">
         <v>0.7</v>
@@ -6281,15 +6281,15 @@
         <v>500.0</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>402</v>
+        <v>343</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>249</v>
+        <v>344</v>
       </c>
       <c r="C96" s="9">
         <v>1.4</v>
@@ -6299,75 +6299,75 @@
         <v>500.0</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>250</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="C97" s="14">
         <v>0.8</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="F97" s="14">
         <v>500.0</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>252</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>254</v>
+        <v>351</v>
       </c>
       <c r="C98" s="9">
         <v>1.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>256</v>
+        <v>352</v>
       </c>
       <c r="F98" s="9">
         <v>1000.0</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>257</v>
+        <v>355</v>
       </c>
       <c r="C99" s="14">
         <v>0.6</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="F99" s="14">
         <v>500.0</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>258</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="C100" s="9">
         <v>0.9</v>
@@ -6377,15 +6377,15 @@
         <v>1000.0</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>261</v>
+        <v>360</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>262</v>
+        <v>362</v>
       </c>
       <c r="C101" s="14">
         <v>1.2</v>
@@ -6395,55 +6395,55 @@
         <v>500.0</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>263</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c r="C102" s="9">
         <v>0.5</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="F102" s="9">
         <v>500.0</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>265</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="C103" s="14">
         <v>0.6</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="F103" s="14">
         <v>100.0</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>268</v>
+        <v>371</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>270</v>
+        <v>373</v>
       </c>
       <c r="C104" s="9">
         <v>0.6</v>
@@ -6453,15 +6453,15 @@
         <v>500.0</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>271</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="C105" s="14">
         <v>0.6</v>
@@ -6471,35 +6471,35 @@
         <v>1000.0</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>273</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>274</v>
+        <v>379</v>
       </c>
       <c r="C106" s="9">
         <v>0.6</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="F106" s="9">
         <v>500.0</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>275</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>277</v>
+        <v>383</v>
       </c>
       <c r="C107" s="14">
         <v>0.6</v>
@@ -6509,135 +6509,135 @@
         <v>1000.0</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>279</v>
+        <v>386</v>
       </c>
       <c r="C108" s="9">
         <v>0.6</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>281</v>
+        <v>387</v>
       </c>
       <c r="F108" s="9">
         <v>1000.0</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="C109" s="14">
         <v>0.8</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="F109" s="14">
         <v>1000.0</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="C110" s="9">
         <v>1.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="F110" s="9">
         <v>1000.0</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>286</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="C111" s="14">
         <v>0.7</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="F111" s="14">
         <v>500.0</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>289</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>291</v>
+        <v>402</v>
       </c>
       <c r="C112" s="9">
         <v>0.6</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="F112" s="9">
         <v>1000.0</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="C113" s="14">
         <v>0.3</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>296</v>
+        <v>407</v>
       </c>
       <c r="F113" s="14">
         <v>100.0</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>295</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="C114" s="9">
         <v>0.3</v>
@@ -6647,15 +6647,15 @@
         <v>500.0</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>298</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>299</v>
+        <v>413</v>
       </c>
       <c r="C115" s="14">
         <v>0.3</v>
@@ -6665,47 +6665,47 @@
         <v>1000.0</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>300</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="C116" s="9">
         <v>0.9</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>303</v>
+        <v>417</v>
       </c>
       <c r="F116" s="9">
         <v>500.0</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>302</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="19" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="C117" s="21">
         <v>1.4</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>306</v>
+        <v>421</v>
       </c>
       <c r="F117" s="21">
         <v>500.0</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/data/talismans.xlsx
+++ b/data/talismans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="424">
   <si>
     <t>id</t>
   </si>
@@ -20,25 +20,19 @@
     <t>info</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>image_url</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>Ancestral Spirit's Horn</t>
-  </si>
-  <si>
     <t>Restores FP upon defeating enemies</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6967466bl0i2swi5et1ibv4rc6r.png</t>
   </si>
   <si>
     <t>Item cut from the horns of the Regal Ancestor Spirit.
@@ -46,13 +40,10 @@
 A number of new growths bud from the antler-like horns of the fallen king, each glowing with light. Thus does new life grow from death, and from death, one obtains power.</t>
   </si>
   <si>
-    <t>Arrow's Reach Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6967466bl0i2swi5et1ibv4rc6r.png</t>
   </si>
   <si>
     <t>Increases bow effective range</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69dfff40l0i2soo71h481xlxzx8i.png</t>
   </si>
   <si>
     <t>A talisman depicting three arrows.
@@ -60,13 +51,10 @@
 Increases the effective range of bows.</t>
   </si>
   <si>
-    <t>Arrow's Sting Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69dfff40l0i2soo71h481xlxzx8i.png</t>
   </si>
   <si>
     <t>Raises attack power of arrows and bolts</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f4f7a3l0i2soioqe3qysjxaw.png</t>
   </si>
   <si>
     <t>A talisman depicting three iron arrows.
@@ -74,13 +62,10 @@
 Raises attack power of arrows and bolts.</t>
   </si>
   <si>
-    <t>Arsenal Charm</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f4f7a3l0i2soioqe3qysjxaw.png</t>
   </si>
   <si>
     <t>Raises maximum equipment load</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69659e33l0i2soj4uhpxf54ncje.png</t>
   </si>
   <si>
     <t>An iron charm that resembles a mass of weaponry.
@@ -88,7 +73,7 @@
 This talisman was derived from an unusual greatsword once wielded by a hero hungry for vengeance.</t>
   </si>
   <si>
-    <t>Arsenal Charm +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69659e33l0i2soj4uhpxf54ncje.png</t>
   </si>
   <si>
     <t>Greatly raises maximum equip load</t>
@@ -99,13 +84,7 @@
 This talisman was derived from an unusual greatsword once wielded by a hero hungry for vengeance.</t>
   </si>
   <si>
-    <t>Assassin's Cerulean Dagger</t>
-  </si>
-  <si>
     <t>Critical hits restore FP</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d47ea5l0i2sokp40249x3da4f.png</t>
   </si>
   <si>
     <t>An assassin's dagger, misshapen and stained in cerulean.
@@ -113,13 +92,10 @@
 This charm is modelled after the darkly gleaming blades used in the Night of Black Knives. Those which gave the demigods their first taste of Death.</t>
   </si>
   <si>
-    <t>Assassin's Crimson Dagger</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d47ea5l0i2sokp40249x3da4f.png</t>
   </si>
   <si>
     <t>Critical hits restore HP</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697e45b3l0i2sol3u2c1y0ja11.png</t>
   </si>
   <si>
     <t>An assassin's dagger, misshapen and stained in crimson.
@@ -127,13 +103,10 @@
 This charm is modelled after the darkly gleaming blades used in the Night of Black Knives. Those which gave the demigods their first taste of Death.</t>
   </si>
   <si>
-    <t>Axe Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697e45b3l0i2sol3u2c1y0ja11.png</t>
   </si>
   <si>
     <t>Enhances charge attacks</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c74ab1l0i2sp8u8ehul0cxenh.png</t>
   </si>
   <si>
     <t>A talisman depicting an axe and a warrior.
@@ -141,13 +114,10 @@
 The Lord who led the Long March bore an axe, and his loyal warriors honored him by wielding axes of their own, making them very effective at dealing decisive blows.</t>
   </si>
   <si>
-    <t>Blessed Dew Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c74ab1l0i2sp8u8ehul0cxenh.png</t>
   </si>
   <si>
     <t>Slowly restores HP</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69977289l0i2spaggtt1hdtxhk4.png</t>
   </si>
   <si>
     <t>Talisman depicting a drop of the Erdtree's sap, a blessed boon.
@@ -155,13 +125,10 @@
 It was once thought that the blessed sap of the Erdtree would drip from its boughs forever—but that age of plenty swiftly came to a close, and with time, the Erdtree became more an object of faith.</t>
   </si>
   <si>
-    <t>Blue Dancer Charm</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69977289l0i2spaggtt1hdtxhk4.png</t>
   </si>
   <si>
     <t>Raises attack power with lower equipment load</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69811f79l0i2spa5kavq1z95u5i.png</t>
   </si>
   <si>
     <t>A cloth doll depicting a dancer garbed in blue.
@@ -170,7 +137,7 @@
 The dancer in blue represents a fairy, who in legend bestowed a flowing sword upon a blind swordsman. Blade in hand, the swordsman sealed away an ancient god—a god that was Rot itself.</t>
   </si>
   <si>
-    <t>Blue-Feathered Branchsword</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69811f79l0i2spa5kavq1z95u5i.png</t>
   </si>
   <si>
     <t>Raises defense when HP is low</t>
@@ -181,13 +148,7 @@
 The heart sings when one draws close to death, and thus does one cling so tenaciously to life—to render up a death worth offering.</t>
   </si>
   <si>
-    <t>Boltdrake Talisman</t>
-  </si>
-  <si>
     <t>Boosts lightning damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697718ffl0i2sp9dowe0oahaam.png</t>
   </si>
   <si>
     <t>Talisman depicting a yellow ancient dragon.
@@ -196,7 +157,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Boltdrake Talisman +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697718ffl0i2sp9dowe0oahaam.png</t>
   </si>
   <si>
     <t>Greatly boosts lightning damage negation</t>
@@ -208,9 +169,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Boltdrake Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts lightning damage negation</t>
   </si>
   <si>
@@ -220,9 +178,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Bull-Goat's Talisman</t>
-  </si>
-  <si>
     <t>Raises poise</t>
   </si>
   <si>
@@ -231,13 +186,7 @@
 Bull-goats are associated with the stout and mighty Tragoth, said to be unflinching in combat—now a silent comrade to those who fight.</t>
   </si>
   <si>
-    <t>Carian Filigreed Crest</t>
-  </si>
-  <si>
     <t>Lowers FP consumed by skills</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e97eaal0i2sq1lvpkd5cfq2q.png</t>
   </si>
   <si>
     <t>A talisman adorned with the royal crest.
@@ -245,13 +194,10 @@
 An honor said to have once been awarded to Carian knights who served as direct retainers to the kingdom's princesses. Now there is only one princess: Ranni, daughter of Rennala.</t>
   </si>
   <si>
-    <t>Cerulean Amber Medallion</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e97eaal0i2sq1lvpkd5cfq2q.png</t>
   </si>
   <si>
     <t>Raises maximum FP</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ed62a2l0i2sq0x8kqy5oe9mwn.png</t>
   </si>
   <si>
     <t>A medallion with cerulean amber inlaid.
@@ -260,7 +206,7 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Cerulean Amber Medallion +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ed62a2l0i2sq0x8kqy5oe9mwn.png</t>
   </si>
   <si>
     <t>Greatly raises maximum FP</t>
@@ -272,9 +218,6 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Cerulean Amber Medallion +2</t>
-  </si>
-  <si>
     <t>Vastly raises maximum FP</t>
   </si>
   <si>
@@ -284,13 +227,7 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Cerulean Seed Talisman</t>
-  </si>
-  <si>
     <t>Boosts FP restoration from Flask of Cerulean Tears</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69dc1892l0i2sq1oh9i2x6tlarj.png</t>
   </si>
   <si>
     <t>A cerulean-colored talisman patterned after an Erdtree seed.
@@ -298,13 +235,10 @@
 The Erdtree was once perfect and eternal, and thus was it believed that Erdtree seeds could not exist.</t>
   </si>
   <si>
-    <t>Clarifying Horn Charm</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69dc1892l0i2sq1oh9i2x6tlarj.png</t>
   </si>
   <si>
     <t>Raises focus</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69942443l0i2sq2zl2bttnq08hp.png</t>
   </si>
   <si>
     <t>An accoutrement worn by the ancestral followers.
@@ -313,7 +247,7 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Clarifying Horn Charm +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69942443l0i2sq2zl2bttnq08hp.png</t>
   </si>
   <si>
     <t>Greatly raises focus</t>
@@ -325,13 +259,7 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Claw Talisman</t>
-  </si>
-  <si>
     <t>Enhances jump attacks</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ba1d62l0i2sq92f4o8t2tlzp7.png</t>
   </si>
   <si>
     <t>A talisman depicting a claw and an assassin.
@@ -339,13 +267,10 @@
 The assassins of Ravenmount are killers by trade. They assail their victims while dressed as birds of prey.</t>
   </si>
   <si>
-    <t>Companion Jar</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ba1d62l0i2sq92f4o8t2tlzp7.png</t>
   </si>
   <si>
     <t>Raises potency of throwing pots</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69eaed7fl0i2sz3buubfj570rq.png</t>
   </si>
   <si>
     <t>A talisman given by the jars to their friends.
@@ -353,13 +278,10 @@
 Though the jars are brought to life by human flesh and blood, they are all rather kindly folk. Perhaps they were made to be better than their innards.</t>
   </si>
   <si>
-    <t>Concealing Veil</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69eaed7fl0i2sz3buubfj570rq.png</t>
   </si>
   <si>
     <t>Conceals wearer while crouching away from foes</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c9bfc8l0i2sze3h5gawcr577p.png</t>
   </si>
   <si>
     <t>Talisman put together from dark cloth with a lustrous sheen.
@@ -367,13 +289,10 @@
 Part of one of the concealing veils used by the assassins on the Night of Black Knives.</t>
   </si>
   <si>
-    <t>Crepus's Vial</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c9bfc8l0i2sze3h5gawcr577p.png</t>
   </si>
   <si>
     <t>Eliminates all sound made by the wearer during movement</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b7aec7l0i2sqw1x7ajlmzguyi.png</t>
   </si>
   <si>
     <t>Small mysterious bottle with a dark mist sealed within.
@@ -381,13 +300,10 @@
 A ritual implement used by Roundtable Hold assassins. There was a time when Tarnished who had strayed from guidance feared nothing more than utter silence.</t>
   </si>
   <si>
-    <t>Crimson Amber Medallion</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b7aec7l0i2sqw1x7ajlmzguyi.png</t>
   </si>
   <si>
     <t>Raises maximum HP</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699e5a9dl0i2sqsk8mpabyj9mm4.png</t>
   </si>
   <si>
     <t>A medallion with crimson amber inlaid.
@@ -396,7 +312,7 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Crimson Amber Medallion +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699e5a9dl0i2sqsk8mpabyj9mm4.png</t>
   </si>
   <si>
     <t>Greatly raises maximum HP</t>
@@ -408,9 +324,6 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Crimson Amber Medallion +2</t>
-  </si>
-  <si>
     <t>Vastly raises maximum HP</t>
   </si>
   <si>
@@ -420,13 +333,7 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Crimson Seed Talisman</t>
-  </si>
-  <si>
     <t>Boosts HP restoration from Flask of Crimson Tears</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699b6e58l0i2svqah8qxabssa6s.png</t>
   </si>
   <si>
     <t>A crimson-colored talisman patterned after an Erdtree seed.
@@ -434,13 +341,10 @@
 The Erdtree was once perfect and eternal, and thus was it believed that Erdtree seeds could not exist.</t>
   </si>
   <si>
-    <t>Crucible Feather Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699b6e58l0i2svqah8qxabssa6s.png</t>
   </si>
   <si>
     <t>Improves dodge rolling but increases damage taken</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d33e2dl0i2szt872otxd3taua.png</t>
   </si>
   <si>
     <t>A talisman fashioned from feathers that embody the aspects of various creatures.
@@ -449,13 +353,10 @@
 A vestige of the crucible of primordial life. Born partially of devolution, it was considered a signifier of the divine in ancient times, but is now increasingly disdained as an impurity as civilization has advanced.</t>
   </si>
   <si>
-    <t>Crucible Knot Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d33e2dl0i2szt872otxd3taua.png</t>
   </si>
   <si>
     <t>Reduces damage and impact of headshots</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d61012l0i2sqr9dmioj7dxngi.png</t>
   </si>
   <si>
     <t>A talisman fashioned from a bony knot that embodies the aspects of various creatures.
@@ -464,13 +365,10 @@
 A vestige of the crucible of primordial life. Born partially of devolution, it was considered a signifier of the divine in ancient times, but is now increasingly disdained as an impurity as civilization has advanced.</t>
   </si>
   <si>
-    <t>Crucible Scale Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d61012l0i2sqr9dmioj7dxngi.png</t>
   </si>
   <si>
     <t>Reduces damage taken from critical hits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6993bc1fl0i2sqt5xscysq45rce.png</t>
   </si>
   <si>
     <t>A talisman fashioned from a scale that embodies the aspects of various creatures.
@@ -479,13 +377,10 @@
 A vestige of the crucible of primordial life. Born partially of devolution, it was considered a signifier of the divine in ancient times, but is now increasingly disdained as an impurity as civilization has advanced.</t>
   </si>
   <si>
-    <t>Curved Sword Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6993bc1fl0i2sqt5xscysq45rce.png</t>
   </si>
   <si>
     <t>Enhances guard counters</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ed2edfl0i2sqxgpadu0gprbn.png</t>
   </si>
   <si>
     <t>A talisman depicting a curved sword and a swordsman.
@@ -493,13 +388,10 @@
 It is said that a blind swordsman was the originator of this technique—the art of allowing one's opponent to strike so as to leave them vulnerable to a well-timed reply.</t>
   </si>
   <si>
-    <t>Daedicar's Woe</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ed2edfl0i2sqxgpadu0gprbn.png</t>
   </si>
   <si>
     <t>Increases damage taken</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699d64d5l0i2szu3wjjkmeqklc.png</t>
   </si>
   <si>
     <t>Disturbing likeness of a woman whose skin was flayed.
@@ -508,13 +400,10 @@
 It is said that this woman, named Daedicar, indulged in every form of adultery and wicked pleasure imaginable, giving birth to a myriad of grotesque children.</t>
   </si>
   <si>
-    <t>Dagger Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699d64d5l0i2szu3wjjkmeqklc.png</t>
   </si>
   <si>
     <t>Enhances critical hits</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6991130cl0i2sywsfxyysl6tz7h.png</t>
   </si>
   <si>
     <t>A talisman depicting a dagger and a surgeon.
@@ -522,13 +411,10 @@
 The white-garbed field surgeons come to the aid of friend and foe alike by dealing a final deadly thrust to spare them from the prolonged agony of a mortal wound. A sense of mercy is a catalyst for bloodlust.</t>
   </si>
   <si>
-    <t>Dragoncrest Greatshield Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6991130cl0i2sywsfxyysl6tz7h.png</t>
   </si>
   <si>
     <t>Enormously boosts physical damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696b90dbl0i2sws9twxdvi39xzf.png</t>
   </si>
   <si>
     <t>Legendary talisman of wrought iron depicting a massive ancient dragon.
@@ -537,13 +423,10 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Dragoncrest Shield Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696b90dbl0i2sws9twxdvi39xzf.png</t>
   </si>
   <si>
     <t>Boosts physical damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d584c8l0i2srfem3zhei7qek.png</t>
   </si>
   <si>
     <t>Wrought iron talisman depicting an ancient dragon.
@@ -552,7 +435,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Dragoncrest Shield Talisman +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d584c8l0i2srfem3zhei7qek.png</t>
   </si>
   <si>
     <t>Greatly boosts physical damage negation</t>
@@ -564,9 +447,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Dragoncrest Shield Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts physical damage negation</t>
   </si>
   <si>
@@ -576,26 +456,17 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Entwining Umbilical Cord</t>
-  </si>
-  <si>
     <t>Changes demeanour of wearer's actions</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696c4991l0i2szwm52zrw4bgso4.png</t>
   </si>
   <si>
     <t>Mysterious circular object that's oddly warped.
 Changes the demeanour of the wearer's actions.</t>
   </si>
   <si>
-    <t>Erdtree's Favor</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696c4991l0i2szwm52zrw4bgso4.png</t>
   </si>
   <si>
     <t>Raises maximum HP, stamina and equip load</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f205a0l0i2svmo2djg04dhvj4.png</t>
   </si>
   <si>
     <t>A talisman depicting a special blessing of the Erdtree.
@@ -603,7 +474,7 @@
 It is said that when the Age of the Erdtree began, such blessings were personally bestowed upon their recipients by Queen Marika herself.</t>
   </si>
   <si>
-    <t>Erdtree's Favor +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f205a0l0i2svmo2djg04dhvj4.png</t>
   </si>
   <si>
     <t>A talisman depicting a special blessing of the Erdtree.
@@ -611,21 +482,12 @@
 It is said that when the Age of the Erdtree began, such blessings were personally bestowed upon their recipients by Queen Marika herself.</t>
   </si>
   <si>
-    <t>Erdtree's Favor +2</t>
-  </si>
-  <si>
     <t>A legendary talisman depicting the Elden Lord Godfrey.
 Raises charge attack power of sorceries, incantations, and skills.
 Godfrey was a ferocious warrior. When he vowed to become a lord, he took the Beast Regent Serosh upon his back to suppress the ceaseless lust for battle that raged within.</t>
   </si>
   <si>
-    <t>Faithful's Canvas Talisman</t>
-  </si>
-  <si>
     <t>Raises potency of incantations</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696b2a8el0i2srkijjgnyeo45ic.png</t>
   </si>
   <si>
     <t>A talisman bearing an icon that depicts a group of masked figures.
@@ -634,13 +496,10 @@
 What is faith if not an affirmation?</t>
   </si>
   <si>
-    <t>Fire Scorpion Charm</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696b2a8el0i2srkijjgnyeo45ic.png</t>
   </si>
   <si>
     <t>Raises fire attack, but lowers damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697b6373l0i2srhja32ffmg9v7s.png</t>
   </si>
   <si>
     <t>A talisman carried by assassins who strike unseen.
@@ -648,13 +507,10 @@
 Raises fire attack power, but lowers damage negation.</t>
   </si>
   <si>
-    <t>Flamedrake Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697b6373l0i2srhja32ffmg9v7s.png</t>
   </si>
   <si>
     <t>Boosts fire damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6969e375l0i2srh8fpkcyede0z.png</t>
   </si>
   <si>
     <t>Talisman depicting a red ancient dragon.
@@ -663,7 +519,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Flamedrake Talisman +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6969e375l0i2srh8fpkcyede0z.png</t>
   </si>
   <si>
     <t>Greatly boosts fire damage negation</t>
@@ -675,9 +531,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Flamedrake Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts fire damage negation</t>
   </si>
   <si>
@@ -687,13 +540,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Flock's Canvas Talisman</t>
-  </si>
-  <si>
     <t>Greatly raises potency of incantations</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6976f6b0l0i2szav175mw9xww9x.png</t>
   </si>
   <si>
     <t>A talisman bearing an icon that depicts a mass of masked figures.
@@ -702,7 +549,7 @@
 What is faith if not an affirmation?</t>
   </si>
   <si>
-    <t>Furled Finger's Trick-Mirror</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6976f6b0l0i2szav175mw9xww9x.png</t>
   </si>
   <si>
     <t>Take on appearance of a Host of Fingers</t>
@@ -713,13 +560,7 @@
 One of the ritual implements created by the Tarnished to deceive invaders.</t>
   </si>
   <si>
-    <t>Godfrey Icon</t>
-  </si>
-  <si>
     <t>Enhances charged spells and skills</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c0c973l0i2sw8w6uvbwqiqfmy.png</t>
   </si>
   <si>
     <t>A legendary talisman depicting the Elden Lord Godfrey.
@@ -727,13 +568,10 @@
 Godfrey was a ferocious warrior. When he vowed to become a lord, he took the Beast Regent Serosh upon on his back to suppress the ceaseless lust for battle that raged within.</t>
   </si>
   <si>
-    <t>Godskin Swaddling Cloth</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c0c973l0i2sw8w6uvbwqiqfmy.png</t>
   </si>
   <si>
     <t>Successive attacks restore HP</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c7f897l0i2srkhjmyvn5rfnva.png</t>
   </si>
   <si>
     <t>Sacred cloth of the Godskin Apostles, made from supple skin sewn together.
@@ -741,20 +579,17 @@
 The Gloam-Eyed Queen cradles newborn apostles swaddled in this cloth. Soon they will grow to become the death of the gods.</t>
   </si>
   <si>
-    <t>Gold Scarab</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c7f897l0i2srkhjmyvn5rfnva.png</t>
   </si>
   <si>
     <t>Increases runes obtained from defeated enemies</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69d1b2c0l0i2sx1e2ftbrqshztb.png</t>
   </si>
   <si>
     <t>A talisman facsimile of a scarab, the carrier of treasures and precious things.
 This golden scarab increases the amount of runes obtained from defeating enemies.</t>
   </si>
   <si>
-    <t>Graven-Mass Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69d1b2c0l0i2sx1e2ftbrqshztb.png</t>
   </si>
   <si>
     <t>Greatly raises potency of sorceries</t>
@@ -765,18 +600,12 @@
 The primeval current is a forbidden tradition of glintstone sorcery. To those who cleave to its teachings, the act of collecting sorcerers to fashion them into the seeds of stars is but another path of scientific inquiry.</t>
   </si>
   <si>
-    <t>Graven-School Talisman</t>
-  </si>
-  <si>
     <t>Raises potency of sorceries</t>
   </si>
   <si>
     <t>A talisman depicting a school of graven mages, the nightmare of the academy.
 Raises potency of sorceries.
 The primeval current is a forbidden tradition of glintstone sorcery. To those who cleave to its teachings, the act of collecting sorcerers to fashion them into the seeds of stars is but another path of scientific inquiry.</t>
-  </si>
-  <si>
-    <t>Great-Jar's Arsenal</t>
   </si>
   <si>
     <t>Vastly raises maximum equip load</t>
@@ -788,13 +617,7 @@
 Carry as much as you can—grow big and strong.</t>
   </si>
   <si>
-    <t>Greatshield Talisman</t>
-  </si>
-  <si>
     <t>Boosts guarding ability</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ba2ff0l0i2sye3sdb94vc6u6j.png</t>
   </si>
   <si>
     <t>Talisman depicting a knight holding a greatshield.
@@ -802,13 +625,10 @@
 The knights of Leyndell once modelled themselves after the Tree Sentinels. Their purpose is to protect that which deserves protection, and thus the shield always comes before the sword.</t>
   </si>
   <si>
-    <t>Green Turtle Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ba2ff0l0i2sye3sdb94vc6u6j.png</t>
   </si>
   <si>
     <t>Raises stamina recovery speed</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ecd4bdl0i2ss5cnven5hobw5d.png</t>
   </si>
   <si>
     <t>A talisman in the shape of a green turtle.
@@ -817,13 +637,10 @@
 However, those who hold turtles to be wise creatures consider the practice of eating their meat to be barbarous.</t>
   </si>
   <si>
-    <t>Haligdrake Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ecd4bdl0i2ss5cnven5hobw5d.png</t>
   </si>
   <si>
     <t>Boosts holy damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69854ae6l0i2ss4quq0gikz8cw.png</t>
   </si>
   <si>
     <t>Talisman depicting a golden ancient dragon.
@@ -832,7 +649,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Haligdrake Talisman +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69854ae6l0i2ss4quq0gikz8cw.png</t>
   </si>
   <si>
     <t>Greatly boosts holy damage negation</t>
@@ -844,9 +661,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Haligdrake Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts holy damage negation</t>
   </si>
   <si>
@@ -856,13 +670,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Hammer Talisman</t>
-  </si>
-  <si>
     <t>Enhances stamina-reducing attacks against blockers</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696fc245l0i2ss7f2pzn3xdhj6n.png</t>
   </si>
   <si>
     <t>A talisman depicting a hammer and a knight.
@@ -870,7 +678,7 @@
 Hammers are highly effective against shield-bearing foes, so much so that they are known as "knight-killers."</t>
   </si>
   <si>
-    <t>Host's Trick-Mirror</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696fc245l0i2ss7f2pzn3xdhj6n.png</t>
   </si>
   <si>
     <t>Take on appearance of a cooperator</t>
@@ -881,13 +689,7 @@
 One of the ritual implements created by the Tarnished to deceive invaders.</t>
   </si>
   <si>
-    <t>Immunizing Horn Charm</t>
-  </si>
-  <si>
     <t>Raises immunity</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69a7ec34l0i2ss898co9a2xz8uv.png</t>
   </si>
   <si>
     <t>An accoutrement worn by the ancestral followers.
@@ -896,7 +698,7 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Immunizing Horn Charm +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69a7ec34l0i2ss898co9a2xz8uv.png</t>
   </si>
   <si>
     <t>Greatly raises immunity</t>
@@ -908,9 +710,6 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Kindred of Rot's Exultation</t>
-  </si>
-  <si>
     <t>Poisoning or rot in vicinity increases attack power</t>
   </si>
   <si>
@@ -919,13 +718,7 @@
 "Rot for the scarlet goddess. O scarlet blossoms, flourish in distant lands, and return to us, the unwanted children."</t>
   </si>
   <si>
-    <t>Lance Talisman</t>
-  </si>
-  <si>
     <t>Enhances attacks on horseback</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69858252l0i2swaqtyccdf5kihk.png</t>
   </si>
   <si>
     <t>A talisman depicting a lance and a knight.
@@ -933,13 +726,10 @@
 Knights on horseback are deadly foes. They see all below from their lofty position, meeting little meaningful resistance as they charge ahead.</t>
   </si>
   <si>
-    <t>Lightning Scorpion Charm</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69858252l0i2swaqtyccdf5kihk.png</t>
   </si>
   <si>
     <t>Raises lightning attack, but lowers damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e2a905l0i2ssrfz1ym5wgjvc.png</t>
   </si>
   <si>
     <t>A talisman carried by assassins who strike unseen.
@@ -947,13 +737,10 @@
 Raises lightning attack power, but lowers damage negation.</t>
   </si>
   <si>
-    <t>Longtail Cat Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e2a905l0i2ssrfz1ym5wgjvc.png</t>
   </si>
   <si>
     <t>Grants immunity to fall damage, but does not prevent death from a high fall</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ca952al0i2ssu6yw9l5kfw6q.png</t>
   </si>
   <si>
     <t>A brooch depicting Lacrima, the long-tailed cat.
@@ -961,7 +748,7 @@
 Lacrima features in the fables of Raya Lucaria, in which she is described as a faerie cat who was fond of playing in the great bell tower.</t>
   </si>
   <si>
-    <t>Lord of Blood's Exultation</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ca952al0i2ssu6yw9l5kfw6q.png</t>
   </si>
   <si>
     <t>Blood loss in vicinity increases attack power</t>
@@ -972,13 +759,7 @@
 "Render up your offerings of blood to your Lord. Drench my consort's chamber. Slake his cocoon's thirst. His awakening shall herald the dawn of our dynasty."</t>
   </si>
   <si>
-    <t>Magic Scorpion Charm</t>
-  </si>
-  <si>
     <t>Raises magic attack, but lowers damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69747fbcl0i2sxow29iyn6fm75v.png</t>
   </si>
   <si>
     <t>A talisman carried by assassins who strike unseen.
@@ -986,13 +767,10 @@
 Raises magic attack power, but lowers damage negation.</t>
   </si>
   <si>
-    <t>Marika's Scarseal</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69747fbcl0i2sxow29iyn6fm75v.png</t>
   </si>
   <si>
     <t>Raises attributes, but also increases damage taken</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69bdcd53l0i2ssvjmuvkx73w1bo.png</t>
   </si>
   <si>
     <t>An eye engraved with an Elden Rune.
@@ -1001,13 +779,10 @@
 These seals represent the lifelong duty of those chosen by the gods.</t>
   </si>
   <si>
-    <t>Marika's Soreseal</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69bdcd53l0i2ssvjmuvkx73w1bo.png</t>
   </si>
   <si>
     <t>Greatly raises attributes, but also increases damage taken</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69c504f2l0i2swunxt9oun5dn9.png</t>
   </si>
   <si>
     <t>This legendary talisman is an eye engraved with an Elden Rune, said to be the seal of Queen Marika.
@@ -1015,13 +790,10 @@
 Solemn duty weighs upon the one beholden; not unlike a gnawing curse from which there is no deliverance.</t>
   </si>
   <si>
-    <t>Millicent's Prosthesis</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69c504f2l0i2swunxt9oun5dn9.png</t>
   </si>
   <si>
     <t>Boosts dexterity, raises attack power with successive attacks</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69afb835l0i2sykg6ynuw6wl9b.png</t>
   </si>
   <si>
     <t>Part of the golden prosthesis used by Millicent.
@@ -1030,7 +802,7 @@
 The despair of sweet betrayal transformed Millicent from a mere bud into a magnificent flower. And one day, she will be reborn—as a beautiful scarlet valkyrie.</t>
   </si>
   <si>
-    <t>Moon of Nokstella</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69afb835l0i2sykg6ynuw6wl9b.png</t>
   </si>
   <si>
     <t>Increases memory slots</t>
@@ -1042,13 +814,7 @@
 The moon of Nokstella was the guide of countless stars.</t>
   </si>
   <si>
-    <t>Mottled Necklace</t>
-  </si>
-  <si>
     <t>Raises robustness, immunity, and focus</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b9af92l0i2st8bt7bg2grdb1h.png</t>
   </si>
   <si>
     <t>A vividly-colored accoutrement precious to the ancestral followers.
@@ -1056,7 +822,7 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Mottled Necklace +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b9af92l0i2st8bt7bg2grdb1h.png</t>
   </si>
   <si>
     <t>Greatly raises robustness, immunity, and focus</t>
@@ -1067,13 +833,7 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Old Lord's Talisman</t>
-  </si>
-  <si>
     <t>Extends spell effect duration</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6967fb2dl0i2ste8y2pomb9gcj9.png</t>
   </si>
   <si>
     <t>A legendary talisman depicting the ancient king whose seat lies at the heart of the storm beyond time.
@@ -1081,13 +841,10 @@
 It is said that the ancient royal city of Farum Azula has been slowly crumbling since time immemorial.</t>
   </si>
   <si>
-    <t>Pearldrake Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6967fb2dl0i2ste8y2pomb9gcj9.png</t>
   </si>
   <si>
     <t>Boosts non-physical damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699f5086l0i2stgzl85bqm2vvy.png</t>
   </si>
   <si>
     <t>Talisman depicting a pearlescent ancient dragon.
@@ -1096,7 +853,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Pearldrake Talisman +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699f5086l0i2stgzl85bqm2vvy.png</t>
   </si>
   <si>
     <t>Greatly boosts non-physical damage negation</t>
@@ -1108,9 +865,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Pearldrake Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts non-physical damage negation</t>
   </si>
   <si>
@@ -1120,13 +874,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Perfumer's Talisman</t>
-  </si>
-  <si>
     <t>Raises potency of perfume items</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e92d45l0i2sxmogqn2tdfna89.png</t>
   </si>
   <si>
     <t>A talisman depicting a set of perfume bottles.
@@ -1134,13 +882,10 @@
 There are gardens known only to the perfumers. Whether hidden on the fringes of the highlands, or obscured by shadows inside caves, the flowers blossom in secret, waiting to impart their scent.</t>
   </si>
   <si>
-    <t>Primal Glintstone Blade</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e92d45l0i2sxmogqn2tdfna89.png</t>
   </si>
   <si>
     <t>Spells consume less FP, but maximum HP is reduced</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e4e872l0i2strgtb0bn8sior8.png</t>
   </si>
   <si>
     <t>An old glintstone blade that has been stained with blood.
@@ -1148,7 +893,7 @@
 The old sorcerers would slice open their hearts with these blades to imbue a primal glintstone with their soul, and thus did they die.</t>
   </si>
   <si>
-    <t>Prince of Death's Cyst</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e4e872l0i2strgtb0bn8sior8.png</t>
   </si>
   <si>
     <t>Greatly raises vitality</t>
@@ -1160,9 +905,6 @@
 It is said that this cyst came from the corrupted visage of one unable to die a true Death. Indeed, it comes from the Prince of Death, scion of the golden bough and First of the Dead among the demigods.</t>
   </si>
   <si>
-    <t>Prince of Death's Pustule</t>
-  </si>
-  <si>
     <t>Raises vitality</t>
   </si>
   <si>
@@ -1172,9 +914,6 @@
 It is said that this pustule came from the visage of the Prince of Death, he who used to be called Godwyn. As First Dead of the demigods, it's said he's buried deep under the capital, at the Erdtree's roots.</t>
   </si>
   <si>
-    <t>Prosthesis-Wearer Heirloom</t>
-  </si>
-  <si>
     <t>Raises dexterity</t>
   </si>
   <si>
@@ -1183,13 +922,7 @@
 Though born into the accursed rot, when the young girl encountered her mentor and his flowing blade, she gained wings of unparalleled strength.</t>
   </si>
   <si>
-    <t>Radagon Icon</t>
-  </si>
-  <si>
     <t>Shortens spell casting time</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69db3ddfl0i2stxpa5we7cuil2.png</t>
   </si>
   <si>
     <t>A legendary talisman depicting the Elden Lord Radagon.
@@ -1197,10 +930,7 @@
 As the husband of Rennala of Caria, the red-haired Radagon studied sorcery, and as the husband of Queen Marika, he studied incantations. Thus did the hero aspire to be complete.</t>
   </si>
   <si>
-    <t>Radagon's Scarseal</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f6b0d2l0i2su0uxibci7qzsn.png</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69db3ddfl0i2stxpa5we7cuil2.png</t>
   </si>
   <si>
     <t>An eye engraved with an Elden Rune.
@@ -1209,10 +939,7 @@
 These seals represent the lifelong duty of those chosen by the gods.</t>
   </si>
   <si>
-    <t>Radagon's Soreseal</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f696a52c1l0i2su2ddt9cbw3bnog.png</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f6b0d2l0i2su0uxibci7qzsn.png</t>
   </si>
   <si>
     <t>This legendary talisman is an eye engraved with an Elden Rune, said to be the seal of King Consort Radagon.
@@ -1220,7 +947,7 @@
 Solemn duty weighs upon the one beholden; not unlike a gnawing curse from which there is no deliverance.</t>
   </si>
   <si>
-    <t>Red-Feathered Branchsword</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f696a52c1l0i2su2ddt9cbw3bnog.png</t>
   </si>
   <si>
     <t>Raises attack power when HP is low</t>
@@ -1231,13 +958,7 @@
 The heart sings when one draws close to death, and a glorious end awaits those who cling so tenaciously to life.</t>
   </si>
   <si>
-    <t>Ritual Shield Talisman</t>
-  </si>
-  <si>
     <t>Raises defense when HP is at maximum</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699e1a3al0i2sxkv62fi32hab4.png</t>
   </si>
   <si>
     <t>A talisman patterned after shields used in ritual combat held to honor the Erdtree.
@@ -1245,13 +966,10 @@
 The practice had died out by the age of King Consort Radagon, but remains of the arenas where ritual combat took place can still be found in every land.</t>
   </si>
   <si>
-    <t>Ritual Sword Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699e1a3al0i2sxkv62fi32hab4.png</t>
   </si>
   <si>
     <t>Raises attack power when HP is at maximum</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f699ae959l0i2sx3bloupcziqiz.png</t>
   </si>
   <si>
     <t>A talisman patterned after swords used in ritual combat held to honor the Erdtree.
@@ -1259,7 +977,7 @@
 The practice had died out by the age of King Consort Radagon, but remains of the arenas where ritual combat took place can still be found in every land.</t>
   </si>
   <si>
-    <t>Roar Medallion</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f699ae959l0i2sx3bloupcziqiz.png</t>
   </si>
   <si>
     <t>Enhances roars and breath attacks</t>
@@ -1268,9 +986,6 @@
     <t>A bronze medallion depicting a roaring giant.
 Enhances roars and breath attacks.
 In ancient times, the giants were mortal enemies of the Erdtree. Their bellowing roars desolated nature, triggered avalanches, and whipped up storms of flame.</t>
-  </si>
-  <si>
-    <t>Rotten Winged Sword Insignia</t>
   </si>
   <si>
     <t>Greatly raises attack power with successive attacks</t>
@@ -1282,13 +997,7 @@
 The four sisters were born in the Swamp of Aeonia, and came to the Haligtree under the aegis of Gowry. And yet, those buds were doomed to never blossom.</t>
   </si>
   <si>
-    <t>Sacred Scorpion Charm</t>
-  </si>
-  <si>
     <t>Raises holy attack, but lowers damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e49085l0i2sudupmymnf7is0e.png</t>
   </si>
   <si>
     <t>A talisman carried by assassins who strike unseen.
@@ -1296,13 +1005,10 @@
 Raises holy attack power, but lowers damage negation.</t>
   </si>
   <si>
-    <t>Sacrificial Twig</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e49085l0i2sudupmymnf7is0e.png</t>
   </si>
   <si>
     <t>Will be lost on death in place of runes</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6966d3a9l0i2suh41ayrux3telz.png</t>
   </si>
   <si>
     <t>A talisman fashioned from a dried twig, so slender that it might snap at the slightest touch.
@@ -1310,13 +1016,10 @@
 Believed to be a twig pruned from the Erdtree long, long ago.</t>
   </si>
   <si>
-    <t>Shabriri's Woe</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6966d3a9l0i2suh41ayrux3telz.png</t>
   </si>
   <si>
     <t>Constantly attracts enemies' aggression</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697d1dacl0i2sui3ut73lui72f.png</t>
   </si>
   <si>
     <t>Disturbing likeness of a man whose eyes have been gouged out.
@@ -1325,7 +1028,7 @@
 It is said that the man, named Shabriri, had his eyes gouged out as punishment for the crime of slander, and, with time, the blight of the flame of frenzy came to dwell in the empty sockets.</t>
   </si>
   <si>
-    <t>Shard of Alexander</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697d1dacl0i2sui3ut73lui72f.png</t>
   </si>
   <si>
     <t>Greatly boosts the attack power of skills</t>
@@ -1336,9 +1039,6 @@
 Scraps of stewed flesh cling to the shard, and tatters of ornaments can be seen mingled within the slime. Relics of a red-haired champion, it would seem.</t>
   </si>
   <si>
-    <t>Silver Scarab</t>
-  </si>
-  <si>
     <t>Raises item discovery</t>
   </si>
   <si>
@@ -1346,13 +1046,7 @@
 This silver scarab enhances item discovery.</t>
   </si>
   <si>
-    <t>Spear Talisman</t>
-  </si>
-  <si>
     <t>Enhances counterattacks unique to thrusting weapons</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69e13918l0i2syr0vvb0gg1l8xg.png</t>
   </si>
   <si>
     <t>A talisman depicting a spear and a soldier.
@@ -1360,13 +1054,10 @@
 Spears are standard weapons for soldiers in the Lands Between. They made it possible to respond to a ferocious foe with an equally ferocious counterattack.</t>
   </si>
   <si>
-    <t>Spelldrake Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69e13918l0i2syr0vvb0gg1l8xg.png</t>
   </si>
   <si>
     <t>Boosts magical damage negation</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b80630l0i2sum3q22drl273qe.png</t>
   </si>
   <si>
     <t>Talisman depicting a blue ancient dragon.
@@ -1375,7 +1066,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Spelldrake Talisman +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b80630l0i2sum3q22drl273qe.png</t>
   </si>
   <si>
     <t>Greatly boosts magical damage negation</t>
@@ -1387,9 +1078,6 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Spelldrake Talisman +2</t>
-  </si>
-  <si>
     <t>Vastly boosts magical damage negation</t>
   </si>
   <si>
@@ -1399,13 +1087,7 @@
 And so it is that the shape of the dragon has become symbolic of all manner of protections.</t>
   </si>
   <si>
-    <t>Stalwart Horn Charm</t>
-  </si>
-  <si>
     <t>Raises robustness</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69990291l0i2swl19cw8v99d5tk.png</t>
   </si>
   <si>
     <t>An accoutrement worn by the ancestral followers.
@@ -1414,7 +1096,7 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Stalwart Horn Charm +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69990291l0i2swl19cw8v99d5tk.png</t>
   </si>
   <si>
     <t>Greatly raises robustness</t>
@@ -1426,13 +1108,7 @@
 Said to be a budding horn. The ancestral followers believe that the horns of a long-lived beast continue to bud like antlers, over and over again, until the beast one day becomes an ancestral spirit.</t>
   </si>
   <si>
-    <t>Stargazer Heirloom</t>
-  </si>
-  <si>
     <t>Raises intelligence</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69726e74l0i2sunvmav2rtqj9e.png</t>
   </si>
   <si>
     <t>A talisman engraved with the legend of a queen.
@@ -1440,13 +1116,10 @@
 The young astrologer gazed at the night sky as she walked. She had always chased the stars every step of her journey. Then she met the full moon—and, in time, the astrologer became a queen.</t>
   </si>
   <si>
-    <t>Starscourge Heirloom</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69726e74l0i2sunvmav2rtqj9e.png</t>
   </si>
   <si>
     <t>Raises strength</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697e6e60l0i2sv6zgblnfuco5k5.png</t>
   </si>
   <si>
     <t>A talisman engraved with a scene from a heroic tale.
@@ -1454,13 +1127,10 @@
 The mightiest hero of the demigods confronted the falling stars alone—and thus did he crush them, his conquest sealing the very fate of the stars.</t>
   </si>
   <si>
-    <t>Taker's Cameo</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697e6e60l0i2sv6zgblnfuco5k5.png</t>
   </si>
   <si>
     <t>Restores HP upon defeating enemies</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69ebbca4l0i2suzy77ydy8c49x.png</t>
   </si>
   <si>
     <t>A talisman engraved with a stern likeness of Praetor Rykard, master of Volcano Manor.
@@ -1468,13 +1138,10 @@
 When Rykard turned to heresy, taking by force became the rule. The gods themselves were no different, after all.</t>
   </si>
   <si>
-    <t>Twinblade Talisman</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69ebbca4l0i2suzy77ydy8c49x.png</t>
   </si>
   <si>
     <t>Enhances final hit of chain attacks</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f6964b6cbl0i2suzpeqzc8p0p31a.png</t>
   </si>
   <si>
     <t>A talisman depicting a twinblade and a confessor.
@@ -1482,13 +1149,10 @@
 The twinblade technique is a tradition of the confessors, who closely guard the secret of how they preserve the momentum of their attacks. Thus is the final strike of their onslaught all the more deadly.</t>
   </si>
   <si>
-    <t>Two Fingers Heirloom</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f6964b6cbl0i2suzpeqzc8p0p31a.png</t>
   </si>
   <si>
     <t>Raises faith</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69b8ff63l0i2svfsqagao13n1q.png</t>
   </si>
   <si>
     <t>A talisman engraved with the legend of the Two Fingers.
@@ -1498,13 +1162,10 @@
 Thus did we gain the words. The words of our faith.</t>
   </si>
   <si>
-    <t>Viridian Amber Medallion</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69b8ff63l0i2svfsqagao13n1q.png</t>
   </si>
   <si>
     <t>Raises maximum stamina</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f697609cfl0i2sv7ve0yxa2u67ps.png</t>
   </si>
   <si>
     <t>A medallion with viridian amber inlaid.
@@ -1513,7 +1174,7 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Viridian Amber Medallion +1</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f697609cfl0i2sv7ve0yxa2u67ps.png</t>
   </si>
   <si>
     <t>Greatly raises maximum stamina</t>
@@ -1525,9 +1186,6 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Viridian Amber Medallion +2</t>
-  </si>
-  <si>
     <t>Vastly raises maximum stamina</t>
   </si>
   <si>
@@ -1537,13 +1195,7 @@
 A primordial life energy resides inside.</t>
   </si>
   <si>
-    <t>Warrior Jar Shard</t>
-  </si>
-  <si>
     <t>Boosts the attack power of skills</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69f4710al0i2sy6gpkd85ki28.png</t>
   </si>
   <si>
     <t>Shard of a shattered warrior jar.
@@ -1551,13 +1203,10 @@
 Scraps of stewed flesh cling to the shard, and tatters of ornaments can be seen mingled within the slime. Relics of ancient royal warriors, perhaps.</t>
   </si>
   <si>
-    <t>Winged Sword Insignia</t>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69f4710al0i2sy6gpkd85ki28.png</t>
   </si>
   <si>
     <t>Raises attack power with successive attacks</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/talismans/17f69a2445bl0i2svl6l9dei5cxhbd.png</t>
   </si>
   <si>
     <t>A talisman depicting a raised prosthetic blade.
@@ -1566,7 +1215,358 @@
 The wings symbolize Malenia and her undefeated prowess. Though she never knew relief from the accursed rot she was born into, her blade was forever beautiful—and relentless.</t>
   </si>
   <si>
+    <t>https://eldenring.fanapis.com/images/talismans/17f69a2445bl0i2svl6l9dei5cxhbd.png</t>
+  </si>
+  <si>
     <t>Column 1</t>
+  </si>
+  <si>
+    <t>Ancestral Spirit's Horn</t>
+  </si>
+  <si>
+    <t>Arrow's Reach Talisman</t>
+  </si>
+  <si>
+    <t>Arrow's Sting Talisman</t>
+  </si>
+  <si>
+    <t>Arsenal Charm</t>
+  </si>
+  <si>
+    <t>Arsenal Charm +1</t>
+  </si>
+  <si>
+    <t>Assassin's Cerulean Dagger</t>
+  </si>
+  <si>
+    <t>Assassin's Crimson Dagger</t>
+  </si>
+  <si>
+    <t>Axe Talisman</t>
+  </si>
+  <si>
+    <t>Blessed Dew Talisman</t>
+  </si>
+  <si>
+    <t>Blue Dancer Charm</t>
+  </si>
+  <si>
+    <t>Blue-Feathered Branchsword</t>
+  </si>
+  <si>
+    <t>Boltdrake Talisman</t>
+  </si>
+  <si>
+    <t>Boltdrake Talisman +1</t>
+  </si>
+  <si>
+    <t>Boltdrake Talisman +2</t>
+  </si>
+  <si>
+    <t>Bull-Goat's Talisman</t>
+  </si>
+  <si>
+    <t>Carian Filigreed Crest</t>
+  </si>
+  <si>
+    <t>Cerulean Amber Medallion</t>
+  </si>
+  <si>
+    <t>Cerulean Amber Medallion +1</t>
+  </si>
+  <si>
+    <t>Cerulean Amber Medallion +2</t>
+  </si>
+  <si>
+    <t>Cerulean Seed Talisman</t>
+  </si>
+  <si>
+    <t>Clarifying Horn Charm</t>
+  </si>
+  <si>
+    <t>Clarifying Horn Charm +1</t>
+  </si>
+  <si>
+    <t>Claw Talisman</t>
+  </si>
+  <si>
+    <t>Companion Jar</t>
+  </si>
+  <si>
+    <t>Concealing Veil</t>
+  </si>
+  <si>
+    <t>Crepus's Vial</t>
+  </si>
+  <si>
+    <t>Crimson Amber Medallion</t>
+  </si>
+  <si>
+    <t>Crimson Amber Medallion +1</t>
+  </si>
+  <si>
+    <t>Crimson Amber Medallion +2</t>
+  </si>
+  <si>
+    <t>Crimson Seed Talisman</t>
+  </si>
+  <si>
+    <t>Crucible Feather Talisman</t>
+  </si>
+  <si>
+    <t>Crucible Knot Talisman</t>
+  </si>
+  <si>
+    <t>Crucible Scale Talisman</t>
+  </si>
+  <si>
+    <t>Curved Sword Talisman</t>
+  </si>
+  <si>
+    <t>Daedicar's Woe</t>
+  </si>
+  <si>
+    <t>Dagger Talisman</t>
+  </si>
+  <si>
+    <t>Dragoncrest Greatshield Talisman</t>
+  </si>
+  <si>
+    <t>Dragoncrest Shield Talisman</t>
+  </si>
+  <si>
+    <t>Dragoncrest Shield Talisman +1</t>
+  </si>
+  <si>
+    <t>Dragoncrest Shield Talisman +2</t>
+  </si>
+  <si>
+    <t>Entwining Umbilical Cord</t>
+  </si>
+  <si>
+    <t>Erdtree's Favor</t>
+  </si>
+  <si>
+    <t>Erdtree's Favor +1</t>
+  </si>
+  <si>
+    <t>Erdtree's Favor +2</t>
+  </si>
+  <si>
+    <t>Faithful's Canvas Talisman</t>
+  </si>
+  <si>
+    <t>Fire Scorpion Charm</t>
+  </si>
+  <si>
+    <t>Flamedrake Talisman</t>
+  </si>
+  <si>
+    <t>Flamedrake Talisman +1</t>
+  </si>
+  <si>
+    <t>Flamedrake Talisman +2</t>
+  </si>
+  <si>
+    <t>Flock's Canvas Talisman</t>
+  </si>
+  <si>
+    <t>Furled Finger's Trick-Mirror</t>
+  </si>
+  <si>
+    <t>Godfrey Icon</t>
+  </si>
+  <si>
+    <t>Godskin Swaddling Cloth</t>
+  </si>
+  <si>
+    <t>Gold Scarab</t>
+  </si>
+  <si>
+    <t>Graven-Mass Talisman</t>
+  </si>
+  <si>
+    <t>Graven-School Talisman</t>
+  </si>
+  <si>
+    <t>Great-Jar's Arsenal</t>
+  </si>
+  <si>
+    <t>Greatshield Talisman</t>
+  </si>
+  <si>
+    <t>Green Turtle Talisman</t>
+  </si>
+  <si>
+    <t>Haligdrake Talisman</t>
+  </si>
+  <si>
+    <t>Haligdrake Talisman +1</t>
+  </si>
+  <si>
+    <t>Haligdrake Talisman +2</t>
+  </si>
+  <si>
+    <t>Hammer Talisman</t>
+  </si>
+  <si>
+    <t>Host's Trick-Mirror</t>
+  </si>
+  <si>
+    <t>Immunizing Horn Charm</t>
+  </si>
+  <si>
+    <t>Immunizing Horn Charm +1</t>
+  </si>
+  <si>
+    <t>Kindred of Rot's Exultation</t>
+  </si>
+  <si>
+    <t>Lance Talisman</t>
+  </si>
+  <si>
+    <t>Lightning Scorpion Charm</t>
+  </si>
+  <si>
+    <t>Longtail Cat Talisman</t>
+  </si>
+  <si>
+    <t>Lord of Blood's Exultation</t>
+  </si>
+  <si>
+    <t>Magic Scorpion Charm</t>
+  </si>
+  <si>
+    <t>Marika's Scarseal</t>
+  </si>
+  <si>
+    <t>Marika's Soreseal</t>
+  </si>
+  <si>
+    <t>Millicent's Prosthesis</t>
+  </si>
+  <si>
+    <t>Moon of Nokstella</t>
+  </si>
+  <si>
+    <t>Mottled Necklace</t>
+  </si>
+  <si>
+    <t>Mottled Necklace +1</t>
+  </si>
+  <si>
+    <t>Old Lord's Talisman</t>
+  </si>
+  <si>
+    <t>Pearldrake Talisman</t>
+  </si>
+  <si>
+    <t>Pearldrake Talisman +1</t>
+  </si>
+  <si>
+    <t>Pearldrake Talisman +2</t>
+  </si>
+  <si>
+    <t>Perfumer's Talisman</t>
+  </si>
+  <si>
+    <t>Primal Glintstone Blade</t>
+  </si>
+  <si>
+    <t>Prince of Death's Cyst</t>
+  </si>
+  <si>
+    <t>Prince of Death's Pustule</t>
+  </si>
+  <si>
+    <t>Prosthesis-Wearer Heirloom</t>
+  </si>
+  <si>
+    <t>Radagon Icon</t>
+  </si>
+  <si>
+    <t>Radagon's Scarseal</t>
+  </si>
+  <si>
+    <t>Radagon's Soreseal</t>
+  </si>
+  <si>
+    <t>Red-Feathered Branchsword</t>
+  </si>
+  <si>
+    <t>Ritual Shield Talisman</t>
+  </si>
+  <si>
+    <t>Ritual Sword Talisman</t>
+  </si>
+  <si>
+    <t>Roar Medallion</t>
+  </si>
+  <si>
+    <t>Rotten Winged Sword Insignia</t>
+  </si>
+  <si>
+    <t>Sacred Scorpion Charm</t>
+  </si>
+  <si>
+    <t>Sacrificial Twig</t>
+  </si>
+  <si>
+    <t>Shabriri's Woe</t>
+  </si>
+  <si>
+    <t>Shard of Alexander</t>
+  </si>
+  <si>
+    <t>Silver Scarab</t>
+  </si>
+  <si>
+    <t>Spear Talisman</t>
+  </si>
+  <si>
+    <t>Spelldrake Talisman</t>
+  </si>
+  <si>
+    <t>Spelldrake Talisman +1</t>
+  </si>
+  <si>
+    <t>Spelldrake Talisman +2</t>
+  </si>
+  <si>
+    <t>Stalwart Horn Charm</t>
+  </si>
+  <si>
+    <t>Stalwart Horn Charm +1</t>
+  </si>
+  <si>
+    <t>Stargazer Heirloom</t>
+  </si>
+  <si>
+    <t>Starscourge Heirloom</t>
+  </si>
+  <si>
+    <t>Taker's Cameo</t>
+  </si>
+  <si>
+    <t>Twinblade Talisman</t>
+  </si>
+  <si>
+    <t>Two Fingers Heirloom</t>
+  </si>
+  <si>
+    <t>Viridian Amber Medallion</t>
+  </si>
+  <si>
+    <t>Viridian Amber Medallion +1</t>
+  </si>
+  <si>
+    <t>Viridian Amber Medallion +2</t>
+  </si>
+  <si>
+    <t>Warrior Jar Shard</t>
+  </si>
+  <si>
+    <t>Winged Sword Insignia</t>
   </si>
 </sst>
 </file>
@@ -2150,2282 +2150,2282 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>3249.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>1.2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>3250.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3251.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3252.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>3253.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>3254.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1500.0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>3255.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1500.0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>3256.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>3257.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>3258.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>3259.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>3260.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>3261.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>3262.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>3263.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>3264.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>3265.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>3266.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>3267.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>3268.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>3269.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>3270.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>3271.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="E24" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>3272.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>3273.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>3274.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>3275.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>3276.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>3277.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>3278.0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>3279.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>3280.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>3281.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>3282.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E35" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>3283.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>3284.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>3285.0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2000.0</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>3286.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>3287.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>3288.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>3289.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>3290.0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="1">
         <v>1.5</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E43" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>3291.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>3292.0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>3293.0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>3294.0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E47" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>3295.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E48" s="1">
         <v>100.0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="F48" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>3296.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E49" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>3297.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>3298.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2000.0</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>3299.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>3301.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>3302.0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>3303.0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>3304.0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>3305.0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="1">
         <v>1.5</v>
       </c>
-      <c r="F6" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="E58" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>3306.0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E59" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>3307.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E60" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>3308.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E61" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>3309.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E62" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>3310.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>3311.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E64" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>3312.0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>3313.0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E66" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>3314.0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>3315.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E68" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>3316.0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E69" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>3317.0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="1">
         <v>0.8</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1500.0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="E70" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>3318.0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E71" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>3319.0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E72" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>3320.0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="1">
         <v>0.8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1500.0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="E73" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>3321.0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="1">
         <v>0.8</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="E74" s="1">
+        <v>3000.0</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>3322.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3000.0</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>3323.0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>3324.0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>3325.0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>3326.0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>3327.0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>3328.0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E81" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>3329.0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E82" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>3330.0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>3331.0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="1">
         <v>0.6</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="E84" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>3332.0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2000.0</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>3333.0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>3334.0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E87" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>3335.0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>3336.0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>3337.0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E90" s="1">
+        <v>3000.0</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>3338.0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E91" s="1">
+        <v>3000.0</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>3339.0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E92" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>3340.0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D93" s="1">
         <v>0.9</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="E93" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>3341.0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E94" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>3342.0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E95" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>3343.0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E96" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>3344.0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E97" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>3345.0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>3346.0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="1">
         <v>0.6</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E99" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>3347.0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>3348.0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E101" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>3349.0</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E102" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>3350.0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E103" s="1">
         <v>100.0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="F103" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>3351.0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" s="1">
         <v>0.6</v>
       </c>
-      <c r="F14" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="E104" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>3352.0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D105" s="1">
         <v>0.6</v>
       </c>
-      <c r="F15" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="E105" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>3353.0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E106" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>3354.0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>3355.0</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>3356.0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D109" s="1">
         <v>0.8</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="E109" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>3357.0</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>3358.0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E111" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>3359.0</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>3360.0</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D113" s="1">
         <v>0.3</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E113" s="1">
         <v>100.0</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="F113" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>3361.0</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D114" s="1">
         <v>0.3</v>
       </c>
-      <c r="F19" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="E114" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>3362.0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D115" s="1">
         <v>0.3</v>
       </c>
-      <c r="F20" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="E115" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>3363.0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D116" s="1">
         <v>0.9</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F29" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F40" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1500.0</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F45" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F48" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F49" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F55" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F59" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F60" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F61" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F62" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F64" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F66" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F68" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F69" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F70" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F71" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F72" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F73" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F74" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F75" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F77" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F79" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F80" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F81" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F82" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F83" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="E116" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C84" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E84" s="2" t="s">
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>3364.0</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F84" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="D117" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E117" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F85" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F87" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F90" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F91" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="F92" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F93" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F94" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F95" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="F96" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F97" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F98" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F99" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F101" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F102" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F103" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F104" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F105" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F106" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F107" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F108" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F109" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C110" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F110" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F111" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C112" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F112" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F113" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F114" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F115" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C116" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F116" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C117" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F117" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
-    <hyperlink r:id="rId2" ref="E3"/>
-    <hyperlink r:id="rId3" ref="E4"/>
-    <hyperlink r:id="rId4" ref="E5"/>
-    <hyperlink r:id="rId5" ref="E7"/>
-    <hyperlink r:id="rId6" ref="E8"/>
-    <hyperlink r:id="rId7" ref="E9"/>
-    <hyperlink r:id="rId8" ref="E10"/>
-    <hyperlink r:id="rId9" ref="E11"/>
-    <hyperlink r:id="rId10" ref="E13"/>
-    <hyperlink r:id="rId11" ref="E17"/>
-    <hyperlink r:id="rId12" ref="E18"/>
-    <hyperlink r:id="rId13" ref="E21"/>
-    <hyperlink r:id="rId14" ref="E22"/>
-    <hyperlink r:id="rId15" ref="E24"/>
-    <hyperlink r:id="rId16" ref="E25"/>
-    <hyperlink r:id="rId17" ref="E26"/>
-    <hyperlink r:id="rId18" ref="E27"/>
-    <hyperlink r:id="rId19" ref="E28"/>
-    <hyperlink r:id="rId20" ref="E31"/>
-    <hyperlink r:id="rId21" ref="E32"/>
-    <hyperlink r:id="rId22" ref="E33"/>
-    <hyperlink r:id="rId23" ref="E34"/>
-    <hyperlink r:id="rId24" ref="E35"/>
-    <hyperlink r:id="rId25" ref="E36"/>
-    <hyperlink r:id="rId26" ref="E37"/>
-    <hyperlink r:id="rId27" ref="E38"/>
-    <hyperlink r:id="rId28" ref="E39"/>
-    <hyperlink r:id="rId29" ref="E42"/>
-    <hyperlink r:id="rId30" ref="E43"/>
-    <hyperlink r:id="rId31" ref="E46"/>
-    <hyperlink r:id="rId32" ref="E47"/>
-    <hyperlink r:id="rId33" ref="E48"/>
-    <hyperlink r:id="rId34" ref="E51"/>
-    <hyperlink r:id="rId35" ref="E53"/>
-    <hyperlink r:id="rId36" ref="E54"/>
-    <hyperlink r:id="rId37" ref="E55"/>
-    <hyperlink r:id="rId38" ref="E59"/>
-    <hyperlink r:id="rId39" ref="E60"/>
-    <hyperlink r:id="rId40" ref="E61"/>
-    <hyperlink r:id="rId41" ref="E64"/>
-    <hyperlink r:id="rId42" ref="E66"/>
-    <hyperlink r:id="rId43" ref="E69"/>
-    <hyperlink r:id="rId44" ref="E70"/>
-    <hyperlink r:id="rId45" ref="E71"/>
-    <hyperlink r:id="rId46" ref="E73"/>
-    <hyperlink r:id="rId47" ref="E74"/>
-    <hyperlink r:id="rId48" ref="E75"/>
-    <hyperlink r:id="rId49" ref="E76"/>
-    <hyperlink r:id="rId50" ref="E78"/>
-    <hyperlink r:id="rId51" ref="E80"/>
-    <hyperlink r:id="rId52" ref="E81"/>
-    <hyperlink r:id="rId53" ref="E84"/>
-    <hyperlink r:id="rId54" ref="E85"/>
-    <hyperlink r:id="rId55" ref="E89"/>
-    <hyperlink r:id="rId56" ref="E90"/>
-    <hyperlink r:id="rId57" ref="E91"/>
-    <hyperlink r:id="rId58" ref="E93"/>
-    <hyperlink r:id="rId59" ref="E94"/>
-    <hyperlink r:id="rId60" ref="E97"/>
-    <hyperlink r:id="rId61" ref="E98"/>
-    <hyperlink r:id="rId62" ref="E99"/>
-    <hyperlink r:id="rId63" ref="E102"/>
-    <hyperlink r:id="rId64" ref="E103"/>
-    <hyperlink r:id="rId65" ref="E106"/>
-    <hyperlink r:id="rId66" ref="E108"/>
-    <hyperlink r:id="rId67" ref="E109"/>
-    <hyperlink r:id="rId68" ref="E110"/>
-    <hyperlink r:id="rId69" ref="E111"/>
-    <hyperlink r:id="rId70" ref="E112"/>
-    <hyperlink r:id="rId71" ref="E113"/>
-    <hyperlink r:id="rId72" ref="E116"/>
-    <hyperlink r:id="rId73" ref="E117"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="F3"/>
+    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink r:id="rId4" ref="F5"/>
+    <hyperlink r:id="rId5" ref="F7"/>
+    <hyperlink r:id="rId6" ref="F8"/>
+    <hyperlink r:id="rId7" ref="F9"/>
+    <hyperlink r:id="rId8" ref="F10"/>
+    <hyperlink r:id="rId9" ref="F11"/>
+    <hyperlink r:id="rId10" ref="F13"/>
+    <hyperlink r:id="rId11" ref="F17"/>
+    <hyperlink r:id="rId12" ref="F18"/>
+    <hyperlink r:id="rId13" ref="F21"/>
+    <hyperlink r:id="rId14" ref="F22"/>
+    <hyperlink r:id="rId15" ref="F24"/>
+    <hyperlink r:id="rId16" ref="F25"/>
+    <hyperlink r:id="rId17" ref="F26"/>
+    <hyperlink r:id="rId18" ref="F27"/>
+    <hyperlink r:id="rId19" ref="F28"/>
+    <hyperlink r:id="rId20" ref="F31"/>
+    <hyperlink r:id="rId21" ref="F32"/>
+    <hyperlink r:id="rId22" ref="F33"/>
+    <hyperlink r:id="rId23" ref="F34"/>
+    <hyperlink r:id="rId24" ref="F35"/>
+    <hyperlink r:id="rId25" ref="F36"/>
+    <hyperlink r:id="rId26" ref="F37"/>
+    <hyperlink r:id="rId27" ref="F38"/>
+    <hyperlink r:id="rId28" ref="F39"/>
+    <hyperlink r:id="rId29" ref="F42"/>
+    <hyperlink r:id="rId30" ref="F43"/>
+    <hyperlink r:id="rId31" ref="F46"/>
+    <hyperlink r:id="rId32" ref="F47"/>
+    <hyperlink r:id="rId33" ref="F48"/>
+    <hyperlink r:id="rId34" ref="F51"/>
+    <hyperlink r:id="rId35" ref="F53"/>
+    <hyperlink r:id="rId36" ref="F54"/>
+    <hyperlink r:id="rId37" ref="F55"/>
+    <hyperlink r:id="rId38" ref="F59"/>
+    <hyperlink r:id="rId39" ref="F60"/>
+    <hyperlink r:id="rId40" ref="F61"/>
+    <hyperlink r:id="rId41" ref="F64"/>
+    <hyperlink r:id="rId42" ref="F66"/>
+    <hyperlink r:id="rId43" ref="F69"/>
+    <hyperlink r:id="rId44" ref="F70"/>
+    <hyperlink r:id="rId45" ref="F71"/>
+    <hyperlink r:id="rId46" ref="F73"/>
+    <hyperlink r:id="rId47" ref="F74"/>
+    <hyperlink r:id="rId48" ref="F75"/>
+    <hyperlink r:id="rId49" ref="F76"/>
+    <hyperlink r:id="rId50" ref="F78"/>
+    <hyperlink r:id="rId51" ref="F80"/>
+    <hyperlink r:id="rId52" ref="F81"/>
+    <hyperlink r:id="rId53" ref="F84"/>
+    <hyperlink r:id="rId54" ref="F85"/>
+    <hyperlink r:id="rId55" ref="F89"/>
+    <hyperlink r:id="rId56" ref="F90"/>
+    <hyperlink r:id="rId57" ref="F91"/>
+    <hyperlink r:id="rId58" ref="F93"/>
+    <hyperlink r:id="rId59" ref="F94"/>
+    <hyperlink r:id="rId60" ref="F97"/>
+    <hyperlink r:id="rId61" ref="F98"/>
+    <hyperlink r:id="rId62" ref="F99"/>
+    <hyperlink r:id="rId63" ref="F102"/>
+    <hyperlink r:id="rId64" ref="F103"/>
+    <hyperlink r:id="rId65" ref="F106"/>
+    <hyperlink r:id="rId66" ref="F108"/>
+    <hyperlink r:id="rId67" ref="F109"/>
+    <hyperlink r:id="rId68" ref="F110"/>
+    <hyperlink r:id="rId69" ref="F111"/>
+    <hyperlink r:id="rId70" ref="F112"/>
+    <hyperlink r:id="rId71" ref="F113"/>
+    <hyperlink r:id="rId72" ref="F116"/>
+    <hyperlink r:id="rId73" ref="F117"/>
   </hyperlinks>
   <drawing r:id="rId74"/>
 </worksheet>
@@ -4459,27 +4459,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>423</v>
+        <v>307</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="9">
         <v>1.2</v>
@@ -4491,75 +4491,75 @@
         <v>500.0</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="14">
         <v>0.7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="14">
         <v>500.0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9">
         <v>0.7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="9">
         <v>500.0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="14">
         <v>1.5</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="14">
         <v>100.0</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9">
         <v>1.5</v>
@@ -4569,115 +4569,115 @@
         <v>500.0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="14">
         <v>0.8</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F7" s="14">
         <v>1500.0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9">
         <v>0.8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F8" s="9">
         <v>1500.0</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" s="14">
         <v>0.8</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F9" s="14">
         <v>500.0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9">
         <v>0.6</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F10" s="9">
         <v>1000.0</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C11" s="14">
         <v>0.9</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F11" s="14">
         <v>500.0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9">
         <v>1.1</v>
@@ -4687,35 +4687,35 @@
         <v>500.0</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C13" s="14">
         <v>0.6</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F13" s="14">
         <v>100.0</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C14" s="9">
         <v>0.6</v>
@@ -4725,15 +4725,15 @@
         <v>500.0</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>55</v>
+        <v>321</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C15" s="14">
         <v>0.6</v>
@@ -4743,15 +4743,15 @@
         <v>1000.0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C16" s="9">
         <v>0.5</v>
@@ -4761,55 +4761,55 @@
         <v>1000.0</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C17" s="14">
         <v>0.8</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F17" s="14">
         <v>1000.0</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C18" s="9">
         <v>0.3</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F18" s="9">
         <v>100.0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C19" s="14">
         <v>0.3</v>
@@ -4819,15 +4819,15 @@
         <v>500.0</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>72</v>
+        <v>326</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C20" s="9">
         <v>0.3</v>
@@ -4837,55 +4837,55 @@
         <v>1000.0</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C21" s="14">
         <v>0.8</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F21" s="14">
         <v>1000.0</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C22" s="9">
         <v>0.6</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F22" s="9">
         <v>500.0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C23" s="14">
         <v>0.6</v>
@@ -4895,115 +4895,115 @@
         <v>1000.0</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C24" s="9">
         <v>0.7</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F24" s="9">
         <v>500.0</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>90</v>
+        <v>331</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C25" s="14">
         <v>0.6</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F25" s="14">
         <v>500.0</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C26" s="9">
         <v>0.9</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F26" s="9">
         <v>500.0</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C27" s="14">
         <v>0.7</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F27" s="14">
         <v>500.0</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>102</v>
+        <v>334</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C28" s="9">
         <v>0.3</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F28" s="9">
         <v>100.0</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>106</v>
+        <v>335</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C29" s="14">
         <v>0.3</v>
@@ -5013,15 +5013,15 @@
         <v>500.0</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>109</v>
+        <v>336</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C30" s="9">
         <v>0.3</v>
@@ -5031,195 +5031,195 @@
         <v>1000.0</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>112</v>
+        <v>337</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C31" s="14">
         <v>0.8</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F31" s="14">
         <v>1000.0</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>116</v>
+        <v>338</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C32" s="9">
         <v>0.8</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F32" s="9">
         <v>1000.0</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C33" s="14">
         <v>0.5</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="F33" s="14">
         <v>500.0</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C34" s="9">
         <v>1.1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F34" s="9">
         <v>500.0</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C35" s="14">
         <v>0.7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="F35" s="14">
         <v>500.0</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C36" s="9">
         <v>0.8</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F36" s="9">
         <v>500.0</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>136</v>
+        <v>343</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C37" s="14">
         <v>1.1</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F37" s="14">
         <v>500.0</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>140</v>
+        <v>344</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C38" s="9">
         <v>0.8</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F38" s="9">
         <v>2000.0</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>144</v>
+        <v>345</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C39" s="14">
         <v>0.8</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="F39" s="14">
         <v>100.0</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C40" s="9">
         <v>0.8</v>
@@ -5229,15 +5229,15 @@
         <v>500.0</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C41" s="14">
         <v>0.8</v>
@@ -5247,55 +5247,55 @@
         <v>1000.0</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>154</v>
+        <v>348</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="C42" s="9">
         <v>0.5</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="F42" s="9">
         <v>1000.0</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C43" s="14">
         <v>1.5</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="F43" s="14">
         <v>500.0</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>162</v>
+        <v>350</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C44" s="9">
         <v>1.5</v>
@@ -5305,15 +5305,15 @@
         <v>1500.0</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>164</v>
+        <v>351</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C45" s="14">
         <v>1.5</v>
@@ -5323,75 +5323,75 @@
         <v>3000.0</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>166</v>
+        <v>352</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C46" s="9">
         <v>0.7</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="F46" s="9">
         <v>1000.0</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>170</v>
+        <v>353</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C47" s="14">
         <v>0.8</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="F47" s="14">
         <v>500.0</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C48" s="9">
         <v>0.6</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="F48" s="9">
         <v>100.0</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="C49" s="14">
         <v>0.6</v>
@@ -5401,15 +5401,15 @@
         <v>500.0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>181</v>
+        <v>356</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C50" s="9">
         <v>0.6</v>
@@ -5419,35 +5419,35 @@
         <v>1000.0</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>184</v>
+        <v>357</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="C51" s="14">
         <v>1.0</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="F51" s="14">
         <v>2000.0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>188</v>
+        <v>358</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="C52" s="9">
         <v>0.7</v>
@@ -5457,75 +5457,75 @@
         <v>1000.0</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>191</v>
+        <v>359</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="C53" s="14">
         <v>0.8</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="F53" s="14">
         <v>1000.0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>195</v>
+        <v>360</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="C54" s="9">
         <v>0.9</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="F54" s="9">
         <v>1000.0</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>199</v>
+        <v>361</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="C55" s="14">
         <v>1.2</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="F55" s="14">
         <v>500.0</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="C56" s="9">
         <v>1.0</v>
@@ -5535,15 +5535,15 @@
         <v>2000.0</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>206</v>
+        <v>363</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="C57" s="14">
         <v>0.7</v>
@@ -5553,15 +5553,15 @@
         <v>1000.0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="C58" s="9">
         <v>1.5</v>
@@ -5571,75 +5571,75 @@
         <v>1000.0</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="C59" s="14">
         <v>0.9</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="F59" s="14">
         <v>500.0</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>216</v>
+        <v>366</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C60" s="9">
         <v>0.7</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="F60" s="9">
         <v>500.0</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C61" s="14">
         <v>0.6</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="F61" s="14">
         <v>100.0</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="C62" s="9">
         <v>0.6</v>
@@ -5649,15 +5649,15 @@
         <v>500.0</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="C63" s="14">
         <v>0.6</v>
@@ -5667,35 +5667,35 @@
         <v>1000.0</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="C64" s="9">
         <v>0.9</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F64" s="9">
         <v>500.0</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>234</v>
+        <v>371</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="C65" s="14">
         <v>0.7</v>
@@ -5705,35 +5705,35 @@
         <v>1000.0</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="C66" s="9">
         <v>0.6</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="F66" s="9">
         <v>500.0</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="C67" s="14">
         <v>0.6</v>
@@ -5743,15 +5743,15 @@
         <v>1000.0</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>244</v>
+        <v>374</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="C68" s="9">
         <v>0.9</v>
@@ -5761,75 +5761,75 @@
         <v>500.0</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="C69" s="14">
         <v>0.7</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="F69" s="14">
         <v>500.0</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="C70" s="9">
         <v>0.8</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="F70" s="9">
         <v>500.0</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="C71" s="14">
         <v>0.6</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="F71" s="14">
         <v>500.0</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="C72" s="9">
         <v>0.9</v>
@@ -5839,95 +5839,95 @@
         <v>500.0</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>262</v>
+        <v>379</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="C73" s="14">
         <v>0.8</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="F73" s="14">
         <v>500.0</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>266</v>
+        <v>380</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="C74" s="9">
         <v>0.8</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="F74" s="9">
         <v>3000.0</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
-        <v>270</v>
+        <v>381</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="C75" s="14">
         <v>0.8</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="F75" s="14">
         <v>3000.0</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>274</v>
+        <v>382</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="C76" s="9">
         <v>1.6</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="F76" s="9">
         <v>1000.0</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="C77" s="14">
         <v>0.8</v>
@@ -5937,35 +5937,35 @@
         <v>2000.0</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>281</v>
+        <v>384</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="C78" s="9">
         <v>0.9</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="F78" s="9">
         <v>1000.0</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>285</v>
+        <v>385</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="C79" s="14">
         <v>0.9</v>
@@ -5975,55 +5975,55 @@
         <v>2000.0</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="C80" s="9">
         <v>0.5</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="F80" s="9">
         <v>1000.0</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="C81" s="14">
         <v>0.9</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="F81" s="14">
         <v>100.0</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>295</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="C82" s="9">
         <v>0.9</v>
@@ -6033,15 +6033,15 @@
         <v>500.0</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="C83" s="14">
         <v>0.9</v>
@@ -6051,55 +6051,55 @@
         <v>1000.0</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="C84" s="9">
         <v>0.6</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="F84" s="9">
         <v>500.0</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="s">
-        <v>306</v>
+        <v>391</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="C85" s="14">
         <v>0.6</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="F85" s="14">
         <v>2000.0</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>310</v>
+        <v>392</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C86" s="9">
         <v>0.6</v>
@@ -6109,15 +6109,15 @@
         <v>1000.0</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="C87" s="14">
         <v>0.6</v>
@@ -6127,15 +6127,15 @@
         <v>500.0</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>315</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>316</v>
+        <v>394</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="C88" s="9">
         <v>0.8</v>
@@ -6145,75 +6145,75 @@
         <v>1000.0</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>318</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C89" s="14">
         <v>0.7</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c r="F89" s="14">
         <v>1000.0</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="C90" s="9">
         <v>0.8</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="F90" s="9">
         <v>3000.0</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="C91" s="14">
         <v>0.8</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="F91" s="14">
         <v>3000.0</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>330</v>
+        <v>239</v>
       </c>
       <c r="C92" s="9">
         <v>1.4</v>
@@ -6223,55 +6223,55 @@
         <v>500.0</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>331</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="C93" s="14">
         <v>0.9</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="F93" s="14">
         <v>500.0</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>335</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="C94" s="9">
         <v>0.9</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>338</v>
+        <v>246</v>
       </c>
       <c r="F94" s="9">
         <v>500.0</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="C95" s="14">
         <v>0.7</v>
@@ -6281,15 +6281,15 @@
         <v>500.0</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c r="C96" s="9">
         <v>1.4</v>
@@ -6299,75 +6299,75 @@
         <v>500.0</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="C97" s="14">
         <v>0.8</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c r="F97" s="14">
         <v>500.0</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>349</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>351</v>
+        <v>254</v>
       </c>
       <c r="C98" s="9">
         <v>1.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="F98" s="9">
         <v>1000.0</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="C99" s="14">
         <v>0.6</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>356</v>
+        <v>259</v>
       </c>
       <c r="F99" s="14">
         <v>500.0</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>357</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="C100" s="9">
         <v>0.9</v>
@@ -6377,15 +6377,15 @@
         <v>1000.0</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="C101" s="14">
         <v>1.2</v>
@@ -6395,55 +6395,55 @@
         <v>500.0</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="C102" s="9">
         <v>0.5</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="F102" s="9">
         <v>500.0</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="C103" s="14">
         <v>0.6</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>370</v>
+        <v>269</v>
       </c>
       <c r="F103" s="14">
         <v>100.0</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>371</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="C104" s="9">
         <v>0.6</v>
@@ -6453,15 +6453,15 @@
         <v>500.0</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>374</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="C105" s="14">
         <v>0.6</v>
@@ -6471,35 +6471,35 @@
         <v>1000.0</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="C106" s="9">
         <v>0.6</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>380</v>
+        <v>276</v>
       </c>
       <c r="F106" s="9">
         <v>500.0</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>381</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="C107" s="14">
         <v>0.6</v>
@@ -6509,135 +6509,135 @@
         <v>1000.0</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>386</v>
+        <v>279</v>
       </c>
       <c r="C108" s="9">
         <v>0.6</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>387</v>
+        <v>281</v>
       </c>
       <c r="F108" s="9">
         <v>1000.0</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>388</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="C109" s="14">
         <v>0.8</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>391</v>
+        <v>284</v>
       </c>
       <c r="F109" s="14">
         <v>1000.0</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>392</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>394</v>
+        <v>285</v>
       </c>
       <c r="C110" s="9">
         <v>1.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="F110" s="9">
         <v>1000.0</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>396</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>398</v>
+        <v>288</v>
       </c>
       <c r="C111" s="14">
         <v>0.7</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>399</v>
+        <v>290</v>
       </c>
       <c r="F111" s="14">
         <v>500.0</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>400</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>402</v>
+        <v>291</v>
       </c>
       <c r="C112" s="9">
         <v>0.6</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>403</v>
+        <v>293</v>
       </c>
       <c r="F112" s="9">
         <v>1000.0</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="C113" s="14">
         <v>0.3</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>407</v>
+        <v>296</v>
       </c>
       <c r="F113" s="14">
         <v>100.0</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>408</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>410</v>
+        <v>297</v>
       </c>
       <c r="C114" s="9">
         <v>0.3</v>
@@ -6647,15 +6647,15 @@
         <v>500.0</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>411</v>
+        <v>298</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>413</v>
+        <v>299</v>
       </c>
       <c r="C115" s="14">
         <v>0.3</v>
@@ -6665,47 +6665,47 @@
         <v>1000.0</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>414</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>416</v>
+        <v>301</v>
       </c>
       <c r="C116" s="9">
         <v>0.9</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>417</v>
+        <v>303</v>
       </c>
       <c r="F116" s="9">
         <v>500.0</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>418</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="19" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>420</v>
+        <v>304</v>
       </c>
       <c r="C117" s="21">
         <v>1.4</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>421</v>
+        <v>306</v>
       </c>
       <c r="F117" s="21">
         <v>500.0</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>422</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
